--- a/BackTest/2019-10-07 BackTest LINK.xlsx
+++ b/BackTest/2019-10-07 BackTest LINK.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>28</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>2553.4</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>31</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>21.42857142857143</v>
+      </c>
       <c r="L13" t="n">
         <v>2553.7</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>35</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-3.448275862068965</v>
+      </c>
       <c r="L14" t="n">
         <v>2553.9</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>44</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>43.75</v>
+      </c>
       <c r="L15" t="n">
         <v>2554.7</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>47</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L16" t="n">
         <v>2555.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>54</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L17" t="n">
         <v>2556.9</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>54</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>22.58064516129032</v>
+      </c>
       <c r="L18" t="n">
         <v>2557.8</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>59</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>41.17647058823529</v>
+      </c>
       <c r="L19" t="n">
         <v>2559</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>63</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>55.55555555555556</v>
+      </c>
       <c r="L20" t="n">
         <v>2560.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>79</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>72.54901960784314</v>
+      </c>
       <c r="L21" t="n">
         <v>2564.4</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>84</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>73.58490566037736</v>
+      </c>
       <c r="L22" t="n">
         <v>2568.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>92</v>
       </c>
       <c r="K23" t="n">
-        <v>36.95652173913043</v>
+        <v>61.40350877192983</v>
       </c>
       <c r="L23" t="n">
         <v>2571.7</v>
@@ -1466,7 +1488,7 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>46.39175257731959</v>
+        <v>60.71428571428571</v>
       </c>
       <c r="L24" t="n">
         <v>2576</v>
@@ -1515,7 +1537,7 @@
         <v>103</v>
       </c>
       <c r="K25" t="n">
-        <v>46.39175257731959</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L25" t="n">
         <v>2579.7</v>
@@ -1564,7 +1586,7 @@
         <v>112</v>
       </c>
       <c r="K26" t="n">
-        <v>60</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L26" t="n">
         <v>2584.6</v>
@@ -1613,7 +1635,7 @@
         <v>112</v>
       </c>
       <c r="K27" t="n">
-        <v>56.98924731182796</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L27" t="n">
         <v>2588.8</v>
@@ -1662,7 +1684,7 @@
         <v>120</v>
       </c>
       <c r="K28" t="n">
-        <v>59.59595959595959</v>
+        <v>73.77049180327869</v>
       </c>
       <c r="L28" t="n">
         <v>2593.8</v>
@@ -1711,7 +1733,7 @@
         <v>120</v>
       </c>
       <c r="K29" t="n">
-        <v>58.76288659793815</v>
+        <v>71.92982456140351</v>
       </c>
       <c r="L29" t="n">
         <v>2598.3</v>
@@ -1760,7 +1782,7 @@
         <v>124</v>
       </c>
       <c r="K30" t="n">
-        <v>63.63636363636363</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="L30" t="n">
         <v>2602.8</v>
@@ -1809,7 +1831,7 @@
         <v>125</v>
       </c>
       <c r="K31" t="n">
-        <v>65.30612244897959</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="L31" t="n">
         <v>2605.6</v>
@@ -1860,7 +1882,7 @@
         <v>130</v>
       </c>
       <c r="K32" t="n">
-        <v>58.82352941176471</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L32" t="n">
         <v>2607.4</v>
@@ -1911,7 +1933,7 @@
         <v>130</v>
       </c>
       <c r="K33" t="n">
-        <v>57.57575757575758</v>
+        <v>60</v>
       </c>
       <c r="L33" t="n">
         <v>2610</v>
@@ -1962,7 +1984,7 @@
         <v>144</v>
       </c>
       <c r="K34" t="n">
-        <v>68.80733944954129</v>
+        <v>70.73170731707317</v>
       </c>
       <c r="L34" t="n">
         <v>2613.2</v>
@@ -2013,7 +2035,7 @@
         <v>144</v>
       </c>
       <c r="K35" t="n">
-        <v>66</v>
+        <v>62.5</v>
       </c>
       <c r="L35" t="n">
         <v>2616.1</v>
@@ -2064,7 +2086,7 @@
         <v>148</v>
       </c>
       <c r="K36" t="n">
-        <v>72.27722772277228</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L36" t="n">
         <v>2618.5</v>
@@ -2115,7 +2137,7 @@
         <v>150</v>
       </c>
       <c r="K37" t="n">
-        <v>66.66666666666666</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L37" t="n">
         <v>2620.7</v>
@@ -2166,7 +2188,7 @@
         <v>151</v>
       </c>
       <c r="K38" t="n">
-        <v>64.94845360824742</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L38" t="n">
         <v>2622</v>
@@ -2217,7 +2239,7 @@
         <v>157</v>
       </c>
       <c r="K39" t="n">
-        <v>53.06122448979592</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L39" t="n">
         <v>2622.7</v>
@@ -2268,7 +2290,7 @@
         <v>162</v>
       </c>
       <c r="K40" t="n">
-        <v>53.53535353535354</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L40" t="n">
         <v>2623.5</v>
@@ -2319,7 +2341,7 @@
         <v>166</v>
       </c>
       <c r="K41" t="n">
-        <v>47.12643678160919</v>
+        <v>50</v>
       </c>
       <c r="L41" t="n">
         <v>2624.8</v>
@@ -2370,7 +2392,7 @@
         <v>171</v>
       </c>
       <c r="K42" t="n">
-        <v>35.63218390804598</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L42" t="n">
         <v>2626.1</v>
@@ -2421,7 +2443,7 @@
         <v>178</v>
       </c>
       <c r="K43" t="n">
-        <v>53.48837209302325</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L43" t="n">
         <v>2628.1</v>
@@ -2472,7 +2494,7 @@
         <v>181</v>
       </c>
       <c r="K44" t="n">
-        <v>50.61728395061728</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L44" t="n">
         <v>2629</v>
@@ -2523,7 +2545,7 @@
         <v>185</v>
       </c>
       <c r="K45" t="n">
-        <v>51.21951219512195</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L45" t="n">
         <v>2630.3</v>
@@ -2574,7 +2596,7 @@
         <v>185</v>
       </c>
       <c r="K46" t="n">
-        <v>45.20547945205479</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L46" t="n">
         <v>2631.2</v>
@@ -2625,7 +2647,7 @@
         <v>188</v>
       </c>
       <c r="K47" t="n">
-        <v>47.36842105263158</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="L47" t="n">
         <v>2632.6</v>
@@ -2676,7 +2698,7 @@
         <v>188</v>
       </c>
       <c r="K48" t="n">
-        <v>41.17647058823529</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="L48" t="n">
         <v>2634.1</v>
@@ -2727,7 +2749,7 @@
         <v>194</v>
       </c>
       <c r="K49" t="n">
-        <v>45.94594594594595</v>
+        <v>68.75</v>
       </c>
       <c r="L49" t="n">
         <v>2636.8</v>
@@ -2778,7 +2800,7 @@
         <v>196</v>
       </c>
       <c r="K50" t="n">
-        <v>44.44444444444444</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L50" t="n">
         <v>2639.2</v>
@@ -2829,7 +2851,7 @@
         <v>215</v>
       </c>
       <c r="K51" t="n">
-        <v>57.77777777777777</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>2643.1</v>
@@ -2880,7 +2902,7 @@
         <v>232</v>
       </c>
       <c r="K52" t="n">
-        <v>72.54901960784314</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>2649.2</v>
@@ -2931,7 +2953,7 @@
         <v>236</v>
       </c>
       <c r="K53" t="n">
-        <v>73.58490566037736</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>2655</v>
@@ -2982,7 +3004,7 @@
         <v>239</v>
       </c>
       <c r="K54" t="n">
-        <v>70.52631578947368</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
         <v>2660.8</v>
@@ -3033,7 +3055,7 @@
         <v>245</v>
       </c>
       <c r="K55" t="n">
-        <v>72.27722772277228</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>2666.8</v>
@@ -3084,7 +3106,7 @@
         <v>252</v>
       </c>
       <c r="K56" t="n">
-        <v>73.07692307692307</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>2673.5</v>
@@ -3135,7 +3157,7 @@
         <v>258</v>
       </c>
       <c r="K57" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>2680.5</v>
@@ -3186,7 +3208,7 @@
         <v>273</v>
       </c>
       <c r="K58" t="n">
-        <v>81.9672131147541</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
         <v>2689</v>
@@ -3237,7 +3259,7 @@
         <v>299</v>
       </c>
       <c r="K59" t="n">
-        <v>56.33802816901409</v>
+        <v>49.51456310679612</v>
       </c>
       <c r="L59" t="n">
         <v>2694.3</v>
@@ -3288,7 +3310,7 @@
         <v>325</v>
       </c>
       <c r="K60" t="n">
-        <v>30.06134969325153</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="L60" t="n">
         <v>2696.8</v>
@@ -3339,7 +3361,7 @@
         <v>345</v>
       </c>
       <c r="K61" t="n">
-        <v>13.96648044692737</v>
+        <v>-27.43362831858407</v>
       </c>
       <c r="L61" t="n">
         <v>2695.4</v>
@@ -3390,7 +3412,7 @@
         <v>358</v>
       </c>
       <c r="K62" t="n">
-        <v>22.99465240641711</v>
+        <v>-18.0327868852459</v>
       </c>
       <c r="L62" t="n">
         <v>2693.6</v>
@@ -3441,7 +3463,7 @@
         <v>366</v>
       </c>
       <c r="K63" t="n">
-        <v>14.8936170212766</v>
+        <v>-25.98425196850393</v>
       </c>
       <c r="L63" t="n">
         <v>2690.6</v>
@@ -3492,7 +3514,7 @@
         <v>371</v>
       </c>
       <c r="K64" t="n">
-        <v>15.78947368421053</v>
+        <v>-26.98412698412698</v>
       </c>
       <c r="L64" t="n">
         <v>2687.8</v>
@@ -3543,7 +3565,7 @@
         <v>376</v>
       </c>
       <c r="K65" t="n">
-        <v>16.2303664921466</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L65" t="n">
         <v>2684.9</v>
@@ -3594,7 +3616,7 @@
         <v>385</v>
       </c>
       <c r="K66" t="n">
-        <v>11</v>
+        <v>-40.15748031496063</v>
       </c>
       <c r="L66" t="n">
         <v>2680.4</v>
@@ -3645,7 +3667,7 @@
         <v>388</v>
       </c>
       <c r="K67" t="n">
-        <v>8</v>
+        <v>-60</v>
       </c>
       <c r="L67" t="n">
         <v>2675</v>
@@ -3696,7 +3718,7 @@
         <v>390</v>
       </c>
       <c r="K68" t="n">
-        <v>6.930693069306932</v>
+        <v>-49.45054945054945</v>
       </c>
       <c r="L68" t="n">
         <v>2667.9</v>
@@ -3747,7 +3769,7 @@
         <v>397</v>
       </c>
       <c r="K69" t="n">
-        <v>0.4926108374384237</v>
+        <v>-36.11111111111111</v>
       </c>
       <c r="L69" t="n">
         <v>2662.7</v>
@@ -3798,7 +3820,7 @@
         <v>398</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-9.433962264150944</v>
       </c>
       <c r="L70" t="n">
         <v>2660.2</v>
@@ -3849,7 +3871,7 @@
         <v>417</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L71" t="n">
         <v>2661.6</v>
@@ -3900,7 +3922,7 @@
         <v>422</v>
       </c>
       <c r="K72" t="n">
-        <v>-11.57894736842105</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L72" t="n">
         <v>2661.2</v>
@@ -3951,7 +3973,7 @@
         <v>432</v>
       </c>
       <c r="K73" t="n">
-        <v>-18.36734693877551</v>
+        <v>-18.0327868852459</v>
       </c>
       <c r="L73" t="n">
         <v>2660.6</v>
@@ -4002,7 +4024,7 @@
         <v>436</v>
       </c>
       <c r="K74" t="n">
-        <v>-21.82741116751269</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>2659.1</v>
@@ -4053,7 +4075,7 @@
         <v>459</v>
       </c>
       <c r="K75" t="n">
-        <v>-33.64485981308411</v>
+        <v>-45.94594594594595</v>
       </c>
       <c r="L75" t="n">
         <v>2654.8</v>
@@ -4104,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="K76" t="n">
-        <v>-33.02325581395349</v>
+        <v>-29.11392405063291</v>
       </c>
       <c r="L76" t="n">
         <v>2652.2</v>
@@ -4155,7 +4177,7 @@
         <v>467</v>
       </c>
       <c r="K77" t="n">
-        <v>-36.84210526315789</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L77" t="n">
         <v>2649.9</v>
@@ -4206,7 +4228,7 @@
         <v>467</v>
       </c>
       <c r="K78" t="n">
-        <v>-47.42268041237113</v>
+        <v>-20</v>
       </c>
       <c r="L78" t="n">
         <v>2647.8</v>
@@ -4257,7 +4279,7 @@
         <v>467</v>
       </c>
       <c r="K79" t="n">
-        <v>-39.28571428571428</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L79" t="n">
         <v>2646.4</v>
@@ -4308,7 +4330,7 @@
         <v>490</v>
       </c>
       <c r="K80" t="n">
-        <v>-10.3030303030303</v>
+        <v>-15.06849315068493</v>
       </c>
       <c r="L80" t="n">
         <v>2647.2</v>
@@ -4359,7 +4381,7 @@
         <v>492</v>
       </c>
       <c r="K81" t="n">
-        <v>0.6802721088435374</v>
+        <v>-11.42857142857143</v>
       </c>
       <c r="L81" t="n">
         <v>2645.9</v>
@@ -4410,7 +4432,7 @@
         <v>493</v>
       </c>
       <c r="K82" t="n">
-        <v>-8.148148148148149</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="L82" t="n">
         <v>2645.2</v>
@@ -4461,7 +4483,7 @@
         <v>494</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.125</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L83" t="n">
         <v>2645.4</v>
@@ -4512,7 +4534,7 @@
         <v>502</v>
       </c>
       <c r="K84" t="n">
-        <v>-12.97709923664122</v>
+        <v>48.83720930232558</v>
       </c>
       <c r="L84" t="n">
         <v>2645.2</v>
@@ -4563,7 +4585,7 @@
         <v>510</v>
       </c>
       <c r="K85" t="n">
-        <v>-10.44776119402985</v>
+        <v>48.83720930232558</v>
       </c>
       <c r="L85" t="n">
         <v>2648.1</v>
@@ -4614,7 +4636,7 @@
         <v>510</v>
       </c>
       <c r="K86" t="n">
-        <v>-4</v>
+        <v>48.83720930232558</v>
       </c>
       <c r="L86" t="n">
         <v>2650.2</v>
@@ -4665,7 +4687,7 @@
         <v>511</v>
       </c>
       <c r="K87" t="n">
-        <v>-2.439024390243902</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L87" t="n">
         <v>2652.2</v>
@@ -4716,7 +4738,7 @@
         <v>516</v>
       </c>
       <c r="K88" t="n">
-        <v>3.174603174603174</v>
+        <v>51.02040816326531</v>
       </c>
       <c r="L88" t="n">
         <v>2654.7</v>
@@ -4767,7 +4789,7 @@
         <v>532</v>
       </c>
       <c r="K89" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L89" t="n">
         <v>2658.8</v>
@@ -4818,7 +4840,7 @@
         <v>544</v>
       </c>
       <c r="K90" t="n">
-        <v>26.02739726027397</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L90" t="n">
         <v>2661.8</v>
@@ -4869,7 +4891,7 @@
         <v>553</v>
       </c>
       <c r="K91" t="n">
-        <v>7.352941176470589</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="L91" t="n">
         <v>2664.1</v>
@@ -4920,7 +4942,7 @@
         <v>556</v>
       </c>
       <c r="K92" t="n">
-        <v>13.43283582089552</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L92" t="n">
         <v>2666.6</v>
@@ -4971,7 +4993,7 @@
         <v>571</v>
       </c>
       <c r="K93" t="n">
-        <v>30.93525179856115</v>
+        <v>71.01449275362319</v>
       </c>
       <c r="L93" t="n">
         <v>2670.7</v>
@@ -5022,7 +5044,7 @@
         <v>575</v>
       </c>
       <c r="K94" t="n">
-        <v>30.93525179856115</v>
+        <v>56.92307692307692</v>
       </c>
       <c r="L94" t="n">
         <v>2675.2</v>
@@ -5073,7 +5095,7 @@
         <v>603</v>
       </c>
       <c r="K95" t="n">
-        <v>26.38888888888889</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L95" t="n">
         <v>2676.1</v>
@@ -5124,7 +5146,7 @@
         <v>615</v>
       </c>
       <c r="K96" t="n">
-        <v>28.37837837837838</v>
+        <v>21.15384615384615</v>
       </c>
       <c r="L96" t="n">
         <v>2678.2</v>
@@ -5175,7 +5197,7 @@
         <v>651</v>
       </c>
       <c r="K97" t="n">
-        <v>3.260869565217391</v>
+        <v>-14.07407407407407</v>
       </c>
       <c r="L97" t="n">
         <v>2676.8</v>
@@ -5226,7 +5248,7 @@
         <v>664</v>
       </c>
       <c r="K98" t="n">
-        <v>-3.553299492385787</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L98" t="n">
         <v>2673.6</v>
@@ -5277,7 +5299,7 @@
         <v>672</v>
       </c>
       <c r="K99" t="n">
-        <v>0.4878048780487805</v>
+        <v>-40.625</v>
       </c>
       <c r="L99" t="n">
         <v>2669.6</v>
@@ -5328,7 +5350,7 @@
         <v>673</v>
       </c>
       <c r="K100" t="n">
-        <v>-11.47540983606557</v>
+        <v>-35</v>
       </c>
       <c r="L100" t="n">
         <v>2664.5</v>
@@ -5379,7 +5401,7 @@
         <v>699</v>
       </c>
       <c r="K101" t="n">
-        <v>3.381642512077295</v>
+        <v>-13.28671328671329</v>
       </c>
       <c r="L101" t="n">
         <v>2662.9</v>
@@ -5430,7 +5452,7 @@
         <v>717</v>
       </c>
       <c r="K102" t="n">
-        <v>-5.357142857142857</v>
+        <v>-35.61643835616438</v>
       </c>
       <c r="L102" t="n">
         <v>2659.2</v>
@@ -5481,7 +5503,7 @@
         <v>725</v>
       </c>
       <c r="K103" t="n">
-        <v>-1.298701298701299</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L103" t="n">
         <v>2654.8</v>
@@ -5532,7 +5554,7 @@
         <v>762</v>
       </c>
       <c r="K104" t="n">
-        <v>-12.30769230769231</v>
+        <v>-30.81761006289308</v>
       </c>
       <c r="L104" t="n">
         <v>2647.1</v>
@@ -5583,7 +5605,7 @@
         <v>794</v>
       </c>
       <c r="K105" t="n">
-        <v>-2.816901408450704</v>
+        <v>-16.20111731843575</v>
       </c>
       <c r="L105" t="n">
         <v>2645.4</v>
@@ -5634,7 +5656,7 @@
         <v>794</v>
       </c>
       <c r="K106" t="n">
-        <v>-2.816901408450704</v>
+        <v>4.895104895104895</v>
       </c>
       <c r="L106" t="n">
         <v>2642.5</v>
@@ -5685,7 +5707,7 @@
         <v>812</v>
       </c>
       <c r="K107" t="n">
-        <v>-8.305647840531561</v>
+        <v>1.351351351351351</v>
       </c>
       <c r="L107" t="n">
         <v>2641.4</v>
@@ -5736,7 +5758,7 @@
         <v>822</v>
       </c>
       <c r="K108" t="n">
-        <v>-13.0718954248366</v>
+        <v>-10.66666666666667</v>
       </c>
       <c r="L108" t="n">
         <v>2640.6</v>
@@ -5787,7 +5809,7 @@
         <v>832</v>
       </c>
       <c r="K109" t="n">
-        <v>-15.33333333333333</v>
+        <v>-4.40251572327044</v>
       </c>
       <c r="L109" t="n">
         <v>2640</v>
@@ -5838,7 +5860,7 @@
         <v>839</v>
       </c>
       <c r="K110" t="n">
-        <v>-17.28813559322034</v>
+        <v>-18.57142857142857</v>
       </c>
       <c r="L110" t="n">
         <v>2640</v>
@@ -5889,7 +5911,7 @@
         <v>845</v>
       </c>
       <c r="K111" t="n">
-        <v>-12.32876712328767</v>
+        <v>-1.5625</v>
       </c>
       <c r="L111" t="n">
         <v>2638</v>
@@ -5940,7 +5962,7 @@
         <v>856</v>
       </c>
       <c r="K112" t="n">
-        <v>-16.66666666666666</v>
+        <v>-16.03053435114504</v>
       </c>
       <c r="L112" t="n">
         <v>2636.7</v>
@@ -5991,7 +6013,7 @@
         <v>866</v>
       </c>
       <c r="K113" t="n">
-        <v>-18.64406779661017</v>
+        <v>25</v>
       </c>
       <c r="L113" t="n">
         <v>2635.6</v>
@@ -6042,7 +6064,7 @@
         <v>867</v>
       </c>
       <c r="K114" t="n">
-        <v>-17.12328767123288</v>
+        <v>-6.849315068493151</v>
       </c>
       <c r="L114" t="n">
         <v>2638.3</v>
@@ -6093,7 +6115,7 @@
         <v>874</v>
       </c>
       <c r="K115" t="n">
-        <v>-5.535055350553505</v>
+        <v>2.5</v>
       </c>
       <c r="L115" t="n">
         <v>2638.5</v>
@@ -6144,7 +6166,7 @@
         <v>878</v>
       </c>
       <c r="K116" t="n">
-        <v>-11.78707224334601</v>
+        <v>24.24242424242424</v>
       </c>
       <c r="L116" t="n">
         <v>2638.3</v>
@@ -6195,7 +6217,7 @@
         <v>905</v>
       </c>
       <c r="K117" t="n">
-        <v>-8.661417322834646</v>
+        <v>-1.204819277108434</v>
       </c>
       <c r="L117" t="n">
         <v>2637.2</v>
@@ -6246,7 +6268,7 @@
         <v>908</v>
       </c>
       <c r="K118" t="n">
-        <v>-4.918032786885246</v>
+        <v>-18.42105263157895</v>
       </c>
       <c r="L118" t="n">
         <v>2636.8</v>
@@ -6297,7 +6319,7 @@
         <v>929</v>
       </c>
       <c r="K119" t="n">
-        <v>-15.95330739299611</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L119" t="n">
         <v>2633.3</v>
@@ -6348,7 +6370,7 @@
         <v>947</v>
       </c>
       <c r="K120" t="n">
-        <v>-21.8978102189781</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L120" t="n">
         <v>2627.3</v>
@@ -6399,7 +6421,7 @@
         <v>960</v>
       </c>
       <c r="K121" t="n">
-        <v>-27.96934865900383</v>
+        <v>-40.38461538461539</v>
       </c>
       <c r="L121" t="n">
         <v>2622</v>
@@ -6450,7 +6472,7 @@
         <v>970</v>
       </c>
       <c r="K122" t="n">
-        <v>-17.78656126482213</v>
+        <v>-40.38461538461539</v>
       </c>
       <c r="L122" t="n">
         <v>2618.8</v>
@@ -6501,7 +6523,7 @@
         <v>979</v>
       </c>
       <c r="K123" t="n">
-        <v>-17.32283464566929</v>
+        <v>-30.35714285714285</v>
       </c>
       <c r="L123" t="n">
         <v>2615.5</v>
@@ -6552,7 +6574,7 @@
         <v>989</v>
       </c>
       <c r="K124" t="n">
-        <v>1.3215859030837</v>
+        <v>-26.95652173913043</v>
       </c>
       <c r="L124" t="n">
         <v>2613.1</v>
@@ -6603,7 +6625,7 @@
         <v>992</v>
       </c>
       <c r="K125" t="n">
-        <v>-13.13131313131313</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L125" t="n">
         <v>2610.3</v>
@@ -6654,7 +6676,7 @@
         <v>1003</v>
       </c>
       <c r="K126" t="n">
-        <v>-7.177033492822966</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L126" t="n">
         <v>2609</v>
@@ -6705,7 +6727,7 @@
         <v>1004</v>
       </c>
       <c r="K127" t="n">
-        <v>1.041666666666667</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L127" t="n">
         <v>2610.3</v>
@@ -6756,7 +6778,7 @@
         <v>1004</v>
       </c>
       <c r="K128" t="n">
-        <v>6.593406593406594</v>
+        <v>49.33333333333334</v>
       </c>
       <c r="L128" t="n">
         <v>2611.9</v>
@@ -6807,7 +6829,7 @@
         <v>1007</v>
       </c>
       <c r="K129" t="n">
-        <v>-0.5714285714285714</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L129" t="n">
         <v>2615.3</v>
@@ -6858,7 +6880,7 @@
         <v>1026</v>
       </c>
       <c r="K130" t="n">
-        <v>-14.43850267379679</v>
+        <v>30.3030303030303</v>
       </c>
       <c r="L130" t="n">
         <v>2618.6</v>
@@ -6909,7 +6931,7 @@
         <v>1028</v>
       </c>
       <c r="K131" t="n">
-        <v>-16.93989071038251</v>
+        <v>20.68965517241379</v>
       </c>
       <c r="L131" t="n">
         <v>2620.8</v>
@@ -6960,7 +6982,7 @@
         <v>1033</v>
       </c>
       <c r="K132" t="n">
-        <v>-8.474576271186439</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="L132" t="n">
         <v>2622.5</v>
@@ -7011,7 +7033,7 @@
         <v>1033</v>
       </c>
       <c r="K133" t="n">
-        <v>-14.97005988023952</v>
+        <v>-4.545454545454546</v>
       </c>
       <c r="L133" t="n">
         <v>2623.3</v>
@@ -7062,7 +7084,7 @@
         <v>1033</v>
       </c>
       <c r="K134" t="n">
-        <v>-15.66265060240964</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L134" t="n">
         <v>2623.1</v>
@@ -7113,7 +7135,7 @@
         <v>1051</v>
       </c>
       <c r="K135" t="n">
-        <v>-8.474576271186439</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L135" t="n">
         <v>2624.4</v>
@@ -7164,7 +7186,7 @@
         <v>1069</v>
       </c>
       <c r="K136" t="n">
-        <v>-15.18324607329843</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L136" t="n">
         <v>2622.8</v>
@@ -7215,7 +7237,7 @@
         <v>1079</v>
       </c>
       <c r="K137" t="n">
-        <v>4.597701149425287</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L137" t="n">
         <v>2622.3</v>
@@ -7266,7 +7288,7 @@
         <v>1084</v>
       </c>
       <c r="K138" t="n">
-        <v>3.409090909090909</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L138" t="n">
         <v>2621.3</v>
@@ -7317,7 +7339,7 @@
         <v>1087</v>
       </c>
       <c r="K139" t="n">
-        <v>18.9873417721519</v>
+        <v>24.59016393442623</v>
       </c>
       <c r="L139" t="n">
         <v>2620.9</v>
@@ -7368,7 +7390,7 @@
         <v>1098</v>
       </c>
       <c r="K140" t="n">
-        <v>39.0728476821192</v>
+        <v>34.28571428571428</v>
       </c>
       <c r="L140" t="n">
         <v>2623.5</v>
@@ -7419,7 +7441,7 @@
         <v>1100</v>
       </c>
       <c r="K141" t="n">
-        <v>34.28571428571428</v>
+        <v>31.34328358208955</v>
       </c>
       <c r="L141" t="n">
         <v>2626.1</v>
@@ -7470,7 +7492,7 @@
         <v>1101</v>
       </c>
       <c r="K142" t="n">
-        <v>29.77099236641221</v>
+        <v>32.35294117647059</v>
       </c>
       <c r="L142" t="n">
         <v>2628.3</v>
@@ -7521,7 +7543,7 @@
         <v>1108</v>
       </c>
       <c r="K143" t="n">
-        <v>28.68217054263566</v>
+        <v>38.66666666666666</v>
       </c>
       <c r="L143" t="n">
         <v>2631.2</v>
@@ -7572,7 +7594,7 @@
         <v>1110</v>
       </c>
       <c r="K144" t="n">
-        <v>23.96694214876033</v>
+        <v>22.03389830508474</v>
       </c>
       <c r="L144" t="n">
         <v>2634.3</v>
@@ -7623,7 +7645,7 @@
         <v>1121</v>
       </c>
       <c r="K145" t="n">
-        <v>11.62790697674419</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L145" t="n">
         <v>2634.5</v>
@@ -7674,7 +7696,7 @@
         <v>1126</v>
       </c>
       <c r="K146" t="n">
-        <v>7.317073170731707</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="L146" t="n">
         <v>2637</v>
@@ -7725,7 +7747,7 @@
         <v>1132</v>
       </c>
       <c r="K147" t="n">
-        <v>3.125</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L147" t="n">
         <v>2637.9</v>
@@ -7776,7 +7798,7 @@
         <v>1133</v>
       </c>
       <c r="K148" t="n">
-        <v>3.875968992248062</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L148" t="n">
         <v>2639.4</v>
@@ -7827,7 +7849,7 @@
         <v>1141</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L149" t="n">
         <v>2639.8</v>
@@ -7878,7 +7900,7 @@
         <v>1146</v>
       </c>
       <c r="K150" t="n">
-        <v>20</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L150" t="n">
         <v>2639.6</v>
@@ -7929,7 +7951,7 @@
         <v>1147</v>
       </c>
       <c r="K151" t="n">
-        <v>19.32773109243698</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L151" t="n">
         <v>2639.3</v>
@@ -7980,7 +8002,7 @@
         <v>1150</v>
       </c>
       <c r="K152" t="n">
-        <v>17.94871794871795</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L152" t="n">
         <v>2639.2</v>
@@ -8031,7 +8053,7 @@
         <v>1157</v>
       </c>
       <c r="K153" t="n">
-        <v>11.29032258064516</v>
+        <v>-36.17021276595745</v>
       </c>
       <c r="L153" t="n">
         <v>2637.7</v>
@@ -8082,7 +8104,7 @@
         <v>1165</v>
       </c>
       <c r="K154" t="n">
-        <v>16.66666666666666</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L154" t="n">
         <v>2636.8</v>
@@ -8133,7 +8155,7 @@
         <v>1167</v>
       </c>
       <c r="K155" t="n">
-        <v>1.724137931034483</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L155" t="n">
         <v>2636.8</v>
@@ -8184,7 +8206,7 @@
         <v>1167</v>
       </c>
       <c r="K156" t="n">
-        <v>20.40816326530612</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L156" t="n">
         <v>2636.3</v>
@@ -8235,7 +8257,7 @@
         <v>1168</v>
       </c>
       <c r="K157" t="n">
-        <v>12.35955056179775</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L157" t="n">
         <v>2636.5</v>
@@ -8286,7 +8308,7 @@
         <v>1175</v>
       </c>
       <c r="K158" t="n">
-        <v>9.890109890109891</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L158" t="n">
         <v>2635.9</v>
@@ -8337,7 +8359,7 @@
         <v>1182</v>
       </c>
       <c r="K159" t="n">
-        <v>13.68421052631579</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L159" t="n">
         <v>2636.8</v>
@@ -8388,7 +8410,7 @@
         <v>1182</v>
       </c>
       <c r="K160" t="n">
-        <v>2.380952380952381</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L160" t="n">
         <v>2637.2</v>
@@ -8439,7 +8461,7 @@
         <v>1184</v>
       </c>
       <c r="K161" t="n">
-        <v>-2.380952380952381</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L161" t="n">
         <v>2637.3</v>
@@ -8490,7 +8512,7 @@
         <v>1193</v>
       </c>
       <c r="K162" t="n">
-        <v>6.521739130434782</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L162" t="n">
         <v>2638</v>
@@ -8541,7 +8563,7 @@
         <v>1197</v>
       </c>
       <c r="K163" t="n">
-        <v>3.370786516853932</v>
+        <v>31.25</v>
       </c>
       <c r="L163" t="n">
         <v>2639.8</v>
@@ -8592,7 +8614,7 @@
         <v>1199</v>
       </c>
       <c r="K164" t="n">
-        <v>3.370786516853932</v>
+        <v>43.75</v>
       </c>
       <c r="L164" t="n">
         <v>2641</v>
@@ -8643,7 +8665,7 @@
         <v>1200</v>
       </c>
       <c r="K165" t="n">
-        <v>18.9873417721519</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L165" t="n">
         <v>2642.5</v>
@@ -8694,7 +8716,7 @@
         <v>1207</v>
       </c>
       <c r="K166" t="n">
-        <v>20.98765432098765</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L166" t="n">
         <v>2644.7</v>
@@ -8745,7 +8767,7 @@
         <v>1223</v>
       </c>
       <c r="K167" t="n">
-        <v>42.85714285714285</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="L167" t="n">
         <v>2648.4</v>
@@ -8796,7 +8818,7 @@
         <v>1242</v>
       </c>
       <c r="K168" t="n">
-        <v>52.29357798165137</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>2654.7</v>
@@ -8847,7 +8869,7 @@
         <v>1244</v>
       </c>
       <c r="K169" t="n">
-        <v>65.0485436893204</v>
+        <v>93.54838709677419</v>
       </c>
       <c r="L169" t="n">
         <v>2660.5</v>
@@ -8898,7 +8920,7 @@
         <v>1244</v>
       </c>
       <c r="K170" t="n">
-        <v>63.26530612244898</v>
+        <v>100</v>
       </c>
       <c r="L170" t="n">
         <v>2666.3</v>
@@ -8949,7 +8971,7 @@
         <v>1255</v>
       </c>
       <c r="K171" t="n">
-        <v>46.2962962962963</v>
+        <v>64.51612903225806</v>
       </c>
       <c r="L171" t="n">
         <v>2671.2</v>
@@ -9000,7 +9022,7 @@
         <v>1262</v>
       </c>
       <c r="K172" t="n">
-        <v>48.21428571428572</v>
+        <v>66.15384615384615</v>
       </c>
       <c r="L172" t="n">
         <v>2675.9</v>
@@ -9051,7 +9073,7 @@
         <v>1268</v>
       </c>
       <c r="K173" t="n">
-        <v>49.54954954954955</v>
+        <v>50.72463768115942</v>
       </c>
       <c r="L173" t="n">
         <v>2679.6</v>
@@ -9102,7 +9124,7 @@
         <v>1292</v>
       </c>
       <c r="K174" t="n">
-        <v>18.11023622047244</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="L174" t="n">
         <v>2680.7</v>
@@ -9153,7 +9175,7 @@
         <v>1294</v>
       </c>
       <c r="K175" t="n">
-        <v>21.25984251968504</v>
+        <v>5.747126436781609</v>
       </c>
       <c r="L175" t="n">
         <v>2681.9</v>
@@ -9204,7 +9226,7 @@
         <v>1307</v>
       </c>
       <c r="K176" t="n">
-        <v>10</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L176" t="n">
         <v>2681.1</v>
@@ -9255,7 +9277,7 @@
         <v>1326</v>
       </c>
       <c r="K177" t="n">
-        <v>20.25316455696203</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L177" t="n">
         <v>2680.6</v>
@@ -9306,7 +9328,7 @@
         <v>1326</v>
       </c>
       <c r="K178" t="n">
-        <v>25.82781456953642</v>
+        <v>-31.70731707317073</v>
       </c>
       <c r="L178" t="n">
         <v>2678.2</v>
@@ -9357,7 +9379,7 @@
         <v>1336</v>
       </c>
       <c r="K179" t="n">
-        <v>14.28571428571428</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L179" t="n">
         <v>2674.6</v>
@@ -9408,7 +9430,7 @@
         <v>1347</v>
       </c>
       <c r="K180" t="n">
-        <v>6.666666666666667</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L180" t="n">
         <v>2669.9</v>
@@ -9459,7 +9481,7 @@
         <v>1347</v>
       </c>
       <c r="K181" t="n">
-        <v>7.975460122699387</v>
+        <v>-50.58823529411764</v>
       </c>
       <c r="L181" t="n">
         <v>2666.3</v>
@@ -9510,7 +9532,7 @@
         <v>1348</v>
       </c>
       <c r="K182" t="n">
-        <v>1.935483870967742</v>
+        <v>-47.5</v>
       </c>
       <c r="L182" t="n">
         <v>2661.9</v>
@@ -9561,7 +9583,7 @@
         <v>1354</v>
       </c>
       <c r="K183" t="n">
-        <v>3.184713375796179</v>
+        <v>-12.90322580645161</v>
       </c>
       <c r="L183" t="n">
         <v>2658.7</v>
@@ -9612,7 +9634,7 @@
         <v>1359</v>
       </c>
       <c r="K184" t="n">
-        <v>-1.25</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L184" t="n">
         <v>2657.4</v>
@@ -9663,7 +9685,7 @@
         <v>1359</v>
       </c>
       <c r="K185" t="n">
-        <v>-1.886792452830189</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L185" t="n">
         <v>2655.9</v>
@@ -9714,7 +9736,7 @@
         <v>1360</v>
       </c>
       <c r="K186" t="n">
-        <v>-5.88235294117647</v>
+        <v>-58.82352941176471</v>
       </c>
       <c r="L186" t="n">
         <v>2655.8</v>
@@ -9765,7 +9787,7 @@
         <v>1367</v>
       </c>
       <c r="K187" t="n">
-        <v>-22.22222222222222</v>
+        <v>-65.85365853658537</v>
       </c>
       <c r="L187" t="n">
         <v>2653.1</v>
@@ -9816,7 +9838,7 @@
         <v>1380</v>
       </c>
       <c r="K188" t="n">
-        <v>-46.3768115942029</v>
+        <v>-68.18181818181817</v>
       </c>
       <c r="L188" t="n">
         <v>2649.1</v>
@@ -9867,7 +9889,7 @@
         <v>1393</v>
       </c>
       <c r="K189" t="n">
-        <v>-53.02013422818792</v>
+        <v>-69.56521739130434</v>
       </c>
       <c r="L189" t="n">
         <v>2644.8</v>
@@ -9918,7 +9940,7 @@
         <v>1414</v>
       </c>
       <c r="K190" t="n">
-        <v>-34.11764705882353</v>
+        <v>-16.41791044776119</v>
       </c>
       <c r="L190" t="n">
         <v>2643.7</v>
@@ -9969,7 +9991,7 @@
         <v>1422</v>
       </c>
       <c r="K191" t="n">
-        <v>-32.93413173652694</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L191" t="n">
         <v>2641.8</v>
@@ -10020,7 +10042,7 @@
         <v>1426</v>
       </c>
       <c r="K192" t="n">
-        <v>-40.2439024390244</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L192" t="n">
         <v>2639.6</v>
@@ -10071,7 +10093,7 @@
         <v>1435</v>
       </c>
       <c r="K193" t="n">
-        <v>-30.53892215568862</v>
+        <v>-18.42105263157895</v>
       </c>
       <c r="L193" t="n">
         <v>2637.7</v>
@@ -10122,7 +10144,7 @@
         <v>1446</v>
       </c>
       <c r="K194" t="n">
-        <v>-24.67532467532467</v>
+        <v>-28.73563218390805</v>
       </c>
       <c r="L194" t="n">
         <v>2635.2</v>
@@ -10173,7 +10195,7 @@
         <v>1454</v>
       </c>
       <c r="K195" t="n">
-        <v>-20</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L195" t="n">
         <v>2633.5</v>
@@ -10224,7 +10246,7 @@
         <v>1468</v>
       </c>
       <c r="K196" t="n">
-        <v>-3.105590062111801</v>
+        <v>2.97029702970297</v>
       </c>
       <c r="L196" t="n">
         <v>2633.1</v>
@@ -10275,7 +10297,7 @@
         <v>1471</v>
       </c>
       <c r="K197" t="n">
-        <v>-18.62068965517242</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L197" t="n">
         <v>2633.1</v>
@@ -10326,7 +10348,7 @@
         <v>1479</v>
       </c>
       <c r="K198" t="n">
-        <v>-22.87581699346405</v>
+        <v>20.93023255813954</v>
       </c>
       <c r="L198" t="n">
         <v>2633.6</v>
@@ -10377,7 +10399,7 @@
         <v>1481</v>
       </c>
       <c r="K199" t="n">
-        <v>-18.62068965517242</v>
+        <v>-7.462686567164178</v>
       </c>
       <c r="L199" t="n">
         <v>2635.2</v>
@@ -10428,7 +10450,7 @@
         <v>1482</v>
       </c>
       <c r="K200" t="n">
-        <v>-12.59259259259259</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L200" t="n">
         <v>2634.6</v>
@@ -10479,7 +10501,7 @@
         <v>1495</v>
       </c>
       <c r="K201" t="n">
-        <v>-20.27027027027027</v>
+        <v>-10.14492753623188</v>
       </c>
       <c r="L201" t="n">
         <v>2633.5</v>
@@ -10530,7 +10552,7 @@
         <v>1506</v>
       </c>
       <c r="K202" t="n">
-        <v>-11.39240506329114</v>
+        <v>-7.042253521126761</v>
       </c>
       <c r="L202" t="n">
         <v>2633.9</v>
@@ -10581,7 +10603,7 @@
         <v>1522</v>
       </c>
       <c r="K203" t="n">
-        <v>-23.80952380952381</v>
+        <v>-13.1578947368421</v>
       </c>
       <c r="L203" t="n">
         <v>2631.8</v>
@@ -10632,7 +10654,7 @@
         <v>1533</v>
       </c>
       <c r="K204" t="n">
-        <v>-13.79310344827586</v>
+        <v>-8.860759493670885</v>
       </c>
       <c r="L204" t="n">
         <v>2631.9</v>
@@ -10683,7 +10705,7 @@
         <v>1533</v>
       </c>
       <c r="K205" t="n">
-        <v>-13.79310344827586</v>
+        <v>-32.30769230769231</v>
       </c>
       <c r="L205" t="n">
         <v>2631.2</v>
@@ -10734,7 +10756,7 @@
         <v>1543</v>
       </c>
       <c r="K206" t="n">
-        <v>-19.12568306010929</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L206" t="n">
         <v>2628.1</v>
@@ -10785,7 +10807,7 @@
         <v>1555</v>
       </c>
       <c r="K207" t="n">
-        <v>-21.27659574468085</v>
+        <v>-42.10526315789473</v>
       </c>
       <c r="L207" t="n">
         <v>2624.1</v>
@@ -10836,7 +10858,7 @@
         <v>1560</v>
       </c>
       <c r="K208" t="n">
-        <v>-12.22222222222222</v>
+        <v>-31.64556962025317</v>
       </c>
       <c r="L208" t="n">
         <v>2621.4</v>
@@ -10887,7 +10909,7 @@
         <v>1564</v>
       </c>
       <c r="K209" t="n">
-        <v>-2.923976608187134</v>
+        <v>-24.39024390243902</v>
       </c>
       <c r="L209" t="n">
         <v>2619.3</v>
@@ -10938,7 +10960,7 @@
         <v>1566</v>
       </c>
       <c r="K210" t="n">
-        <v>-15.78947368421053</v>
+        <v>-7.042253521126761</v>
       </c>
       <c r="L210" t="n">
         <v>2617.5</v>
@@ -10989,7 +11011,7 @@
         <v>1568</v>
       </c>
       <c r="K211" t="n">
-        <v>-12.32876712328767</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L211" t="n">
         <v>2616.8</v>
@@ -11040,7 +11062,7 @@
         <v>1574</v>
       </c>
       <c r="K212" t="n">
-        <v>-5.405405405405405</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L212" t="n">
         <v>2615.6</v>
@@ -11091,7 +11113,7 @@
         <v>1591</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L213" t="n">
         <v>2617.7</v>
@@ -11142,7 +11164,7 @@
         <v>1599</v>
       </c>
       <c r="K214" t="n">
-        <v>1.96078431372549</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L214" t="n">
         <v>2617.9</v>
@@ -11193,7 +11215,7 @@
         <v>1605</v>
       </c>
       <c r="K215" t="n">
-        <v>0.6622516556291391</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L215" t="n">
         <v>2618.7</v>
@@ -11244,7 +11266,7 @@
         <v>1606</v>
       </c>
       <c r="K216" t="n">
-        <v>-10.14492753623188</v>
+        <v>56.86274509803921</v>
       </c>
       <c r="L216" t="n">
         <v>2620.4</v>
@@ -11295,7 +11317,7 @@
         <v>1606</v>
       </c>
       <c r="K217" t="n">
-        <v>-8.148148148148149</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="L217" t="n">
         <v>2623.3</v>
@@ -11346,7 +11368,7 @@
         <v>1606</v>
       </c>
       <c r="K218" t="n">
-        <v>-2.362204724409449</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="L218" t="n">
         <v>2625.7</v>
@@ -11397,7 +11419,7 @@
         <v>1606</v>
       </c>
       <c r="K219" t="n">
-        <v>-0.8</v>
+        <v>45</v>
       </c>
       <c r="L219" t="n">
         <v>2627.7</v>
@@ -11448,7 +11470,7 @@
         <v>1607</v>
       </c>
       <c r="K220" t="n">
-        <v>-0.8</v>
+        <v>48.71794871794872</v>
       </c>
       <c r="L220" t="n">
         <v>2629.4</v>
@@ -11499,7 +11521,7 @@
         <v>1608</v>
       </c>
       <c r="K221" t="n">
-        <v>11.50442477876106</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L221" t="n">
         <v>2631.4</v>
@@ -11550,7 +11572,7 @@
         <v>1609</v>
       </c>
       <c r="K222" t="n">
-        <v>0.9708737864077669</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L222" t="n">
         <v>2632.7</v>
@@ -11601,7 +11623,7 @@
         <v>1618</v>
       </c>
       <c r="K223" t="n">
-        <v>8.333333333333332</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L223" t="n">
         <v>2631.4</v>
@@ -11652,7 +11674,7 @@
         <v>1624</v>
       </c>
       <c r="K224" t="n">
-        <v>-9.890109890109891</v>
+        <v>-89.47368421052632</v>
       </c>
       <c r="L224" t="n">
         <v>2630.3</v>
@@ -11703,7 +11725,7 @@
         <v>1624</v>
       </c>
       <c r="K225" t="n">
-        <v>-9.890109890109891</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L225" t="n">
         <v>2628.6</v>
@@ -11754,7 +11776,7 @@
         <v>1628</v>
       </c>
       <c r="K226" t="n">
-        <v>5.88235294117647</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L226" t="n">
         <v>2627.4</v>
@@ -11805,7 +11827,7 @@
         <v>1637</v>
       </c>
       <c r="K227" t="n">
-        <v>31.70731707317073</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L227" t="n">
         <v>2627.1</v>
@@ -11856,7 +11878,7 @@
         <v>1641</v>
       </c>
       <c r="K228" t="n">
-        <v>20.98765432098765</v>
+        <v>-20</v>
       </c>
       <c r="L228" t="n">
         <v>2626.4</v>
@@ -11907,7 +11929,7 @@
         <v>1643</v>
       </c>
       <c r="K229" t="n">
-        <v>18.9873417721519</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L229" t="n">
         <v>2625.9</v>
@@ -11958,7 +11980,7 @@
         <v>1645</v>
       </c>
       <c r="K230" t="n">
-        <v>13.92405063291139</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L230" t="n">
         <v>2625.3</v>
@@ -12009,7 +12031,7 @@
         <v>1653</v>
       </c>
       <c r="K231" t="n">
-        <v>24.70588235294118</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L231" t="n">
         <v>2625.4</v>
@@ -12060,7 +12082,7 @@
         <v>1653</v>
       </c>
       <c r="K232" t="n">
-        <v>18.9873417721519</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L232" t="n">
         <v>2625.6</v>
@@ -12111,7 +12133,7 @@
         <v>1654</v>
       </c>
       <c r="K233" t="n">
-        <v>-4.761904761904762</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L233" t="n">
         <v>2626.6</v>
@@ -12162,7 +12184,7 @@
         <v>1657</v>
       </c>
       <c r="K234" t="n">
-        <v>3.448275862068965</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L234" t="n">
         <v>2627.9</v>
@@ -12213,7 +12235,7 @@
         <v>1668</v>
       </c>
       <c r="K235" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L235" t="n">
         <v>2630.3</v>
@@ -12264,7 +12286,7 @@
         <v>1672</v>
       </c>
       <c r="K236" t="n">
-        <v>6.060606060606061</v>
+        <v>20</v>
       </c>
       <c r="L236" t="n">
         <v>2631.9</v>
@@ -12315,7 +12337,7 @@
         <v>1676</v>
       </c>
       <c r="K237" t="n">
-        <v>11.42857142857143</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L237" t="n">
         <v>2633</v>
@@ -12366,7 +12388,7 @@
         <v>1676</v>
       </c>
       <c r="K238" t="n">
-        <v>11.42857142857143</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L238" t="n">
         <v>2634.5</v>
@@ -12417,7 +12439,7 @@
         <v>1686</v>
       </c>
       <c r="K239" t="n">
-        <v>22.5</v>
+        <v>60.97560975609756</v>
       </c>
       <c r="L239" t="n">
         <v>2636.8</v>
@@ -12468,7 +12490,7 @@
         <v>1687</v>
       </c>
       <c r="K240" t="n">
-        <v>25</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L240" t="n">
         <v>2639.4</v>
@@ -12519,7 +12541,7 @@
         <v>1695</v>
       </c>
       <c r="K241" t="n">
-        <v>31.03448275862069</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L241" t="n">
         <v>2642</v>
@@ -12570,7 +12592,7 @@
         <v>1697</v>
       </c>
       <c r="K242" t="n">
-        <v>29.54545454545455</v>
+        <v>58.13953488372093</v>
       </c>
       <c r="L242" t="n">
         <v>2644.4</v>
@@ -12621,7 +12643,7 @@
         <v>1698</v>
       </c>
       <c r="K243" t="n">
-        <v>45</v>
+        <v>70.73170731707317</v>
       </c>
       <c r="L243" t="n">
         <v>2647</v>
@@ -12672,7 +12694,7 @@
         <v>1700</v>
       </c>
       <c r="K244" t="n">
-        <v>52.63157894736842</v>
+        <v>50</v>
       </c>
       <c r="L244" t="n">
         <v>2649.7</v>
@@ -12723,7 +12745,7 @@
         <v>1715</v>
       </c>
       <c r="K245" t="n">
-        <v>27.47252747252747</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L245" t="n">
         <v>2649.8</v>
@@ -12774,7 +12796,7 @@
         <v>1716</v>
       </c>
       <c r="K246" t="n">
-        <v>22.72727272727273</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>2650.2</v>
@@ -12825,7 +12847,7 @@
         <v>1720</v>
       </c>
       <c r="K247" t="n">
-        <v>8.433734939759036</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L247" t="n">
         <v>2649.8</v>
@@ -12876,7 +12898,7 @@
         <v>1730</v>
       </c>
       <c r="K248" t="n">
-        <v>1.123595505617978</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L248" t="n">
         <v>2648.4</v>
@@ -12927,7 +12949,7 @@
         <v>1730</v>
       </c>
       <c r="K249" t="n">
-        <v>-1.149425287356322</v>
+        <v>-58.13953488372093</v>
       </c>
       <c r="L249" t="n">
         <v>2646</v>
@@ -12978,7 +13000,7 @@
         <v>1733</v>
       </c>
       <c r="K250" t="n">
-        <v>-2.272727272727273</v>
+        <v>-94.73684210526315</v>
       </c>
       <c r="L250" t="n">
         <v>2643.2</v>
@@ -13029,7 +13051,7 @@
         <v>1738</v>
       </c>
       <c r="K251" t="n">
-        <v>-5.88235294117647</v>
+        <v>-70.73170731707317</v>
       </c>
       <c r="L251" t="n">
         <v>2640.1</v>
@@ -13080,7 +13102,7 @@
         <v>1746</v>
       </c>
       <c r="K252" t="n">
-        <v>3.225806451612903</v>
+        <v>-45.83333333333333</v>
       </c>
       <c r="L252" t="n">
         <v>2638</v>
@@ -13131,7 +13153,7 @@
         <v>1746</v>
       </c>
       <c r="K253" t="n">
-        <v>4.347826086956522</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L253" t="n">
         <v>2635.8</v>
@@ -13182,7 +13204,7 @@
         <v>1750</v>
       </c>
       <c r="K254" t="n">
-        <v>3.225806451612903</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L254" t="n">
         <v>2633.4</v>
@@ -13233,7 +13255,7 @@
         <v>1753</v>
       </c>
       <c r="K255" t="n">
-        <v>-12.94117647058824</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L255" t="n">
         <v>2632.2</v>
@@ -13284,7 +13306,7 @@
         <v>1758</v>
       </c>
       <c r="K256" t="n">
-        <v>-2.325581395348837</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L256" t="n">
         <v>2631.6</v>
@@ -13335,7 +13357,7 @@
         <v>1760</v>
       </c>
       <c r="K257" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L257" t="n">
         <v>2631.6</v>
@@ -13386,7 +13408,7 @@
         <v>1760</v>
       </c>
       <c r="K258" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>2632.6</v>
@@ -13437,7 +13459,7 @@
         <v>1769</v>
       </c>
       <c r="K259" t="n">
-        <v>-27.71084337349398</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L259" t="n">
         <v>2632.7</v>
@@ -13488,7 +13510,7 @@
         <v>1770</v>
       </c>
       <c r="K260" t="n">
-        <v>-27.71084337349398</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>2633.2</v>
@@ -13539,7 +13561,7 @@
         <v>1770</v>
       </c>
       <c r="K261" t="n">
-        <v>-41.33333333333334</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>2633.2</v>
@@ -13590,7 +13612,7 @@
         <v>1770</v>
       </c>
       <c r="K262" t="n">
-        <v>-39.72602739726027</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L262" t="n">
         <v>2632.4</v>
@@ -13641,7 +13663,7 @@
         <v>1775</v>
       </c>
       <c r="K263" t="n">
-        <v>-32.46753246753246</v>
+        <v>4</v>
       </c>
       <c r="L263" t="n">
         <v>2632.1</v>
@@ -13692,7 +13714,7 @@
         <v>1777</v>
       </c>
       <c r="K264" t="n">
-        <v>-27.27272727272727</v>
+        <v>25</v>
       </c>
       <c r="L264" t="n">
         <v>2632.4</v>
@@ -13743,7 +13765,7 @@
         <v>1787</v>
       </c>
       <c r="K265" t="n">
-        <v>-22.22222222222222</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L265" t="n">
         <v>2632</v>
@@ -13794,7 +13816,7 @@
         <v>1796</v>
       </c>
       <c r="K266" t="n">
-        <v>-7.5</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L266" t="n">
         <v>2632</v>
@@ -13845,7 +13867,7 @@
         <v>1802</v>
       </c>
       <c r="K267" t="n">
-        <v>4.878048780487805</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L267" t="n">
         <v>2632.4</v>
@@ -13896,7 +13918,7 @@
         <v>1812</v>
       </c>
       <c r="K268" t="n">
-        <v>4.878048780487805</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L268" t="n">
         <v>2631.8</v>
@@ -13947,7 +13969,7 @@
         <v>1819</v>
       </c>
       <c r="K269" t="n">
-        <v>12.35955056179775</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="L269" t="n">
         <v>2632.8</v>
@@ -13998,7 +14020,7 @@
         <v>1822</v>
       </c>
       <c r="K270" t="n">
-        <v>19.10112359550562</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L270" t="n">
         <v>2634</v>
@@ -14049,7 +14071,7 @@
         <v>1823</v>
       </c>
       <c r="K271" t="n">
-        <v>15.29411764705882</v>
+        <v>24.52830188679245</v>
       </c>
       <c r="L271" t="n">
         <v>2635.3</v>
@@ -14100,7 +14122,7 @@
         <v>1828</v>
       </c>
       <c r="K272" t="n">
-        <v>12.19512195121951</v>
+        <v>24.52830188679245</v>
       </c>
       <c r="L272" t="n">
         <v>2637.1</v>
@@ -14151,7 +14173,7 @@
         <v>1834</v>
       </c>
       <c r="K273" t="n">
-        <v>4.545454545454546</v>
+        <v>8.771929824561402</v>
       </c>
       <c r="L273" t="n">
         <v>2637.8</v>
@@ -14202,7 +14224,7 @@
         <v>1839</v>
       </c>
       <c r="K274" t="n">
-        <v>14.60674157303371</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L274" t="n">
         <v>2638.8</v>
@@ -14253,7 +14275,7 @@
         <v>1840</v>
       </c>
       <c r="K275" t="n">
-        <v>19.54022988505747</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L275" t="n">
         <v>2640.9</v>
@@ -14304,7 +14326,7 @@
         <v>1841</v>
       </c>
       <c r="K276" t="n">
-        <v>13.25301204819277</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L276" t="n">
         <v>2642</v>
@@ -14355,7 +14377,7 @@
         <v>1842</v>
       </c>
       <c r="K277" t="n">
-        <v>9.75609756097561</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L277" t="n">
         <v>2642.4</v>
@@ -14406,7 +14428,7 @@
         <v>1843</v>
       </c>
       <c r="K278" t="n">
-        <v>10.8433734939759</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L278" t="n">
         <v>2643.9</v>
@@ -14457,7 +14479,7 @@
         <v>1844</v>
       </c>
       <c r="K279" t="n">
-        <v>22.66666666666666</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L279" t="n">
         <v>2644.6</v>
@@ -14508,7 +14530,7 @@
         <v>1844</v>
       </c>
       <c r="K280" t="n">
-        <v>21.62162162162162</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L280" t="n">
         <v>2645</v>
@@ -14559,7 +14581,7 @@
         <v>1851</v>
       </c>
       <c r="K281" t="n">
-        <v>11.11111111111111</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L281" t="n">
         <v>2644.6</v>
@@ -14610,7 +14632,7 @@
         <v>1852</v>
       </c>
       <c r="K282" t="n">
-        <v>12.19512195121951</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L282" t="n">
         <v>2643.8</v>
@@ -14661,7 +14683,7 @@
         <v>1860</v>
       </c>
       <c r="K283" t="n">
-        <v>-3.529411764705882</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L283" t="n">
         <v>2642.8</v>
@@ -14712,7 +14734,7 @@
         <v>1860</v>
       </c>
       <c r="K284" t="n">
-        <v>-6.024096385542169</v>
+        <v>-80</v>
       </c>
       <c r="L284" t="n">
         <v>2641.3</v>
@@ -14763,7 +14785,7 @@
         <v>1860</v>
       </c>
       <c r="K285" t="n">
-        <v>6.849315068493151</v>
+        <v>-78.94736842105263</v>
       </c>
       <c r="L285" t="n">
         <v>2639.7</v>
@@ -14814,7 +14836,7 @@
         <v>1866</v>
       </c>
       <c r="K286" t="n">
-        <v>-14.28571428571428</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L286" t="n">
         <v>2637.6</v>
@@ -14865,7 +14887,7 @@
         <v>1870</v>
       </c>
       <c r="K287" t="n">
-        <v>-17.64705882352941</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L287" t="n">
         <v>2636</v>
@@ -14916,7 +14938,7 @@
         <v>1875</v>
       </c>
       <c r="K288" t="n">
-        <v>-11.11111111111111</v>
+        <v>-67.74193548387096</v>
       </c>
       <c r="L288" t="n">
         <v>2633.8</v>
@@ -14967,7 +14989,7 @@
         <v>1877</v>
       </c>
       <c r="K289" t="n">
-        <v>-20.68965517241379</v>
+        <v>-57.57575757575758</v>
       </c>
       <c r="L289" t="n">
         <v>2631.9</v>
@@ -15018,7 +15040,7 @@
         <v>1878</v>
       </c>
       <c r="K290" t="n">
-        <v>-28.57142857142857</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L290" t="n">
         <v>2629.9</v>
@@ -15069,7 +15091,7 @@
         <v>1884</v>
       </c>
       <c r="K291" t="n">
-        <v>-37.70491803278689</v>
+        <v>-62.5</v>
       </c>
       <c r="L291" t="n">
         <v>2628</v>
@@ -15120,7 +15142,7 @@
         <v>1893</v>
       </c>
       <c r="K292" t="n">
-        <v>-29.23076923076923</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L292" t="n">
         <v>2626.9</v>
@@ -15171,7 +15193,7 @@
         <v>1893</v>
       </c>
       <c r="K293" t="n">
-        <v>-22.03389830508474</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L293" t="n">
         <v>2626.6</v>
@@ -15222,7 +15244,7 @@
         <v>1894</v>
       </c>
       <c r="K294" t="n">
-        <v>-34.54545454545455</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L294" t="n">
         <v>2626.2</v>
@@ -15273,7 +15295,7 @@
         <v>1901</v>
       </c>
       <c r="K295" t="n">
-        <v>-21.31147540983606</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L295" t="n">
         <v>2626.5</v>
@@ -15324,7 +15346,7 @@
         <v>1911</v>
       </c>
       <c r="K296" t="n">
-        <v>-31.42857142857143</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L296" t="n">
         <v>2626.4</v>
@@ -15375,7 +15397,7 @@
         <v>1920</v>
       </c>
       <c r="K297" t="n">
-        <v>-38.46153846153847</v>
+        <v>-20</v>
       </c>
       <c r="L297" t="n">
         <v>2625</v>
@@ -15426,7 +15448,7 @@
         <v>1928</v>
       </c>
       <c r="K298" t="n">
-        <v>-27.05882352941176</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L298" t="n">
         <v>2624.9</v>
@@ -15477,7 +15499,7 @@
         <v>1931</v>
       </c>
       <c r="K299" t="n">
-        <v>-28.73563218390805</v>
+        <v>-9.433962264150944</v>
       </c>
       <c r="L299" t="n">
         <v>2624.3</v>
@@ -15528,7 +15550,7 @@
         <v>1940</v>
       </c>
       <c r="K300" t="n">
-        <v>-16.66666666666666</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="L300" t="n">
         <v>2624.7</v>
@@ -15579,7 +15601,7 @@
         <v>1948</v>
       </c>
       <c r="K301" t="n">
-        <v>-17.52577319587629</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L301" t="n">
         <v>2624.9</v>
@@ -15630,7 +15652,7 @@
         <v>1949</v>
       </c>
       <c r="K302" t="n">
-        <v>-19.58762886597938</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L302" t="n">
         <v>2624.1</v>
@@ -15681,7 +15703,7 @@
         <v>1960</v>
       </c>
       <c r="K303" t="n">
-        <v>-22</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L303" t="n">
         <v>2622.2</v>
@@ -15732,7 +15754,7 @@
         <v>1967</v>
       </c>
       <c r="K304" t="n">
-        <v>-14.01869158878505</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L304" t="n">
         <v>2621.1</v>
@@ -15783,7 +15805,7 @@
         <v>1972</v>
       </c>
       <c r="K305" t="n">
-        <v>-8.928571428571429</v>
+        <v>-4.918032786885246</v>
       </c>
       <c r="L305" t="n">
         <v>2619.8</v>
@@ -15834,7 +15856,7 @@
         <v>1978</v>
       </c>
       <c r="K306" t="n">
-        <v>-8.928571428571429</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>2618.9</v>
@@ -15885,7 +15907,7 @@
         <v>1979</v>
       </c>
       <c r="K307" t="n">
-        <v>-13.76146788990826</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L307" t="n">
         <v>2618.8</v>
@@ -15936,7 +15958,7 @@
         <v>1981</v>
       </c>
       <c r="K308" t="n">
-        <v>-11.32075471698113</v>
+        <v>-16</v>
       </c>
       <c r="L308" t="n">
         <v>2617.7</v>
@@ -15987,7 +16009,7 @@
         <v>1983</v>
       </c>
       <c r="K309" t="n">
-        <v>-15.09433962264151</v>
+        <v>-44.18604651162791</v>
       </c>
       <c r="L309" t="n">
         <v>2616.7</v>
@@ -16038,7 +16060,7 @@
         <v>1984</v>
       </c>
       <c r="K310" t="n">
-        <v>-15.09433962264151</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L310" t="n">
         <v>2614.7</v>
@@ -16089,7 +16111,7 @@
         <v>2011</v>
       </c>
       <c r="K311" t="n">
-        <v>-29.13385826771653</v>
+        <v>-61.29032258064516</v>
       </c>
       <c r="L311" t="n">
         <v>2610.8</v>
@@ -16140,7 +16162,7 @@
         <v>2012</v>
       </c>
       <c r="K312" t="n">
-        <v>-37.81512605042017</v>
+        <v>-50</v>
       </c>
       <c r="L312" t="n">
         <v>2607.1</v>
@@ -16191,7 +16213,7 @@
         <v>2019</v>
       </c>
       <c r="K313" t="n">
-        <v>-41.26984126984127</v>
+        <v>-76.92307692307693</v>
       </c>
       <c r="L313" t="n">
         <v>2603.8</v>
@@ -16242,7 +16264,7 @@
         <v>2035</v>
       </c>
       <c r="K314" t="n">
-        <v>-24.82269503546099</v>
+        <v>-46.03174603174603</v>
       </c>
       <c r="L314" t="n">
         <v>2601.4</v>
@@ -16293,7 +16315,7 @@
         <v>2048</v>
       </c>
       <c r="K315" t="n">
-        <v>-19.72789115646258</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L315" t="n">
         <v>2599.8</v>
@@ -16344,7 +16366,7 @@
         <v>2056</v>
       </c>
       <c r="K316" t="n">
-        <v>-18.62068965517242</v>
+        <v>-22.07792207792208</v>
       </c>
       <c r="L316" t="n">
         <v>2598</v>
@@ -16395,7 +16417,7 @@
         <v>2065</v>
       </c>
       <c r="K317" t="n">
-        <v>-6.206896551724138</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L317" t="n">
         <v>2597.2</v>
@@ -16446,7 +16468,7 @@
         <v>2068</v>
       </c>
       <c r="K318" t="n">
-        <v>-10</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="L318" t="n">
         <v>2596.9</v>
@@ -16497,7 +16519,7 @@
         <v>2079</v>
       </c>
       <c r="K319" t="n">
-        <v>-14.86486486486486</v>
+        <v>-11.57894736842105</v>
       </c>
       <c r="L319" t="n">
         <v>2595.7</v>
@@ -16548,7 +16570,7 @@
         <v>2081</v>
       </c>
       <c r="K320" t="n">
-        <v>-20.56737588652482</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L320" t="n">
         <v>2594.8</v>
@@ -16599,7 +16621,7 @@
         <v>2082</v>
       </c>
       <c r="K321" t="n">
-        <v>-14.92537313432836</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L321" t="n">
         <v>2596.7</v>
@@ -16650,7 +16672,7 @@
         <v>2084</v>
       </c>
       <c r="K322" t="n">
-        <v>-15.55555555555556</v>
+        <v>35.38461538461539</v>
       </c>
       <c r="L322" t="n">
         <v>2598.3</v>
@@ -16701,7 +16723,7 @@
         <v>2091</v>
       </c>
       <c r="K323" t="n">
-        <v>-12.97709923664122</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>2599.9</v>
@@ -16752,7 +16774,7 @@
         <v>2102</v>
       </c>
       <c r="K324" t="n">
-        <v>-25.92592592592592</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L324" t="n">
         <v>2598.8</v>
@@ -16803,7 +16825,7 @@
         <v>2108</v>
       </c>
       <c r="K325" t="n">
-        <v>-25</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="L325" t="n">
         <v>2597</v>
@@ -16854,7 +16876,7 @@
         <v>2109</v>
       </c>
       <c r="K326" t="n">
-        <v>-22.13740458015267</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L326" t="n">
         <v>2595.9</v>
@@ -16905,7 +16927,7 @@
         <v>2111</v>
       </c>
       <c r="K327" t="n">
-        <v>-19.6969696969697</v>
+        <v>-48.83720930232558</v>
       </c>
       <c r="L327" t="n">
         <v>2594.1</v>
@@ -16956,7 +16978,7 @@
         <v>2117</v>
       </c>
       <c r="K328" t="n">
-        <v>-22.05882352941176</v>
+        <v>-42.10526315789473</v>
       </c>
       <c r="L328" t="n">
         <v>2591.4</v>
@@ -17007,7 +17029,7 @@
         <v>2118</v>
       </c>
       <c r="K329" t="n">
-        <v>-21.48148148148148</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L329" t="n">
         <v>2589.7</v>
@@ -17058,7 +17080,7 @@
         <v>2121</v>
       </c>
       <c r="K330" t="n">
-        <v>-22.62773722627737</v>
+        <v>-58.97435897435898</v>
       </c>
       <c r="L330" t="n">
         <v>2587.5</v>
@@ -17109,7 +17131,7 @@
         <v>2131</v>
       </c>
       <c r="K331" t="n">
-        <v>5</v>
+        <v>-23.40425531914894</v>
       </c>
       <c r="L331" t="n">
         <v>2586.2</v>
@@ -17160,7 +17182,7 @@
         <v>2136</v>
       </c>
       <c r="K332" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L332" t="n">
         <v>2584.6</v>
@@ -17211,7 +17233,7 @@
         <v>2139</v>
       </c>
       <c r="K333" t="n">
-        <v>8.333333333333332</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L333" t="n">
         <v>2584</v>
@@ -17262,7 +17284,7 @@
         <v>2150</v>
       </c>
       <c r="K334" t="n">
-        <v>4.347826086956522</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L334" t="n">
         <v>2585.6</v>
@@ -17313,7 +17335,7 @@
         <v>2150</v>
       </c>
       <c r="K335" t="n">
-        <v>-7.84313725490196</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L335" t="n">
         <v>2586.6</v>
@@ -17364,7 +17386,7 @@
         <v>2168</v>
       </c>
       <c r="K336" t="n">
-        <v>16.07142857142857</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L336" t="n">
         <v>2589.5</v>
@@ -17415,7 +17437,7 @@
         <v>2173</v>
       </c>
       <c r="K337" t="n">
-        <v>12.96296296296296</v>
+        <v>67.85714285714286</v>
       </c>
       <c r="L337" t="n">
         <v>2592.7</v>
@@ -17466,7 +17488,7 @@
         <v>2175</v>
       </c>
       <c r="K338" t="n">
-        <v>8.411214953271028</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="L338" t="n">
         <v>2596.3</v>
@@ -17517,7 +17539,7 @@
         <v>2183</v>
       </c>
       <c r="K339" t="n">
-        <v>11.53846153846154</v>
+        <v>51.61290322580645</v>
       </c>
       <c r="L339" t="n">
         <v>2599.2</v>
@@ -17568,7 +17590,7 @@
         <v>2189</v>
       </c>
       <c r="K340" t="n">
-        <v>14.81481481481481</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="L340" t="n">
         <v>2603</v>
@@ -17619,7 +17641,7 @@
         <v>2194</v>
       </c>
       <c r="K341" t="n">
-        <v>8.928571428571429</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="L341" t="n">
         <v>2605.3</v>
@@ -17670,7 +17692,7 @@
         <v>2200</v>
       </c>
       <c r="K342" t="n">
-        <v>15.51724137931035</v>
+        <v>50.81967213114754</v>
       </c>
       <c r="L342" t="n">
         <v>2608.7</v>
@@ -17721,7 +17743,7 @@
         <v>2212</v>
       </c>
       <c r="K343" t="n">
-        <v>30.57851239669421</v>
+        <v>51.61290322580645</v>
       </c>
       <c r="L343" t="n">
         <v>2613</v>
@@ -17772,7 +17794,7 @@
         <v>2213</v>
       </c>
       <c r="K344" t="n">
-        <v>42.34234234234234</v>
+        <v>49.2063492063492</v>
       </c>
       <c r="L344" t="n">
         <v>2616.1</v>
@@ -17823,7 +17845,7 @@
         <v>2223</v>
       </c>
       <c r="K345" t="n">
-        <v>26.95652173913043</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="L345" t="n">
         <v>2618.2</v>
@@ -17874,7 +17896,7 @@
         <v>2233</v>
       </c>
       <c r="K346" t="n">
-        <v>33.87096774193548</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L346" t="n">
         <v>2619.5</v>
@@ -17925,7 +17947,7 @@
         <v>2248</v>
       </c>
       <c r="K347" t="n">
-        <v>18.24817518248175</v>
+        <v>-6.849315068493151</v>
       </c>
       <c r="L347" t="n">
         <v>2618.8</v>
@@ -17976,7 +17998,7 @@
         <v>2258</v>
       </c>
       <c r="K348" t="n">
-        <v>14.8936170212766</v>
+        <v>-9.333333333333334</v>
       </c>
       <c r="L348" t="n">
         <v>2617.3</v>
@@ -18027,7 +18049,7 @@
         <v>2259</v>
       </c>
       <c r="K349" t="n">
-        <v>14.8936170212766</v>
+        <v>-20</v>
       </c>
       <c r="L349" t="n">
         <v>2616.5</v>
@@ -18078,7 +18100,7 @@
         <v>2264</v>
       </c>
       <c r="K350" t="n">
-        <v>20.27972027972028</v>
+        <v>-5.714285714285714</v>
       </c>
       <c r="L350" t="n">
         <v>2615.6</v>
@@ -18129,7 +18151,7 @@
         <v>2270</v>
       </c>
       <c r="K351" t="n">
-        <v>9.352517985611511</v>
+        <v>-22.85714285714286</v>
       </c>
       <c r="L351" t="n">
         <v>2614.6</v>
@@ -18180,7 +18202,7 @@
         <v>2280</v>
       </c>
       <c r="K352" t="n">
-        <v>19.44444444444445</v>
+        <v>-26.47058823529412</v>
       </c>
       <c r="L352" t="n">
         <v>2614</v>
@@ -18231,7 +18253,7 @@
         <v>2283</v>
       </c>
       <c r="K353" t="n">
-        <v>15.27777777777778</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L353" t="n">
         <v>2611.9</v>
@@ -18282,7 +18304,7 @@
         <v>2284</v>
       </c>
       <c r="K354" t="n">
-        <v>7.462686567164178</v>
+        <v>-18.0327868852459</v>
       </c>
       <c r="L354" t="n">
         <v>2609.8</v>
@@ -18333,7 +18355,7 @@
         <v>2291</v>
       </c>
       <c r="K355" t="n">
-        <v>2.127659574468085</v>
+        <v>-48.27586206896552</v>
       </c>
       <c r="L355" t="n">
         <v>2608</v>
@@ -18384,7 +18406,7 @@
         <v>2300</v>
       </c>
       <c r="K356" t="n">
-        <v>-18.18181818181818</v>
+        <v>-42.30769230769231</v>
       </c>
       <c r="L356" t="n">
         <v>2604.3</v>
@@ -18435,7 +18457,7 @@
         <v>2309</v>
       </c>
       <c r="K357" t="n">
-        <v>-14.70588235294118</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L357" t="n">
         <v>2603</v>
@@ -18486,7 +18508,7 @@
         <v>2309</v>
       </c>
       <c r="K358" t="n">
-        <v>-13.43283582089552</v>
+        <v>-4</v>
       </c>
       <c r="L358" t="n">
         <v>2602.7</v>
@@ -18537,7 +18559,7 @@
         <v>2310</v>
       </c>
       <c r="K359" t="n">
-        <v>-8.661417322834646</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L359" t="n">
         <v>2602.4</v>
@@ -18588,7 +18610,7 @@
         <v>2310</v>
       </c>
       <c r="K360" t="n">
-        <v>-14.0495867768595</v>
+        <v>-5</v>
       </c>
       <c r="L360" t="n">
         <v>2601.6</v>
@@ -18639,7 +18661,7 @@
         <v>2319</v>
       </c>
       <c r="K361" t="n">
-        <v>-16.8</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L361" t="n">
         <v>2600.5</v>
@@ -18690,7 +18712,7 @@
         <v>2319</v>
       </c>
       <c r="K362" t="n">
-        <v>-22.6890756302521</v>
+        <v>-50</v>
       </c>
       <c r="L362" t="n">
         <v>2598.4</v>
@@ -18741,7 +18763,7 @@
         <v>2326</v>
       </c>
       <c r="K363" t="n">
-        <v>-40.35087719298245</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L363" t="n">
         <v>2595.9</v>
@@ -18792,7 +18814,7 @@
         <v>2326</v>
       </c>
       <c r="K364" t="n">
-        <v>-39.82300884955752</v>
+        <v>-48.57142857142857</v>
       </c>
       <c r="L364" t="n">
         <v>2593.5</v>
@@ -18843,7 +18865,7 @@
         <v>2328</v>
       </c>
       <c r="K365" t="n">
-        <v>-35.23809523809524</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L365" t="n">
         <v>2591.6</v>
@@ -18894,7 +18916,7 @@
         <v>2328</v>
       </c>
       <c r="K366" t="n">
-        <v>-49.47368421052632</v>
+        <v>-100</v>
       </c>
       <c r="L366" t="n">
         <v>2590.6</v>
@@ -18945,7 +18967,7 @@
         <v>2337</v>
       </c>
       <c r="K367" t="n">
-        <v>-46.06741573033708</v>
+        <v>-100</v>
       </c>
       <c r="L367" t="n">
         <v>2587.8</v>
@@ -18996,7 +19018,7 @@
         <v>2346</v>
       </c>
       <c r="K368" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L368" t="n">
         <v>2585.9</v>
@@ -19047,7 +19069,7 @@
         <v>2353</v>
       </c>
       <c r="K369" t="n">
-        <v>-14.8936170212766</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L369" t="n">
         <v>2584.8</v>
@@ -19098,7 +19120,7 @@
         <v>2354</v>
       </c>
       <c r="K370" t="n">
-        <v>-22.22222222222222</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L370" t="n">
         <v>2583.6</v>
@@ -19149,7 +19171,7 @@
         <v>2364</v>
       </c>
       <c r="K371" t="n">
-        <v>-25.53191489361702</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L371" t="n">
         <v>2582.3</v>
@@ -19200,7 +19222,7 @@
         <v>2366</v>
       </c>
       <c r="K372" t="n">
-        <v>-37.2093023255814</v>
+        <v>-10</v>
       </c>
       <c r="L372" t="n">
         <v>2581.2</v>
@@ -19251,7 +19273,7 @@
         <v>2379</v>
       </c>
       <c r="K373" t="n">
-        <v>-43.75</v>
+        <v>-32.0754716981132</v>
       </c>
       <c r="L373" t="n">
         <v>2579.5</v>
@@ -19302,7 +19324,7 @@
         <v>2382</v>
       </c>
       <c r="K374" t="n">
-        <v>-44.89795918367347</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L374" t="n">
         <v>2577.5</v>
@@ -19353,7 +19375,7 @@
         <v>2384</v>
       </c>
       <c r="K375" t="n">
-        <v>-37.63440860215054</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L375" t="n">
         <v>2575.9</v>
@@ -19404,7 +19426,7 @@
         <v>2384</v>
       </c>
       <c r="K376" t="n">
-        <v>-30.95238095238095</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L376" t="n">
         <v>2574.3</v>
@@ -19455,7 +19477,7 @@
         <v>2403</v>
       </c>
       <c r="K377" t="n">
-        <v>-57.44680851063831</v>
+        <v>-61.40350877192983</v>
       </c>
       <c r="L377" t="n">
         <v>2571.7</v>
@@ -19506,7 +19528,7 @@
         <v>2404</v>
       </c>
       <c r="K378" t="n">
-        <v>-57.89473684210527</v>
+        <v>-84.31372549019608</v>
       </c>
       <c r="L378" t="n">
         <v>2568.1</v>
@@ -19557,7 +19579,7 @@
         <v>2409</v>
       </c>
       <c r="K379" t="n">
-        <v>-49.49494949494949</v>
+        <v>-67.27272727272727</v>
       </c>
       <c r="L379" t="n">
         <v>2564.3</v>
@@ -19608,7 +19630,7 @@
         <v>2428</v>
       </c>
       <c r="K380" t="n">
-        <v>-25.42372881355932</v>
+        <v>-12.5</v>
       </c>
       <c r="L380" t="n">
         <v>2562.5</v>
@@ -19659,7 +19681,7 @@
         <v>2466</v>
       </c>
       <c r="K381" t="n">
-        <v>-40.1360544217687</v>
+        <v>-48</v>
       </c>
       <c r="L381" t="n">
         <v>2557.9</v>
@@ -19710,7 +19732,7 @@
         <v>2480</v>
       </c>
       <c r="K382" t="n">
-        <v>-27.95031055900621</v>
+        <v>-20.79207920792079</v>
       </c>
       <c r="L382" t="n">
         <v>2554.5</v>
@@ -19761,7 +19783,7 @@
         <v>2484</v>
       </c>
       <c r="K383" t="n">
-        <v>-21.51898734177215</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="L383" t="n">
         <v>2552.8</v>
@@ -19812,7 +19834,7 @@
         <v>2502</v>
       </c>
       <c r="K384" t="n">
-        <v>-29.54545454545455</v>
+        <v>-28.8135593220339</v>
       </c>
       <c r="L384" t="n">
         <v>2549.6</v>
@@ -19863,7 +19885,7 @@
         <v>2509</v>
       </c>
       <c r="K385" t="n">
-        <v>-23.75690607734807</v>
+        <v>-21.6</v>
       </c>
       <c r="L385" t="n">
         <v>2546.9</v>
@@ -19914,7 +19936,7 @@
         <v>2517</v>
       </c>
       <c r="K386" t="n">
-        <v>-18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>2545</v>
@@ -19965,7 +19987,7 @@
         <v>2518</v>
       </c>
       <c r="K387" t="n">
-        <v>-13.8121546961326</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="L387" t="n">
         <v>2545.1</v>
@@ -20016,7 +20038,7 @@
         <v>2518</v>
       </c>
       <c r="K388" t="n">
-        <v>-19.76744186046512</v>
+        <v>-2.752293577981652</v>
       </c>
       <c r="L388" t="n">
         <v>2545.3</v>
@@ -20067,7 +20089,7 @@
         <v>2526</v>
       </c>
       <c r="K389" t="n">
-        <v>-28.32369942196532</v>
+        <v>-30.61224489795918</v>
       </c>
       <c r="L389" t="n">
         <v>2544.2</v>
@@ -20118,7 +20140,7 @@
         <v>2526</v>
       </c>
       <c r="K390" t="n">
-        <v>-27.90697674418605</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L390" t="n">
         <v>2541.2</v>
@@ -20169,7 +20191,7 @@
         <v>2526</v>
       </c>
       <c r="K391" t="n">
-        <v>-23.45679012345679</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L391" t="n">
         <v>2542</v>
@@ -20220,7 +20242,7 @@
         <v>2533</v>
       </c>
       <c r="K392" t="n">
-        <v>-28.1437125748503</v>
+        <v>-34.69387755102041</v>
       </c>
       <c r="L392" t="n">
         <v>2540.7</v>
@@ -20271,7 +20293,7 @@
         <v>2537</v>
       </c>
       <c r="K393" t="n">
-        <v>-18.9873417721519</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L393" t="n">
         <v>2539.4</v>
@@ -20322,7 +20344,7 @@
         <v>2553</v>
       </c>
       <c r="K394" t="n">
-        <v>-25.14619883040935</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L394" t="n">
         <v>2538.3</v>
@@ -20373,7 +20395,7 @@
         <v>2564</v>
       </c>
       <c r="K395" t="n">
-        <v>-31.11111111111111</v>
+        <v>-78.72340425531915</v>
       </c>
       <c r="L395" t="n">
         <v>2535.4</v>
@@ -20424,7 +20446,7 @@
         <v>2582</v>
       </c>
       <c r="K396" t="n">
-        <v>-19.19191919191919</v>
+        <v>-31.25</v>
       </c>
       <c r="L396" t="n">
         <v>2533.5</v>
@@ -20475,7 +20497,7 @@
         <v>2592</v>
       </c>
       <c r="K397" t="n">
-        <v>-4.761904761904762</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L397" t="n">
         <v>2532.5</v>
@@ -20526,7 +20548,7 @@
         <v>2592</v>
       </c>
       <c r="K398" t="n">
-        <v>-4.25531914893617</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L398" t="n">
         <v>2531.5</v>
@@ -20577,7 +20599,7 @@
         <v>2597</v>
       </c>
       <c r="K399" t="n">
-        <v>-4.25531914893617</v>
+        <v>4.225352112676056</v>
       </c>
       <c r="L399" t="n">
         <v>2531.8</v>
@@ -20628,7 +20650,7 @@
         <v>2602</v>
       </c>
       <c r="K400" t="n">
-        <v>-18.39080459770115</v>
+        <v>-2.631578947368421</v>
       </c>
       <c r="L400" t="n">
         <v>2531.6</v>
@@ -20679,7 +20701,7 @@
         <v>2606</v>
       </c>
       <c r="K401" t="n">
-        <v>7.142857142857142</v>
+        <v>12.32876712328767</v>
       </c>
       <c r="L401" t="n">
         <v>2531.8</v>
@@ -20730,7 +20752,7 @@
         <v>2614</v>
       </c>
       <c r="K402" t="n">
-        <v>2.985074626865671</v>
+        <v>16.88311688311688</v>
       </c>
       <c r="L402" t="n">
         <v>2533.5</v>
@@ -20781,7 +20803,7 @@
         <v>2615</v>
       </c>
       <c r="K403" t="n">
-        <v>0.7633587786259541</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L403" t="n">
         <v>2534.9</v>
@@ -20832,7 +20854,7 @@
         <v>2620</v>
       </c>
       <c r="K404" t="n">
-        <v>20.33898305084746</v>
+        <v>82.14285714285714</v>
       </c>
       <c r="L404" t="n">
         <v>2538.4</v>
@@ -20883,7 +20905,7 @@
         <v>2623</v>
       </c>
       <c r="K405" t="n">
-        <v>12.28070175438596</v>
+        <v>60.97560975609756</v>
       </c>
       <c r="L405" t="n">
         <v>2542.7</v>
@@ -20934,7 +20956,7 @@
         <v>2627</v>
       </c>
       <c r="K406" t="n">
-        <v>1.818181818181818</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L406" t="n">
         <v>2544.8</v>
@@ -20985,7 +21007,7 @@
         <v>2635</v>
       </c>
       <c r="K407" t="n">
-        <v>7.692307692307693</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L407" t="n">
         <v>2546.7</v>
@@ -21036,7 +21058,7 @@
         <v>2635</v>
       </c>
       <c r="K408" t="n">
-        <v>7.692307692307693</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L408" t="n">
         <v>2548.6</v>
@@ -21087,7 +21109,7 @@
         <v>2641</v>
       </c>
       <c r="K409" t="n">
-        <v>9.565217391304348</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L409" t="n">
         <v>2549.4</v>
@@ -21138,7 +21160,7 @@
         <v>2643</v>
       </c>
       <c r="K410" t="n">
-        <v>11.11111111111111</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L410" t="n">
         <v>2550.9</v>
@@ -21189,7 +21211,7 @@
         <v>2644</v>
       </c>
       <c r="K411" t="n">
-        <v>11.86440677966102</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L411" t="n">
         <v>2552.1</v>
@@ -21240,7 +21262,7 @@
         <v>2645</v>
       </c>
       <c r="K412" t="n">
-        <v>17.85714285714286</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L412" t="n">
         <v>2552.4</v>
@@ -21291,7 +21313,7 @@
         <v>2653</v>
       </c>
       <c r="K413" t="n">
-        <v>20.68965517241379</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L413" t="n">
         <v>2553.4</v>
@@ -21342,7 +21364,7 @@
         <v>2654</v>
       </c>
       <c r="K414" t="n">
-        <v>40.5940594059406</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L414" t="n">
         <v>2554</v>
@@ -21393,7 +21415,7 @@
         <v>2660</v>
       </c>
       <c r="K415" t="n">
-        <v>47.91666666666667</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L415" t="n">
         <v>2554.3</v>
@@ -21444,7 +21466,7 @@
         <v>2667</v>
       </c>
       <c r="K416" t="n">
-        <v>41.17647058823529</v>
+        <v>18.75</v>
       </c>
       <c r="L416" t="n">
         <v>2555.7</v>
@@ -21495,7 +21517,7 @@
         <v>2669</v>
       </c>
       <c r="K417" t="n">
-        <v>35.06493506493506</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L417" t="n">
         <v>2556.5</v>
@@ -21546,7 +21568,7 @@
         <v>2670</v>
       </c>
       <c r="K418" t="n">
-        <v>35.8974358974359</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L418" t="n">
         <v>2557.4</v>
@@ -21597,7 +21619,7 @@
         <v>2674</v>
       </c>
       <c r="K419" t="n">
-        <v>35.06493506493506</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="L419" t="n">
         <v>2559.3</v>
@@ -21648,7 +21670,7 @@
         <v>2674</v>
       </c>
       <c r="K420" t="n">
-        <v>44.44444444444444</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L420" t="n">
         <v>2561</v>
@@ -21699,7 +21721,7 @@
         <v>2674</v>
       </c>
       <c r="K421" t="n">
-        <v>41.17647058823529</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L421" t="n">
         <v>2562.6</v>
@@ -21750,7 +21772,7 @@
         <v>2675</v>
       </c>
       <c r="K422" t="n">
-        <v>31.14754098360656</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L422" t="n">
         <v>2564.2</v>
@@ -21801,7 +21823,7 @@
         <v>2688</v>
       </c>
       <c r="K423" t="n">
-        <v>6.849315068493151</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L423" t="n">
         <v>2563.7</v>
@@ -21852,7 +21874,7 @@
         <v>2696</v>
       </c>
       <c r="K424" t="n">
-        <v>-10.52631578947368</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L424" t="n">
         <v>2562.3</v>
@@ -21903,7 +21925,7 @@
         <v>2703</v>
       </c>
       <c r="K425" t="n">
-        <v>2.5</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L425" t="n">
         <v>2562.2</v>
@@ -21954,7 +21976,7 @@
         <v>2707</v>
       </c>
       <c r="K426" t="n">
-        <v>2.5</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L426" t="n">
         <v>2561</v>
@@ -22005,7 +22027,7 @@
         <v>2712</v>
       </c>
       <c r="K427" t="n">
-        <v>-1.298701298701299</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L427" t="n">
         <v>2560.1</v>
@@ -22056,7 +22078,7 @@
         <v>2714</v>
       </c>
       <c r="K428" t="n">
-        <v>-3.79746835443038</v>
+        <v>-40</v>
       </c>
       <c r="L428" t="n">
         <v>2558.9</v>
@@ -22107,7 +22129,7 @@
         <v>2714</v>
       </c>
       <c r="K429" t="n">
-        <v>4.10958904109589</v>
+        <v>-40</v>
       </c>
       <c r="L429" t="n">
         <v>2557.3</v>
@@ -22158,7 +22180,7 @@
         <v>2715</v>
       </c>
       <c r="K430" t="n">
-        <v>0</v>
+        <v>-41.46341463414634</v>
       </c>
       <c r="L430" t="n">
         <v>2555.6</v>
@@ -22209,7 +22231,7 @@
         <v>2716</v>
       </c>
       <c r="K431" t="n">
-        <v>-2.777777777777778</v>
+        <v>-41.46341463414634</v>
       </c>
       <c r="L431" t="n">
         <v>2553.8</v>
@@ -22260,7 +22282,7 @@
         <v>2734</v>
       </c>
       <c r="K432" t="n">
-        <v>-21.34831460674157</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L432" t="n">
         <v>2550.3</v>
@@ -22311,7 +22333,7 @@
         <v>2741</v>
       </c>
       <c r="K433" t="n">
-        <v>-38.63636363636363</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L433" t="n">
         <v>2547.4</v>
@@ -22362,7 +22384,7 @@
         <v>2744</v>
       </c>
       <c r="K434" t="n">
-        <v>-35.55555555555556</v>
+        <v>-60.97560975609756</v>
       </c>
       <c r="L434" t="n">
         <v>2545.6</v>
@@ -22413,7 +22435,7 @@
         <v>2744</v>
       </c>
       <c r="K435" t="n">
-        <v>-30.95238095238095</v>
+        <v>-56.75675675675676</v>
       </c>
       <c r="L435" t="n">
         <v>2543.1</v>
@@ -22464,7 +22486,7 @@
         <v>2757</v>
       </c>
       <c r="K436" t="n">
-        <v>-22.22222222222222</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L436" t="n">
         <v>2542.3</v>
@@ -22515,7 +22537,7 @@
         <v>2757</v>
       </c>
       <c r="K437" t="n">
-        <v>-25</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L437" t="n">
         <v>2541</v>
@@ -22566,7 +22588,7 @@
         <v>2758</v>
       </c>
       <c r="K438" t="n">
-        <v>-25</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L438" t="n">
         <v>2540</v>
@@ -22617,7 +22639,7 @@
         <v>2767</v>
       </c>
       <c r="K439" t="n">
-        <v>-37.63440860215054</v>
+        <v>-34.61538461538461</v>
       </c>
       <c r="L439" t="n">
         <v>2538.1</v>
@@ -22668,7 +22690,7 @@
         <v>2779</v>
       </c>
       <c r="K440" t="n">
-        <v>-44.76190476190477</v>
+        <v>-46.03174603174603</v>
       </c>
       <c r="L440" t="n">
         <v>2535.1</v>
@@ -22719,7 +22741,7 @@
         <v>2780</v>
       </c>
       <c r="K441" t="n">
-        <v>-45.28301886792453</v>
+        <v>-26.08695652173913</v>
       </c>
       <c r="L441" t="n">
         <v>2532.1</v>
@@ -22770,7 +22792,7 @@
         <v>2785</v>
       </c>
       <c r="K442" t="n">
-        <v>-38.18181818181819</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>2531.4</v>
@@ -22821,7 +22843,7 @@
         <v>2789</v>
       </c>
       <c r="K443" t="n">
-        <v>-32.67326732673268</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L443" t="n">
         <v>2531</v>
@@ -22872,7 +22894,7 @@
         <v>2801</v>
       </c>
       <c r="K444" t="n">
-        <v>-12.38095238095238</v>
+        <v>8.771929824561402</v>
       </c>
       <c r="L444" t="n">
         <v>2531.5</v>
@@ -22923,7 +22945,7 @@
         <v>2802</v>
       </c>
       <c r="K445" t="n">
-        <v>-21.21212121212121</v>
+        <v>-20</v>
       </c>
       <c r="L445" t="n">
         <v>2531.9</v>
@@ -22974,7 +22996,7 @@
         <v>2802</v>
       </c>
       <c r="K446" t="n">
-        <v>-17.89473684210526</v>
+        <v>-20</v>
       </c>
       <c r="L446" t="n">
         <v>2531</v>
@@ -23025,7 +23047,7 @@
         <v>2803</v>
       </c>
       <c r="K447" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L447" t="n">
         <v>2530.2</v>
@@ -23076,7 +23098,7 @@
         <v>2803</v>
       </c>
       <c r="K448" t="n">
-        <v>-21.34831460674157</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>2529.3</v>
@@ -23127,7 +23149,7 @@
         <v>2804</v>
       </c>
       <c r="K449" t="n">
-        <v>-20</v>
+        <v>52</v>
       </c>
       <c r="L449" t="n">
         <v>2529.4</v>
@@ -23178,7 +23200,7 @@
         <v>2809</v>
       </c>
       <c r="K450" t="n">
-        <v>-23.40425531914894</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L450" t="n">
         <v>2530.2</v>
@@ -23229,7 +23251,7 @@
         <v>2810</v>
       </c>
       <c r="K451" t="n">
-        <v>-21.27659574468085</v>
+        <v>20</v>
       </c>
       <c r="L451" t="n">
         <v>2531.2</v>
@@ -23280,7 +23302,7 @@
         <v>2810</v>
       </c>
       <c r="K452" t="n">
-        <v>-2.631578947368421</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L452" t="n">
         <v>2531.7</v>
@@ -23331,7 +23353,7 @@
         <v>2818</v>
       </c>
       <c r="K453" t="n">
-        <v>16.88311688311688</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L453" t="n">
         <v>2533.4</v>
@@ -23382,7 +23404,7 @@
         <v>2824</v>
       </c>
       <c r="K454" t="n">
-        <v>20</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L454" t="n">
         <v>2534.5</v>
@@ -23433,7 +23455,7 @@
         <v>2828</v>
       </c>
       <c r="K455" t="n">
-        <v>23.80952380952381</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L455" t="n">
         <v>2536.1</v>
@@ -23484,7 +23506,7 @@
         <v>2831</v>
       </c>
       <c r="K456" t="n">
-        <v>5.405405405405405</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L456" t="n">
         <v>2537.4</v>
@@ -23535,7 +23557,7 @@
         <v>2831</v>
       </c>
       <c r="K457" t="n">
-        <v>5.405405405405405</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L457" t="n">
         <v>2538.6</v>
@@ -23586,7 +23608,7 @@
         <v>2832</v>
       </c>
       <c r="K458" t="n">
-        <v>5.405405405405405</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L458" t="n">
         <v>2539.9</v>
@@ -23637,7 +23659,7 @@
         <v>2832</v>
       </c>
       <c r="K459" t="n">
-        <v>20</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L459" t="n">
         <v>2541.1</v>
@@ -23688,7 +23710,7 @@
         <v>2832</v>
       </c>
       <c r="K460" t="n">
-        <v>47.16981132075472</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L460" t="n">
         <v>2542.8</v>
@@ -23739,7 +23761,7 @@
         <v>2836</v>
       </c>
       <c r="K461" t="n">
-        <v>39.28571428571428</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L461" t="n">
         <v>2544</v>
@@ -23790,7 +23812,7 @@
         <v>2841</v>
       </c>
       <c r="K462" t="n">
-        <v>21.42857142857143</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L462" t="n">
         <v>2544.7</v>
@@ -23841,7 +23863,7 @@
         <v>2843</v>
       </c>
       <c r="K463" t="n">
-        <v>33.33333333333333</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L463" t="n">
         <v>2544.8</v>
@@ -23892,7 +23914,7 @@
         <v>2848</v>
       </c>
       <c r="K464" t="n">
-        <v>2.127659574468085</v>
+        <v>-70</v>
       </c>
       <c r="L464" t="n">
         <v>2543.8</v>
@@ -23943,7 +23965,7 @@
         <v>2851</v>
       </c>
       <c r="K465" t="n">
-        <v>-2.040816326530612</v>
+        <v>-70</v>
       </c>
       <c r="L465" t="n">
         <v>2542.1</v>
@@ -23994,7 +24016,7 @@
         <v>2866</v>
       </c>
       <c r="K466" t="n">
-        <v>21.875</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L466" t="n">
         <v>2542.2</v>
@@ -24045,7 +24067,7 @@
         <v>2867</v>
       </c>
       <c r="K467" t="n">
-        <v>21.875</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L467" t="n">
         <v>2542.4</v>
@@ -24096,7 +24118,7 @@
         <v>2875</v>
       </c>
       <c r="K468" t="n">
-        <v>30.55555555555556</v>
+        <v>20.93023255813954</v>
       </c>
       <c r="L468" t="n">
         <v>2543.3</v>
@@ -24147,7 +24169,7 @@
         <v>2879</v>
       </c>
       <c r="K469" t="n">
-        <v>33.33333333333333</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="L469" t="n">
         <v>2544.6</v>
@@ -24198,7 +24220,7 @@
         <v>2887</v>
       </c>
       <c r="K470" t="n">
-        <v>48.71794871794872</v>
+        <v>49.01960784313725</v>
       </c>
       <c r="L470" t="n">
         <v>2546.7</v>
@@ -24249,7 +24271,7 @@
         <v>2899</v>
       </c>
       <c r="K471" t="n">
-        <v>28.08988764044944</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L471" t="n">
         <v>2548</v>
@@ -24300,7 +24322,7 @@
         <v>2902</v>
       </c>
       <c r="K472" t="n">
-        <v>23.91304347826087</v>
+        <v>22.03389830508474</v>
       </c>
       <c r="L472" t="n">
         <v>2549.5</v>
@@ -24351,7 +24373,7 @@
         <v>2914</v>
       </c>
       <c r="K473" t="n">
-        <v>27.08333333333333</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L473" t="n">
         <v>2552</v>
@@ -24402,7 +24424,7 @@
         <v>2923</v>
       </c>
       <c r="K474" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L474" t="n">
         <v>2554.1</v>
@@ -24453,7 +24475,7 @@
         <v>2926</v>
       </c>
       <c r="K475" t="n">
-        <v>10.20408163265306</v>
+        <v>20</v>
       </c>
       <c r="L475" t="n">
         <v>2556.8</v>
@@ -24504,7 +24526,7 @@
         <v>2934</v>
       </c>
       <c r="K476" t="n">
-        <v>20.38834951456311</v>
+        <v>28.35820895522388</v>
       </c>
       <c r="L476" t="n">
         <v>2558.8</v>
@@ -24555,7 +24577,7 @@
         <v>2935</v>
       </c>
       <c r="K477" t="n">
-        <v>21.15384615384615</v>
+        <v>20</v>
       </c>
       <c r="L477" t="n">
         <v>2560.8</v>
@@ -24606,7 +24628,7 @@
         <v>2940</v>
       </c>
       <c r="K478" t="n">
-        <v>24.07407407407407</v>
+        <v>21.31147540983606</v>
       </c>
       <c r="L478" t="n">
         <v>2562.5</v>
@@ -24657,7 +24679,7 @@
         <v>2941</v>
       </c>
       <c r="K479" t="n">
-        <v>22.93577981651376</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L479" t="n">
         <v>2563.7</v>
@@ -24708,7 +24730,7 @@
         <v>2941</v>
       </c>
       <c r="K480" t="n">
-        <v>22.93577981651376</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="L480" t="n">
         <v>2564.1</v>
@@ -24759,7 +24781,7 @@
         <v>2951</v>
       </c>
       <c r="K481" t="n">
-        <v>33.91304347826087</v>
+        <v>59.18367346938776</v>
       </c>
       <c r="L481" t="n">
         <v>2566.7</v>
@@ -24810,7 +24832,7 @@
         <v>2957</v>
       </c>
       <c r="K482" t="n">
-        <v>43.10344827586206</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L482" t="n">
         <v>2570.2</v>
@@ -24861,7 +24883,7 @@
         <v>2959</v>
       </c>
       <c r="K483" t="n">
-        <v>43.10344827586206</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="L483" t="n">
         <v>2572.7</v>
@@ -24912,7 +24934,7 @@
         <v>2960</v>
       </c>
       <c r="K484" t="n">
-        <v>50</v>
+        <v>94.11764705882352</v>
       </c>
       <c r="L484" t="n">
         <v>2576.2</v>
@@ -24963,7 +24985,7 @@
         <v>2964</v>
       </c>
       <c r="K485" t="n">
-        <v>48.67256637168141</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L485" t="n">
         <v>2579</v>
@@ -25014,7 +25036,7 @@
         <v>2977</v>
       </c>
       <c r="K486" t="n">
-        <v>24.32432432432433</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L486" t="n">
         <v>2579.7</v>
@@ -25065,7 +25087,7 @@
         <v>2979</v>
       </c>
       <c r="K487" t="n">
-        <v>21.42857142857143</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L487" t="n">
         <v>2580.1</v>
@@ -25116,7 +25138,7 @@
         <v>2990</v>
       </c>
       <c r="K488" t="n">
-        <v>23.47826086956522</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L488" t="n">
         <v>2581.1</v>
@@ -25167,7 +25189,7 @@
         <v>2993</v>
       </c>
       <c r="K489" t="n">
-        <v>22.80701754385965</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="L489" t="n">
         <v>2582.5</v>
@@ -25218,7 +25240,7 @@
         <v>2994</v>
       </c>
       <c r="K490" t="n">
-        <v>15.88785046728972</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L490" t="n">
         <v>2583.8</v>
@@ -25269,7 +25291,7 @@
         <v>2995</v>
       </c>
       <c r="K491" t="n">
-        <v>29.16666666666667</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L491" t="n">
         <v>2584</v>
@@ -25320,7 +25342,7 @@
         <v>3006</v>
       </c>
       <c r="K492" t="n">
-        <v>19.23076923076923</v>
+        <v>-36.17021276595745</v>
       </c>
       <c r="L492" t="n">
         <v>2582.5</v>
@@ -25371,7 +25393,7 @@
         <v>3016</v>
       </c>
       <c r="K493" t="n">
-        <v>17.64705882352941</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L493" t="n">
         <v>2581.8</v>
@@ -25422,7 +25444,7 @@
         <v>3024</v>
       </c>
       <c r="K494" t="n">
-        <v>34.65346534653465</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L494" t="n">
         <v>2581.8</v>
@@ -25473,7 +25495,7 @@
         <v>3025</v>
       </c>
       <c r="K495" t="n">
-        <v>31.31313131313131</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L495" t="n">
         <v>2582.1</v>
@@ -25524,7 +25546,7 @@
         <v>3025</v>
       </c>
       <c r="K496" t="n">
-        <v>25.27472527472527</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L496" t="n">
         <v>2583.7</v>
@@ -25575,7 +25597,7 @@
         <v>3026</v>
       </c>
       <c r="K497" t="n">
-        <v>23.07692307692308</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L497" t="n">
         <v>2585.4</v>
@@ -25626,7 +25648,7 @@
         <v>3026</v>
       </c>
       <c r="K498" t="n">
-        <v>18.6046511627907</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L498" t="n">
         <v>2586</v>
@@ -25677,7 +25699,7 @@
         <v>3027</v>
       </c>
       <c r="K499" t="n">
-        <v>18.6046511627907</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L499" t="n">
         <v>2586.2</v>
@@ -25728,7 +25750,7 @@
         <v>3029</v>
       </c>
       <c r="K500" t="n">
-        <v>20.45454545454546</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L500" t="n">
         <v>2586.7</v>
@@ -25779,7 +25801,7 @@
         <v>3031</v>
       </c>
       <c r="K501" t="n">
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="L501" t="n">
         <v>2587.1</v>
@@ -25830,7 +25852,7 @@
         <v>3035</v>
       </c>
       <c r="K502" t="n">
-        <v>5.128205128205128</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L502" t="n">
         <v>2589</v>
@@ -25881,7 +25903,7 @@
         <v>3039</v>
       </c>
       <c r="K503" t="n">
-        <v>-2.5</v>
+        <v>-20</v>
       </c>
       <c r="L503" t="n">
         <v>2589.5</v>
@@ -25932,7 +25954,7 @@
         <v>3051</v>
       </c>
       <c r="K504" t="n">
-        <v>9.890109890109891</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L504" t="n">
         <v>2590.4</v>
@@ -25983,7 +26005,7 @@
         <v>3053</v>
       </c>
       <c r="K505" t="n">
-        <v>12.35955056179775</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L505" t="n">
         <v>2591.2</v>
@@ -26034,7 +26056,7 @@
         <v>3059</v>
       </c>
       <c r="K506" t="n">
-        <v>36.58536585365854</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L506" t="n">
         <v>2592.6</v>
@@ -26085,7 +26107,7 @@
         <v>3060</v>
       </c>
       <c r="K507" t="n">
-        <v>40.74074074074074</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L507" t="n">
         <v>2594.2</v>
@@ -26136,7 +26158,7 @@
         <v>3064</v>
       </c>
       <c r="K508" t="n">
-        <v>35.13513513513514</v>
+        <v>56.75675675675676</v>
       </c>
       <c r="L508" t="n">
         <v>2596.2</v>
@@ -26187,7 +26209,7 @@
         <v>3068</v>
       </c>
       <c r="K509" t="n">
-        <v>25.33333333333334</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L509" t="n">
         <v>2597.9</v>
@@ -26238,7 +26260,7 @@
         <v>3078</v>
       </c>
       <c r="K510" t="n">
-        <v>35.71428571428572</v>
+        <v>57.44680851063831</v>
       </c>
       <c r="L510" t="n">
         <v>2600.4</v>
@@ -26289,7 +26311,7 @@
         <v>3078</v>
       </c>
       <c r="K511" t="n">
-        <v>37.34939759036144</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L511" t="n">
         <v>2603.1</v>
@@ -26340,7 +26362,7 @@
         <v>3082</v>
       </c>
       <c r="K512" t="n">
-        <v>50</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L512" t="n">
         <v>2605</v>
@@ -26391,7 +26413,7 @@
         <v>3082</v>
       </c>
       <c r="K513" t="n">
-        <v>42.42424242424242</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L513" t="n">
         <v>2607.3</v>
@@ -26442,7 +26464,7 @@
         <v>3095</v>
       </c>
       <c r="K514" t="n">
-        <v>46.47887323943662</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L514" t="n">
         <v>2609.7</v>
@@ -26493,7 +26515,7 @@
         <v>3108</v>
       </c>
       <c r="K515" t="n">
-        <v>25.30120481927711</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L515" t="n">
         <v>2611</v>
@@ -26544,7 +26566,7 @@
         <v>3109</v>
       </c>
       <c r="K516" t="n">
-        <v>23.80952380952381</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="L516" t="n">
         <v>2611.6</v>
@@ -26595,7 +26617,7 @@
         <v>3110</v>
       </c>
       <c r="K517" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L517" t="n">
         <v>2612</v>
@@ -26646,7 +26668,7 @@
         <v>3116</v>
       </c>
       <c r="K518" t="n">
-        <v>28.88888888888889</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="L518" t="n">
         <v>2612.6</v>
@@ -26697,7 +26719,7 @@
         <v>3122</v>
       </c>
       <c r="K519" t="n">
-        <v>22.10526315789474</v>
+        <v>-13.63636363636363</v>
       </c>
       <c r="L519" t="n">
         <v>2613</v>
@@ -26748,7 +26770,7 @@
         <v>3123</v>
       </c>
       <c r="K520" t="n">
-        <v>19.14893617021277</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L520" t="n">
         <v>2612.3</v>
@@ -26799,7 +26821,7 @@
         <v>3133</v>
       </c>
       <c r="K521" t="n">
-        <v>29.41176470588236</v>
+        <v>13.72549019607843</v>
       </c>
       <c r="L521" t="n">
         <v>2612.6</v>
@@ -26850,7 +26872,7 @@
         <v>3139</v>
       </c>
       <c r="K522" t="n">
-        <v>30.76923076923077</v>
+        <v>22.80701754385965</v>
       </c>
       <c r="L522" t="n">
         <v>2613.9</v>
@@ -26901,7 +26923,7 @@
         <v>3149</v>
       </c>
       <c r="K523" t="n">
-        <v>41.81818181818181</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L523" t="n">
         <v>2616.2</v>
@@ -26952,7 +26974,7 @@
         <v>3157</v>
       </c>
       <c r="K524" t="n">
-        <v>24.52830188679245</v>
+        <v>30.61224489795918</v>
       </c>
       <c r="L524" t="n">
         <v>2616.4</v>
@@ -27003,7 +27025,7 @@
         <v>3165</v>
       </c>
       <c r="K525" t="n">
-        <v>32.14285714285715</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L525" t="n">
         <v>2618.7</v>
@@ -27054,7 +27076,7 @@
         <v>3165</v>
       </c>
       <c r="K526" t="n">
-        <v>28.30188679245283</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L526" t="n">
         <v>2621.1</v>
@@ -27105,7 +27127,7 @@
         <v>3168</v>
       </c>
       <c r="K527" t="n">
-        <v>29.62962962962963</v>
+        <v>42.30769230769231</v>
       </c>
       <c r="L527" t="n">
         <v>2623.9</v>
@@ -27156,7 +27178,7 @@
         <v>3168</v>
       </c>
       <c r="K528" t="n">
-        <v>26.92307692307692</v>
+        <v>60.86956521739131</v>
       </c>
       <c r="L528" t="n">
         <v>2626.1</v>
@@ -27207,7 +27229,7 @@
         <v>3176</v>
       </c>
       <c r="K529" t="n">
-        <v>22.22222222222222</v>
+        <v>39.62264150943396</v>
       </c>
       <c r="L529" t="n">
         <v>2628.1</v>
@@ -27258,7 +27280,7 @@
         <v>3186</v>
       </c>
       <c r="K530" t="n">
-        <v>3.703703703703703</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="L530" t="n">
         <v>2629.2</v>
@@ -27360,7 +27382,7 @@
         <v>3203</v>
       </c>
       <c r="K532" t="n">
-        <v>15.70247933884298</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L532" t="n">
         <v>2631.3</v>
@@ -27411,7 +27433,7 @@
         <v>3207</v>
       </c>
       <c r="K533" t="n">
-        <v>18.4</v>
+        <v>16</v>
       </c>
       <c r="L533" t="n">
         <v>2631.3</v>
@@ -27462,7 +27484,7 @@
         <v>3210</v>
       </c>
       <c r="K534" t="n">
-        <v>11.30434782608696</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L534" t="n">
         <v>2632.4</v>
@@ -27513,7 +27535,7 @@
         <v>3210</v>
       </c>
       <c r="K535" t="n">
-        <v>25.49019607843137</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L535" t="n">
         <v>2632.7</v>
@@ -27564,7 +27586,7 @@
         <v>3214</v>
       </c>
       <c r="K536" t="n">
-        <v>29.52380952380953</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L536" t="n">
         <v>2633.4</v>
@@ -27615,7 +27637,7 @@
         <v>3215</v>
       </c>
       <c r="K537" t="n">
-        <v>29.52380952380953</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L537" t="n">
         <v>2633.7</v>
@@ -27666,7 +27688,7 @@
         <v>3216</v>
       </c>
       <c r="K538" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L538" t="n">
         <v>2633.9</v>
@@ -27717,7 +27739,7 @@
         <v>3217</v>
       </c>
       <c r="K539" t="n">
-        <v>32.63157894736842</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="L539" t="n">
         <v>2635</v>
@@ -27768,7 +27790,7 @@
         <v>3219</v>
       </c>
       <c r="K540" t="n">
-        <v>31.25</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L540" t="n">
         <v>2636.9</v>
@@ -27819,7 +27841,7 @@
         <v>3220</v>
       </c>
       <c r="K541" t="n">
-        <v>24.13793103448276</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L541" t="n">
         <v>2637.5</v>
@@ -27870,7 +27892,7 @@
         <v>3220</v>
       </c>
       <c r="K542" t="n">
-        <v>18.51851851851852</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L542" t="n">
         <v>2638.4</v>
@@ -27921,7 +27943,7 @@
         <v>3235</v>
       </c>
       <c r="K543" t="n">
-        <v>-11.62790697674419</v>
+        <v>-52</v>
       </c>
       <c r="L543" t="n">
         <v>2637.4</v>
@@ -27978,7 +28000,7 @@
         <v>3248</v>
       </c>
       <c r="K544" t="n">
-        <v>12.08791208791209</v>
+        <v>0</v>
       </c>
       <c r="L544" t="n">
         <v>2637.4</v>
@@ -28035,7 +28057,7 @@
         <v>3261</v>
       </c>
       <c r="K545" t="n">
-        <v>-10.41666666666667</v>
+        <v>-36.17021276595745</v>
       </c>
       <c r="L545" t="n">
         <v>2636.1</v>
@@ -28094,7 +28116,7 @@
         <v>3266</v>
       </c>
       <c r="K546" t="n">
-        <v>-14.85148514851485</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L546" t="n">
         <v>2633.9</v>
@@ -28153,7 +28175,7 @@
         <v>3268</v>
       </c>
       <c r="K547" t="n">
-        <v>-16</v>
+        <v>-34.61538461538461</v>
       </c>
       <c r="L547" t="n">
         <v>2632</v>
@@ -28210,7 +28232,7 @@
         <v>3270</v>
       </c>
       <c r="K548" t="n">
-        <v>-17.64705882352941</v>
+        <v>-39.62264150943396</v>
       </c>
       <c r="L548" t="n">
         <v>2630</v>
@@ -28267,7 +28289,7 @@
         <v>3279</v>
       </c>
       <c r="K549" t="n">
-        <v>-0.9708737864077669</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L549" t="n">
         <v>2628.8</v>
@@ -28324,7 +28346,7 @@
         <v>3284</v>
       </c>
       <c r="K550" t="n">
-        <v>4.081632653061225</v>
+        <v>-25</v>
       </c>
       <c r="L550" t="n">
         <v>2627.3</v>
@@ -28381,7 +28403,7 @@
         <v>3288</v>
       </c>
       <c r="K551" t="n">
-        <v>-15.90909090909091</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L551" t="n">
         <v>2625.3</v>
@@ -28438,7 +28460,7 @@
         <v>3290</v>
       </c>
       <c r="K552" t="n">
-        <v>-14.94252873563219</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L552" t="n">
         <v>2623.1</v>
@@ -28495,7 +28517,7 @@
         <v>3294</v>
       </c>
       <c r="K553" t="n">
-        <v>-24.13793103448276</v>
+        <v>-52.17391304347826</v>
       </c>
       <c r="L553" t="n">
         <v>2622</v>
@@ -28552,7 +28574,7 @@
         <v>3312</v>
       </c>
       <c r="K554" t="n">
-        <v>-5.88235294117647</v>
+        <v>13.72549019607843</v>
       </c>
       <c r="L554" t="n">
         <v>2621.4</v>
@@ -28609,7 +28631,7 @@
         <v>3312</v>
       </c>
       <c r="K555" t="n">
-        <v>-5.88235294117647</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L555" t="n">
         <v>2622.1</v>
@@ -28666,7 +28688,7 @@
         <v>3314</v>
       </c>
       <c r="K556" t="n">
-        <v>-8</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L556" t="n">
         <v>2623.5</v>
@@ -28723,7 +28745,7 @@
         <v>3324</v>
       </c>
       <c r="K557" t="n">
-        <v>-15.59633027522936</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L557" t="n">
         <v>2623.7</v>
@@ -28780,7 +28802,7 @@
         <v>3337</v>
       </c>
       <c r="K558" t="n">
-        <v>-2.479338842975207</v>
+        <v>13.79310344827586</v>
       </c>
       <c r="L558" t="n">
         <v>2625.4</v>
@@ -28837,7 +28859,7 @@
         <v>3338</v>
       </c>
       <c r="K559" t="n">
-        <v>-2.479338842975207</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L559" t="n">
         <v>2626.3</v>
@@ -28894,7 +28916,7 @@
         <v>3338</v>
       </c>
       <c r="K560" t="n">
-        <v>-0.8403361344537815</v>
+        <v>36</v>
       </c>
       <c r="L560" t="n">
         <v>2627.7</v>
@@ -28951,7 +28973,7 @@
         <v>3352</v>
       </c>
       <c r="K561" t="n">
-        <v>-12.12121212121212</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L561" t="n">
         <v>2628.1</v>
@@ -29008,7 +29030,7 @@
         <v>3361</v>
       </c>
       <c r="K562" t="n">
-        <v>-4.964539007092199</v>
+        <v>28.35820895522388</v>
       </c>
       <c r="L562" t="n">
         <v>2629.6</v>
@@ -29059,7 +29081,7 @@
         <v>3369</v>
       </c>
       <c r="K563" t="n">
-        <v>0</v>
+        <v>-12.28070175438596</v>
       </c>
       <c r="L563" t="n">
         <v>2630.7</v>
@@ -29110,7 +29132,7 @@
         <v>3369</v>
       </c>
       <c r="K564" t="n">
-        <v>-10.74380165289256</v>
+        <v>-12.28070175438596</v>
       </c>
       <c r="L564" t="n">
         <v>2630</v>
@@ -29161,7 +29183,7 @@
         <v>3379</v>
       </c>
       <c r="K565" t="n">
-        <v>-8.474576271186439</v>
+        <v>-29.23076923076923</v>
       </c>
       <c r="L565" t="n">
         <v>2628.3</v>
@@ -29212,7 +29234,7 @@
         <v>3382</v>
       </c>
       <c r="K566" t="n">
-        <v>-1.724137931034483</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L566" t="n">
         <v>2626.7</v>
@@ -29263,7 +29285,7 @@
         <v>3387</v>
       </c>
       <c r="K567" t="n">
-        <v>-7.563025210084033</v>
+        <v>-48</v>
       </c>
       <c r="L567" t="n">
         <v>2625.6</v>
@@ -29314,7 +29336,7 @@
         <v>3388</v>
       </c>
       <c r="K568" t="n">
-        <v>-5.084745762711865</v>
+        <v>-48</v>
       </c>
       <c r="L568" t="n">
         <v>2623.3</v>
@@ -29365,7 +29387,7 @@
         <v>3388</v>
       </c>
       <c r="K569" t="n">
-        <v>-13.76146788990826</v>
+        <v>-48</v>
       </c>
       <c r="L569" t="n">
         <v>2620.9</v>
@@ -29416,7 +29438,7 @@
         <v>3389</v>
       </c>
       <c r="K570" t="n">
-        <v>-10.47619047619048</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L570" t="n">
         <v>2618.4</v>
@@ -29467,7 +29489,7 @@
         <v>3392</v>
       </c>
       <c r="K571" t="n">
-        <v>-3.846153846153846</v>
+        <v>-54.83870967741935</v>
       </c>
       <c r="L571" t="n">
         <v>2617.6</v>
@@ -29518,7 +29540,7 @@
         <v>3392</v>
       </c>
       <c r="K572" t="n">
-        <v>-1.96078431372549</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L572" t="n">
         <v>2615.9</v>
@@ -29569,7 +29591,7 @@
         <v>3395</v>
       </c>
       <c r="K573" t="n">
-        <v>4.95049504950495</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L573" t="n">
         <v>2615.3</v>
@@ -29620,7 +29642,7 @@
         <v>3400</v>
       </c>
       <c r="K574" t="n">
-        <v>-20.45454545454546</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L574" t="n">
         <v>2614.2</v>
@@ -29671,7 +29693,7 @@
         <v>3401</v>
       </c>
       <c r="K575" t="n">
-        <v>-21.34831460674157</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L575" t="n">
         <v>2614</v>
@@ -29722,7 +29744,7 @@
         <v>3401</v>
       </c>
       <c r="K576" t="n">
-        <v>-24.13793103448276</v>
+        <v>0</v>
       </c>
       <c r="L576" t="n">
         <v>2613.5</v>
@@ -29773,7 +29795,7 @@
         <v>3405</v>
       </c>
       <c r="K577" t="n">
-        <v>-8.641975308641975</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L577" t="n">
         <v>2613.9</v>
@@ -29824,7 +29846,7 @@
         <v>3406</v>
       </c>
       <c r="K578" t="n">
-        <v>-27.53623188405797</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L578" t="n">
         <v>2614.3</v>
@@ -29875,7 +29897,7 @@
         <v>3407</v>
       </c>
       <c r="K579" t="n">
-        <v>-30.43478260869566</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L579" t="n">
         <v>2614.6</v>
@@ -29926,7 +29948,7 @@
         <v>3409</v>
       </c>
       <c r="K580" t="n">
-        <v>-32.3943661971831</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L580" t="n">
         <v>2614.8</v>
@@ -29977,7 +29999,7 @@
         <v>3411</v>
       </c>
       <c r="K581" t="n">
-        <v>-11.86440677966102</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L581" t="n">
         <v>2614.9</v>
@@ -30028,7 +30050,7 @@
         <v>3413</v>
       </c>
       <c r="K582" t="n">
-        <v>-34.61538461538461</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L582" t="n">
         <v>2614.8</v>
@@ -30079,7 +30101,7 @@
         <v>3414</v>
       </c>
       <c r="K583" t="n">
-        <v>-20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L583" t="n">
         <v>2614.5</v>
@@ -30130,7 +30152,7 @@
         <v>3414</v>
       </c>
       <c r="K584" t="n">
-        <v>-20</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L584" t="n">
         <v>2614.7</v>
@@ -30181,7 +30203,7 @@
         <v>3415</v>
       </c>
       <c r="K585" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L585" t="n">
         <v>2614.9</v>
@@ -30232,7 +30254,7 @@
         <v>3420</v>
       </c>
       <c r="K586" t="n">
-        <v>-21.05263157894737</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L586" t="n">
         <v>2614.6</v>
@@ -30283,7 +30305,7 @@
         <v>3423</v>
       </c>
       <c r="K587" t="n">
-        <v>-16.66666666666666</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L587" t="n">
         <v>2613.6</v>
@@ -30334,7 +30356,7 @@
         <v>3423</v>
       </c>
       <c r="K588" t="n">
-        <v>-20</v>
+        <v>-62.5</v>
       </c>
       <c r="L588" t="n">
         <v>2612.5</v>
@@ -30385,7 +30407,7 @@
         <v>3424</v>
       </c>
       <c r="K589" t="n">
-        <v>-16.66666666666666</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L589" t="n">
         <v>2611.6</v>
@@ -30436,7 +30458,7 @@
         <v>3425</v>
       </c>
       <c r="K590" t="n">
-        <v>-16.66666666666666</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L590" t="n">
         <v>2610.8</v>
@@ -30487,7 +30509,7 @@
         <v>3426</v>
       </c>
       <c r="K591" t="n">
-        <v>-29.41176470588236</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L591" t="n">
         <v>2609.7</v>
@@ -30538,7 +30560,7 @@
         <v>3427</v>
       </c>
       <c r="K592" t="n">
-        <v>-25.71428571428571</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L592" t="n">
         <v>2608.9</v>
@@ -30589,7 +30611,7 @@
         <v>3428</v>
       </c>
       <c r="K593" t="n">
-        <v>-33.33333333333333</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L593" t="n">
         <v>2608.1</v>
@@ -30640,7 +30662,7 @@
         <v>3430</v>
       </c>
       <c r="K594" t="n">
-        <v>-26.66666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L594" t="n">
         <v>2607.1</v>
@@ -30691,7 +30713,7 @@
         <v>3430</v>
       </c>
       <c r="K595" t="n">
-        <v>-24.13793103448276</v>
+        <v>-40</v>
       </c>
       <c r="L595" t="n">
         <v>2606.2</v>
@@ -30742,7 +30764,7 @@
         <v>3432</v>
       </c>
       <c r="K596" t="n">
-        <v>-16.12903225806452</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L596" t="n">
         <v>2606</v>
@@ -30793,7 +30815,7 @@
         <v>3436</v>
       </c>
       <c r="K597" t="n">
-        <v>-41.93548387096774</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L597" t="n">
         <v>2605.7</v>
@@ -30844,7 +30866,7 @@
         <v>3439</v>
       </c>
       <c r="K598" t="n">
-        <v>-51.51515151515152</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L598" t="n">
         <v>2605.1</v>
@@ -30895,7 +30917,7 @@
         <v>3441</v>
       </c>
       <c r="K599" t="n">
-        <v>-52.94117647058824</v>
+        <v>-50</v>
       </c>
       <c r="L599" t="n">
         <v>2604.2</v>
@@ -30946,7 +30968,7 @@
         <v>3442</v>
       </c>
       <c r="K600" t="n">
-        <v>-51.51515151515152</v>
+        <v>-50</v>
       </c>
       <c r="L600" t="n">
         <v>2603.3</v>
@@ -31003,7 +31025,7 @@
         <v>3443</v>
       </c>
       <c r="K601" t="n">
-        <v>-56.25</v>
+        <v>-50</v>
       </c>
       <c r="L601" t="n">
         <v>2602.6</v>
@@ -31064,7 +31086,7 @@
         <v>3445</v>
       </c>
       <c r="K602" t="n">
-        <v>-56.25</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L602" t="n">
         <v>2601.6</v>
@@ -31125,7 +31147,7 @@
         <v>3451</v>
       </c>
       <c r="K603" t="n">
-        <v>-35.13513513513514</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L603" t="n">
         <v>2601.1</v>
@@ -31186,7 +31208,7 @@
         <v>3458</v>
       </c>
       <c r="K604" t="n">
-        <v>-45.45454545454545</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L604" t="n">
         <v>2600.1</v>
@@ -31247,7 +31269,7 @@
         <v>3461</v>
       </c>
       <c r="K605" t="n">
-        <v>-47.82608695652174</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L605" t="n">
         <v>2598.8</v>
@@ -31304,7 +31326,7 @@
         <v>3464</v>
       </c>
       <c r="K606" t="n">
-        <v>-45.45454545454545</v>
+        <v>-50</v>
       </c>
       <c r="L606" t="n">
         <v>2597</v>
@@ -31361,7 +31383,7 @@
         <v>3464</v>
       </c>
       <c r="K607" t="n">
-        <v>-41.46341463414634</v>
+        <v>-44</v>
       </c>
       <c r="L607" t="n">
         <v>2595.6</v>
@@ -31418,7 +31440,7 @@
         <v>3464</v>
       </c>
       <c r="K608" t="n">
-        <v>-41.46341463414634</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L608" t="n">
         <v>2594.5</v>
@@ -31475,7 +31497,7 @@
         <v>3464</v>
       </c>
       <c r="K609" t="n">
-        <v>-45</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L609" t="n">
         <v>2593.6</v>
@@ -31532,7 +31554,7 @@
         <v>3464</v>
       </c>
       <c r="K610" t="n">
-        <v>-43.58974358974359</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L610" t="n">
         <v>2592.8</v>
@@ -31589,7 +31611,7 @@
         <v>3468</v>
       </c>
       <c r="K611" t="n">
-        <v>-47.61904761904761</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L611" t="n">
         <v>2591.5</v>
@@ -31646,7 +31668,7 @@
         <v>3475</v>
       </c>
       <c r="K612" t="n">
-        <v>-29.16666666666667</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L612" t="n">
         <v>2591.1</v>
@@ -31703,7 +31725,7 @@
         <v>3488</v>
       </c>
       <c r="K613" t="n">
-        <v>-46.66666666666666</v>
+        <v>-53.33333333333334</v>
       </c>
       <c r="L613" t="n">
         <v>2588.8</v>
@@ -31760,7 +31782,7 @@
         <v>3503</v>
       </c>
       <c r="K614" t="n">
-        <v>-15.06849315068493</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L614" t="n">
         <v>2588.7</v>
@@ -31817,7 +31839,7 @@
         <v>3505</v>
       </c>
       <c r="K615" t="n">
-        <v>-17.33333333333334</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="L615" t="n">
         <v>2588.7</v>
@@ -31874,7 +31896,7 @@
         <v>3506</v>
       </c>
       <c r="K616" t="n">
-        <v>-18.91891891891892</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L616" t="n">
         <v>2589.1</v>
@@ -31931,7 +31953,7 @@
         <v>3508</v>
       </c>
       <c r="K617" t="n">
-        <v>-11.11111111111111</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L617" t="n">
         <v>2589.7</v>
@@ -31988,7 +32010,7 @@
         <v>3509</v>
       </c>
       <c r="K618" t="n">
-        <v>-5.714285714285714</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L618" t="n">
         <v>2590.4</v>
@@ -32045,7 +32067,7 @@
         <v>3512</v>
       </c>
       <c r="K619" t="n">
-        <v>1.408450704225352</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="L619" t="n">
         <v>2591.4</v>
@@ -32096,7 +32118,7 @@
         <v>3514</v>
       </c>
       <c r="K620" t="n">
-        <v>5.555555555555555</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="L620" t="n">
         <v>2592.6</v>
@@ -32147,7 +32169,7 @@
         <v>3517</v>
       </c>
       <c r="K621" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L621" t="n">
         <v>2593.9</v>
@@ -32198,7 +32220,7 @@
         <v>3521</v>
       </c>
       <c r="K622" t="n">
-        <v>7.894736842105263</v>
+        <v>69.6969696969697</v>
       </c>
       <c r="L622" t="n">
         <v>2594.9</v>
@@ -32249,7 +32271,7 @@
         <v>3532</v>
       </c>
       <c r="K623" t="n">
-        <v>13.58024691358025</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L623" t="n">
         <v>2598.3</v>
@@ -32300,7 +32322,7 @@
         <v>3533</v>
       </c>
       <c r="K624" t="n">
-        <v>25.33333333333334</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="L624" t="n">
         <v>2600.3</v>
@@ -32351,7 +32373,7 @@
         <v>3536</v>
       </c>
       <c r="K625" t="n">
-        <v>25.33333333333334</v>
+        <v>60</v>
       </c>
       <c r="L625" t="n">
         <v>2602.2</v>
@@ -32402,7 +32424,7 @@
         <v>3540</v>
       </c>
       <c r="K626" t="n">
-        <v>23.68421052631579</v>
+        <v>37.5</v>
       </c>
       <c r="L626" t="n">
         <v>2603.6</v>
@@ -32453,7 +32475,7 @@
         <v>3542</v>
       </c>
       <c r="K627" t="n">
-        <v>25.64102564102564</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L627" t="n">
         <v>2605</v>
@@ -32504,7 +32526,7 @@
         <v>3543</v>
       </c>
       <c r="K628" t="n">
-        <v>24.05063291139241</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L628" t="n">
         <v>2606.2</v>
@@ -32555,7 +32577,7 @@
         <v>3543</v>
       </c>
       <c r="K629" t="n">
-        <v>24.05063291139241</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L629" t="n">
         <v>2607.1</v>
@@ -32606,7 +32628,7 @@
         <v>3551</v>
       </c>
       <c r="K630" t="n">
-        <v>12.64367816091954</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L630" t="n">
         <v>2607</v>
@@ -32657,7 +32679,7 @@
         <v>3561</v>
       </c>
       <c r="K631" t="n">
-        <v>5.376344086021505</v>
+        <v>-30</v>
       </c>
       <c r="L631" t="n">
         <v>2606.2</v>
@@ -32708,7 +32730,7 @@
         <v>3570</v>
       </c>
       <c r="K632" t="n">
-        <v>7.368421052631578</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L632" t="n">
         <v>2605.9</v>
@@ -32759,7 +32781,7 @@
         <v>3570</v>
       </c>
       <c r="K633" t="n">
-        <v>24.39024390243902</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="L633" t="n">
         <v>2604.5</v>
@@ -32810,7 +32832,7 @@
         <v>3571</v>
       </c>
       <c r="K634" t="n">
-        <v>5.88235294117647</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L634" t="n">
         <v>2602.9</v>
@@ -32861,7 +32883,7 @@
         <v>3571</v>
       </c>
       <c r="K635" t="n">
-        <v>9.090909090909092</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L635" t="n">
         <v>2601.6</v>
@@ -32912,7 +32934,7 @@
         <v>3574</v>
       </c>
       <c r="K636" t="n">
-        <v>2.941176470588235</v>
+        <v>-43.75</v>
       </c>
       <c r="L636" t="n">
         <v>2600.4</v>
@@ -32963,7 +32985,7 @@
         <v>3574</v>
       </c>
       <c r="K637" t="n">
-        <v>0</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L637" t="n">
         <v>2599</v>
@@ -33014,7 +33036,7 @@
         <v>3576</v>
       </c>
       <c r="K638" t="n">
-        <v>-4.477611940298507</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L638" t="n">
         <v>2597.5</v>
@@ -33065,7 +33087,7 @@
         <v>3580</v>
       </c>
       <c r="K639" t="n">
-        <v>-2.941176470588235</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L639" t="n">
         <v>2596.4</v>
@@ -33116,7 +33138,7 @@
         <v>3581</v>
       </c>
       <c r="K640" t="n">
-        <v>-7.462686567164178</v>
+        <v>30</v>
       </c>
       <c r="L640" t="n">
         <v>2596</v>
@@ -33167,7 +33189,7 @@
         <v>3581</v>
       </c>
       <c r="K641" t="n">
-        <v>-3.125</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L641" t="n">
         <v>2596.6</v>
@@ -33218,7 +33240,7 @@
         <v>3583</v>
       </c>
       <c r="K642" t="n">
-        <v>-6.451612903225806</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L642" t="n">
         <v>2596.5</v>
@@ -33269,7 +33291,7 @@
         <v>3585</v>
       </c>
       <c r="K643" t="n">
-        <v>-32.0754716981132</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L643" t="n">
         <v>2596.2</v>
@@ -33320,7 +33342,7 @@
         <v>3587</v>
       </c>
       <c r="K644" t="n">
-        <v>-29.62962962962963</v>
+        <v>0</v>
       </c>
       <c r="L644" t="n">
         <v>2596.2</v>
@@ -33371,7 +33393,7 @@
         <v>3588</v>
       </c>
       <c r="K645" t="n">
-        <v>-23.07692307692308</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L645" t="n">
         <v>2596.3</v>
@@ -33422,7 +33444,7 @@
         <v>3603</v>
       </c>
       <c r="K646" t="n">
-        <v>11.11111111111111</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L646" t="n">
         <v>2598.2</v>
@@ -33473,7 +33495,7 @@
         <v>3604</v>
       </c>
       <c r="K647" t="n">
-        <v>9.67741935483871</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="L647" t="n">
         <v>2600.2</v>
@@ -33524,7 +33546,7 @@
         <v>3606</v>
       </c>
       <c r="K648" t="n">
-        <v>7.936507936507936</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L648" t="n">
         <v>2602.2</v>
@@ -33575,7 +33597,7 @@
         <v>3607</v>
       </c>
       <c r="K649" t="n">
-        <v>9.375</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L649" t="n">
         <v>2603.9</v>
@@ -33626,7 +33648,7 @@
         <v>3609</v>
       </c>
       <c r="K650" t="n">
-        <v>20.68965517241379</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L650" t="n">
         <v>2605.5</v>
@@ -33677,7 +33699,7 @@
         <v>3611</v>
       </c>
       <c r="K651" t="n">
-        <v>48</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L651" t="n">
         <v>2607.3</v>
@@ -33728,7 +33750,7 @@
         <v>3611</v>
       </c>
       <c r="K652" t="n">
-        <v>36.58536585365854</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L652" t="n">
         <v>2608.9</v>
@@ -33779,7 +33801,7 @@
         <v>3611</v>
       </c>
       <c r="K653" t="n">
-        <v>36.58536585365854</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L653" t="n">
         <v>2610.7</v>
@@ -33830,7 +33852,7 @@
         <v>3611</v>
       </c>
       <c r="K654" t="n">
-        <v>40</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L654" t="n">
         <v>2612.3</v>
@@ -33881,7 +33903,7 @@
         <v>3612</v>
       </c>
       <c r="K655" t="n">
-        <v>36.58536585365854</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L655" t="n">
         <v>2613.7</v>
@@ -33932,7 +33954,7 @@
         <v>3614</v>
       </c>
       <c r="K656" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L656" t="n">
         <v>2613.8</v>
@@ -33983,7 +34005,7 @@
         <v>3615</v>
       </c>
       <c r="K657" t="n">
-        <v>46.34146341463415</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L657" t="n">
         <v>2613.7</v>
@@ -34034,7 +34056,7 @@
         <v>3618</v>
       </c>
       <c r="K658" t="n">
-        <v>57.14285714285714</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L658" t="n">
         <v>2614.1</v>
@@ -34085,7 +34107,7 @@
         <v>3620</v>
       </c>
       <c r="K659" t="n">
-        <v>45</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L659" t="n">
         <v>2614.2</v>
@@ -34136,7 +34158,7 @@
         <v>3626</v>
       </c>
       <c r="K660" t="n">
-        <v>28.88888888888889</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L660" t="n">
         <v>2613.9</v>
@@ -34187,7 +34209,7 @@
         <v>3628</v>
       </c>
       <c r="K661" t="n">
-        <v>23.40425531914894</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L661" t="n">
         <v>2613.2</v>
@@ -34238,7 +34260,7 @@
         <v>3628</v>
       </c>
       <c r="K662" t="n">
-        <v>20</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L662" t="n">
         <v>2612.5</v>
@@ -34289,7 +34311,7 @@
         <v>3632</v>
       </c>
       <c r="K663" t="n">
-        <v>14.8936170212766</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L663" t="n">
         <v>2611.4</v>
@@ -34340,7 +34362,7 @@
         <v>3634</v>
       </c>
       <c r="K664" t="n">
-        <v>6.382978723404255</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L664" t="n">
         <v>2610.1</v>
@@ -34391,7 +34413,7 @@
         <v>3635</v>
       </c>
       <c r="K665" t="n">
-        <v>2.127659574468085</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L665" t="n">
         <v>2608.8</v>
@@ -34442,7 +34464,7 @@
         <v>3635</v>
       </c>
       <c r="K666" t="n">
-        <v>-43.75</v>
+        <v>-70</v>
       </c>
       <c r="L666" t="n">
         <v>2607.3</v>
@@ -34493,7 +34515,7 @@
         <v>3636</v>
       </c>
       <c r="K667" t="n">
-        <v>-43.75</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L667" t="n">
         <v>2606</v>
@@ -34544,7 +34566,7 @@
         <v>3638</v>
       </c>
       <c r="K668" t="n">
-        <v>-43.75</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L668" t="n">
         <v>2604.2</v>
@@ -34595,7 +34617,7 @@
         <v>3639</v>
       </c>
       <c r="K669" t="n">
-        <v>-50</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L669" t="n">
         <v>2602.5</v>
@@ -34646,7 +34668,7 @@
         <v>3640</v>
       </c>
       <c r="K670" t="n">
-        <v>-48.38709677419355</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L670" t="n">
         <v>2601.3</v>
@@ -34697,7 +34719,7 @@
         <v>3646</v>
       </c>
       <c r="K671" t="n">
-        <v>-65.71428571428571</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L671" t="n">
         <v>2599.7</v>
@@ -34748,7 +34770,7 @@
         <v>3647</v>
       </c>
       <c r="K672" t="n">
-        <v>-66.66666666666666</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L672" t="n">
         <v>2598</v>
@@ -34799,7 +34821,7 @@
         <v>3648</v>
       </c>
       <c r="K673" t="n">
-        <v>-67.56756756756756</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L673" t="n">
         <v>2596.6</v>
@@ -34850,7 +34872,7 @@
         <v>3648</v>
       </c>
       <c r="K674" t="n">
-        <v>-67.56756756756756</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L674" t="n">
         <v>2595.4</v>
@@ -34901,7 +34923,7 @@
         <v>3650</v>
       </c>
       <c r="K675" t="n">
-        <v>-57.89473684210527</v>
+        <v>-60</v>
       </c>
       <c r="L675" t="n">
         <v>2594.5</v>
@@ -34956,7 +34978,7 @@
         <v>3650</v>
       </c>
       <c r="K676" t="n">
-        <v>-66.66666666666666</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L676" t="n">
         <v>2593.6</v>
@@ -35013,7 +35035,7 @@
         <v>3651</v>
       </c>
       <c r="K677" t="n">
-        <v>-66.66666666666666</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L677" t="n">
         <v>2592.5</v>
@@ -35070,7 +35092,7 @@
         <v>3653</v>
       </c>
       <c r="K678" t="n">
-        <v>-71.42857142857143</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L678" t="n">
         <v>2591.8</v>
@@ -35127,7 +35149,7 @@
         <v>3653</v>
       </c>
       <c r="K679" t="n">
-        <v>-69.6969696969697</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L679" t="n">
         <v>2591.2</v>
@@ -35184,7 +35206,7 @@
         <v>3654</v>
       </c>
       <c r="K680" t="n">
-        <v>-64.28571428571429</v>
+        <v>0</v>
       </c>
       <c r="L680" t="n">
         <v>2590.6</v>
@@ -35241,7 +35263,7 @@
         <v>3654</v>
       </c>
       <c r="K681" t="n">
-        <v>-61.53846153846154</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L681" t="n">
         <v>2590.6</v>
@@ -35298,7 +35320,7 @@
         <v>3655</v>
       </c>
       <c r="K682" t="n">
-        <v>-62.96296296296296</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L682" t="n">
         <v>2590.6</v>
@@ -35355,7 +35377,7 @@
         <v>3655</v>
       </c>
       <c r="K683" t="n">
-        <v>-56.52173913043478</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L683" t="n">
         <v>2590.7</v>
@@ -35412,7 +35434,7 @@
         <v>3655</v>
       </c>
       <c r="K684" t="n">
-        <v>-52.38095238095239</v>
+        <v>-20</v>
       </c>
       <c r="L684" t="n">
         <v>2590.8</v>
@@ -35469,7 +35491,7 @@
         <v>3656</v>
       </c>
       <c r="K685" t="n">
-        <v>-52.38095238095239</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L685" t="n">
         <v>2590.6</v>
@@ -35520,7 +35542,7 @@
         <v>3657</v>
       </c>
       <c r="K686" t="n">
-        <v>-54.54545454545454</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L686" t="n">
         <v>2590.3</v>
@@ -35571,7 +35593,7 @@
         <v>3665</v>
       </c>
       <c r="K687" t="n">
-        <v>-72.41379310344827</v>
+        <v>-100</v>
       </c>
       <c r="L687" t="n">
         <v>2589.3</v>
@@ -35622,7 +35644,7 @@
         <v>3673</v>
       </c>
       <c r="K688" t="n">
-        <v>-31.42857142857143</v>
+        <v>-20</v>
       </c>
       <c r="L688" t="n">
         <v>2588.9</v>
@@ -35673,7 +35695,7 @@
         <v>3682</v>
       </c>
       <c r="K689" t="n">
-        <v>-2.325581395348837</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L689" t="n">
         <v>2589.4</v>
@@ -35724,7 +35746,7 @@
         <v>3696</v>
       </c>
       <c r="K690" t="n">
-        <v>25</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="L690" t="n">
         <v>2591.4</v>
@@ -35775,7 +35797,7 @@
         <v>3696</v>
       </c>
       <c r="K691" t="n">
-        <v>40</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="L691" t="n">
         <v>2593.4</v>
@@ -35826,7 +35848,7 @@
         <v>3711</v>
       </c>
       <c r="K692" t="n">
-        <v>9.375</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="L692" t="n">
         <v>2594</v>
@@ -35877,7 +35899,7 @@
         <v>3711</v>
       </c>
       <c r="K693" t="n">
-        <v>11.11111111111111</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="L693" t="n">
         <v>2594.6</v>
@@ -35928,7 +35950,7 @@
         <v>3723</v>
       </c>
       <c r="K694" t="n">
-        <v>25.33333333333334</v>
+        <v>28.35820895522388</v>
       </c>
       <c r="L694" t="n">
         <v>2596.4</v>
@@ -35979,7 +36001,7 @@
         <v>3724</v>
       </c>
       <c r="K695" t="n">
-        <v>24.32432432432433</v>
+        <v>31.34328358208955</v>
       </c>
       <c r="L695" t="n">
         <v>2598.4</v>
@@ -36030,7 +36052,7 @@
         <v>3724</v>
       </c>
       <c r="K696" t="n">
-        <v>24.32432432432433</v>
+        <v>49.15254237288136</v>
       </c>
       <c r="L696" t="n">
         <v>2600.5</v>
@@ -36081,7 +36103,7 @@
         <v>3725</v>
       </c>
       <c r="K697" t="n">
-        <v>27.02702702702703</v>
+        <v>42.30769230769231</v>
       </c>
       <c r="L697" t="n">
         <v>2603.5</v>
@@ -36132,7 +36154,7 @@
         <v>3734</v>
       </c>
       <c r="K698" t="n">
-        <v>11.11111111111111</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L698" t="n">
         <v>2604.8</v>
@@ -36183,7 +36205,7 @@
         <v>3742</v>
       </c>
       <c r="K699" t="n">
-        <v>1.123595505617978</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L699" t="n">
         <v>2604.4</v>
@@ -36234,7 +36256,7 @@
         <v>3750</v>
       </c>
       <c r="K700" t="n">
-        <v>10.41666666666667</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L700" t="n">
         <v>2603.4</v>
@@ -36285,7 +36307,7 @@
         <v>3753</v>
       </c>
       <c r="K701" t="n">
-        <v>7.07070707070707</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L701" t="n">
         <v>2602.1</v>
@@ -36336,7 +36358,7 @@
         <v>3754</v>
       </c>
       <c r="K702" t="n">
-        <v>7.07070707070707</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L702" t="n">
         <v>2602.2</v>
@@ -36387,7 +36409,7 @@
         <v>3755</v>
       </c>
       <c r="K703" t="n">
-        <v>8</v>
+        <v>-31.25</v>
       </c>
       <c r="L703" t="n">
         <v>2602.4</v>
@@ -36438,7 +36460,7 @@
         <v>3757</v>
       </c>
       <c r="K704" t="n">
-        <v>5.88235294117647</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L704" t="n">
         <v>2601.2</v>
@@ -36489,7 +36511,7 @@
         <v>3759</v>
       </c>
       <c r="K705" t="n">
-        <v>8.737864077669903</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L705" t="n">
         <v>2600.1</v>
@@ -36540,7 +36562,7 @@
         <v>3760</v>
       </c>
       <c r="K706" t="n">
-        <v>8.737864077669903</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L706" t="n">
         <v>2598.9</v>
@@ -36591,7 +36613,7 @@
         <v>3760</v>
       </c>
       <c r="K707" t="n">
-        <v>17.89473684210526</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L707" t="n">
         <v>2597.6</v>
@@ -36642,7 +36664,7 @@
         <v>3761</v>
       </c>
       <c r="K708" t="n">
-        <v>9.090909090909092</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L708" t="n">
         <v>2597.1</v>
@@ -36693,7 +36715,7 @@
         <v>3763</v>
       </c>
       <c r="K709" t="n">
-        <v>1.234567901234568</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L709" t="n">
         <v>2597.6</v>
@@ -36744,7 +36766,7 @@
         <v>3764</v>
       </c>
       <c r="K710" t="n">
-        <v>-20.58823529411764</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L710" t="n">
         <v>2597.2</v>
@@ -36795,7 +36817,7 @@
         <v>3765</v>
       </c>
       <c r="K711" t="n">
-        <v>-21.73913043478261</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L711" t="n">
         <v>2597</v>
@@ -36846,7 +36868,7 @@
         <v>3766</v>
       </c>
       <c r="K712" t="n">
-        <v>1.818181818181818</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L712" t="n">
         <v>2597</v>
@@ -36897,7 +36919,7 @@
         <v>3767</v>
       </c>
       <c r="K713" t="n">
-        <v>3.571428571428571</v>
+        <v>20</v>
       </c>
       <c r="L713" t="n">
         <v>2597</v>
@@ -36948,7 +36970,7 @@
         <v>3769</v>
       </c>
       <c r="K714" t="n">
-        <v>-26.08695652173913</v>
+        <v>-20</v>
       </c>
       <c r="L714" t="n">
         <v>2597</v>
@@ -36999,7 +37021,7 @@
         <v>3770</v>
       </c>
       <c r="K715" t="n">
-        <v>-26.08695652173913</v>
+        <v>0</v>
       </c>
       <c r="L715" t="n">
         <v>2596.9</v>
@@ -37050,7 +37072,7 @@
         <v>3770</v>
       </c>
       <c r="K716" t="n">
-        <v>-26.08695652173913</v>
+        <v>0</v>
       </c>
       <c r="L716" t="n">
         <v>2596.9</v>
@@ -37101,7 +37123,7 @@
         <v>3770</v>
       </c>
       <c r="K717" t="n">
-        <v>-28.88888888888889</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L717" t="n">
         <v>2596.9</v>
@@ -37152,7 +37174,7 @@
         <v>3770</v>
       </c>
       <c r="K718" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L718" t="n">
         <v>2597</v>
@@ -37203,7 +37225,7 @@
         <v>3770</v>
       </c>
       <c r="K719" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L719" t="n">
         <v>2596.9</v>
@@ -37254,7 +37276,7 @@
         <v>3771</v>
       </c>
       <c r="K720" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L720" t="n">
         <v>2597</v>
@@ -37305,7 +37327,7 @@
         <v>3771</v>
       </c>
       <c r="K721" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L721" t="n">
         <v>2597.2</v>
@@ -37356,7 +37378,7 @@
         <v>3772</v>
       </c>
       <c r="K722" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L722" t="n">
         <v>2597.4</v>
@@ -37407,7 +37429,7 @@
         <v>3772</v>
       </c>
       <c r="K723" t="n">
-        <v>5.88235294117647</v>
+        <v>100</v>
       </c>
       <c r="L723" t="n">
         <v>2597.5</v>
@@ -37458,7 +37480,7 @@
         <v>3775</v>
       </c>
       <c r="K724" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L724" t="n">
         <v>2598.1</v>
@@ -37509,7 +37531,7 @@
         <v>3778</v>
       </c>
       <c r="K725" t="n">
-        <v>36.84210526315789</v>
+        <v>100</v>
       </c>
       <c r="L725" t="n">
         <v>2598.9</v>
@@ -37560,7 +37582,7 @@
         <v>3780</v>
       </c>
       <c r="K726" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L726" t="n">
         <v>2599.9</v>
@@ -37611,7 +37633,7 @@
         <v>3783</v>
       </c>
       <c r="K727" t="n">
-        <v>56.52173913043478</v>
+        <v>100</v>
       </c>
       <c r="L727" t="n">
         <v>2601.2</v>
@@ -37662,7 +37684,7 @@
         <v>3784</v>
       </c>
       <c r="K728" t="n">
-        <v>65.21739130434783</v>
+        <v>100</v>
       </c>
       <c r="L728" t="n">
         <v>2602.6</v>
@@ -37713,7 +37735,7 @@
         <v>3785</v>
       </c>
       <c r="K729" t="n">
-        <v>54.54545454545454</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L729" t="n">
         <v>2603.9</v>
@@ -37764,7 +37786,7 @@
         <v>3786</v>
       </c>
       <c r="K730" t="n">
-        <v>63.63636363636363</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L730" t="n">
         <v>2605.2</v>
@@ -37815,7 +37837,7 @@
         <v>3786</v>
       </c>
       <c r="K731" t="n">
-        <v>71.42857142857143</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L731" t="n">
         <v>2606.5</v>
@@ -37866,7 +37888,7 @@
         <v>3787</v>
       </c>
       <c r="K732" t="n">
-        <v>61.90476190476191</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L732" t="n">
         <v>2607.6</v>
@@ -37917,7 +37939,7 @@
         <v>3788</v>
       </c>
       <c r="K733" t="n">
-        <v>61.90476190476191</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L733" t="n">
         <v>2608.8</v>
@@ -37968,7 +37990,7 @@
         <v>3789</v>
       </c>
       <c r="K734" t="n">
-        <v>70</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L734" t="n">
         <v>2609.6</v>
@@ -38019,7 +38041,7 @@
         <v>3790</v>
       </c>
       <c r="K735" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L735" t="n">
         <v>2610</v>
@@ -38070,7 +38092,7 @@
         <v>3792</v>
       </c>
       <c r="K736" t="n">
-        <v>63.63636363636363</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L736" t="n">
         <v>2610.4</v>
@@ -38121,7 +38143,7 @@
         <v>3799</v>
       </c>
       <c r="K737" t="n">
-        <v>24.13793103448276</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L737" t="n">
         <v>2609.8</v>
@@ -38172,7 +38194,7 @@
         <v>3803</v>
       </c>
       <c r="K738" t="n">
-        <v>9.090909090909092</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L738" t="n">
         <v>2608.7</v>
@@ -38223,7 +38245,7 @@
         <v>3806</v>
       </c>
       <c r="K739" t="n">
-        <v>16.66666666666666</v>
+        <v>-40</v>
       </c>
       <c r="L739" t="n">
         <v>2608</v>
@@ -38274,7 +38296,7 @@
         <v>3811</v>
       </c>
       <c r="K740" t="n">
-        <v>25</v>
+        <v>-12</v>
       </c>
       <c r="L740" t="n">
         <v>2607.7</v>
@@ -38325,7 +38347,7 @@
         <v>3811</v>
       </c>
       <c r="K741" t="n">
-        <v>25</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L741" t="n">
         <v>2607.4</v>
@@ -38376,7 +38398,7 @@
         <v>3812</v>
       </c>
       <c r="K742" t="n">
-        <v>20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L742" t="n">
         <v>2607.1</v>
@@ -38427,7 +38449,7 @@
         <v>3815</v>
       </c>
       <c r="K743" t="n">
-        <v>25.58139534883721</v>
+        <v>0</v>
       </c>
       <c r="L743" t="n">
         <v>2607</v>
@@ -38478,7 +38500,7 @@
         <v>3816</v>
       </c>
       <c r="K744" t="n">
-        <v>21.95121951219512</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L744" t="n">
         <v>2607.1</v>
@@ -38529,7 +38551,7 @@
         <v>3822</v>
       </c>
       <c r="K745" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L745" t="n">
         <v>2606.7</v>
@@ -38580,7 +38602,7 @@
         <v>3830</v>
       </c>
       <c r="K746" t="n">
-        <v>-20</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L746" t="n">
         <v>2605.3</v>
@@ -38631,7 +38653,7 @@
         <v>3835</v>
       </c>
       <c r="K747" t="n">
-        <v>-34.61538461538461</v>
+        <v>-25</v>
       </c>
       <c r="L747" t="n">
         <v>2604.1</v>
@@ -38682,7 +38704,7 @@
         <v>3839</v>
       </c>
       <c r="K748" t="n">
-        <v>-27.27272727272727</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L748" t="n">
         <v>2603.7</v>
@@ -38733,7 +38755,7 @@
         <v>3839</v>
       </c>
       <c r="K749" t="n">
-        <v>-25.92592592592592</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L749" t="n">
         <v>2603</v>
@@ -38790,7 +38812,7 @@
         <v>3858</v>
       </c>
       <c r="K750" t="n">
-        <v>5.555555555555555</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="L750" t="n">
         <v>2603.7</v>
@@ -38847,7 +38869,7 @@
         <v>3860</v>
       </c>
       <c r="K751" t="n">
-        <v>8.108108108108109</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="L751" t="n">
         <v>2604.6</v>
@@ -38904,7 +38926,7 @@
         <v>3862</v>
       </c>
       <c r="K752" t="n">
-        <v>6.666666666666667</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="L752" t="n">
         <v>2605.4</v>
@@ -38961,7 +38983,7 @@
         <v>3862</v>
       </c>
       <c r="K753" t="n">
-        <v>5.405405405405405</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L753" t="n">
         <v>2605.9</v>
@@ -39018,7 +39040,7 @@
         <v>3866</v>
       </c>
       <c r="K754" t="n">
-        <v>11.68831168831169</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="L754" t="n">
         <v>2606.7</v>
@@ -39075,7 +39097,7 @@
         <v>3871</v>
       </c>
       <c r="K755" t="n">
-        <v>18.51851851851852</v>
+        <v>65.85365853658537</v>
       </c>
       <c r="L755" t="n">
         <v>2608.6</v>
@@ -39132,7 +39154,7 @@
         <v>3874</v>
       </c>
       <c r="K756" t="n">
-        <v>19.51219512195122</v>
+        <v>89.74358974358975</v>
       </c>
       <c r="L756" t="n">
         <v>2611.6</v>
@@ -39189,7 +39211,7 @@
         <v>3878</v>
       </c>
       <c r="K757" t="n">
-        <v>34.17721518987342</v>
+        <v>89.74358974358975</v>
       </c>
       <c r="L757" t="n">
         <v>2615.5</v>
@@ -39246,7 +39268,7 @@
         <v>3880</v>
       </c>
       <c r="K758" t="n">
-        <v>42.85714285714285</v>
+        <v>90.2439024390244</v>
       </c>
       <c r="L758" t="n">
         <v>2619.2</v>
@@ -39303,7 +39325,7 @@
         <v>3881</v>
       </c>
       <c r="K759" t="n">
-        <v>41.33333333333334</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L759" t="n">
         <v>2623</v>
@@ -39360,7 +39382,7 @@
         <v>3889</v>
       </c>
       <c r="K760" t="n">
-        <v>43.58974358974359</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L760" t="n">
         <v>2625.7</v>
@@ -39417,7 +39439,7 @@
         <v>3893</v>
       </c>
       <c r="K761" t="n">
-        <v>46.34146341463415</v>
+        <v>100</v>
       </c>
       <c r="L761" t="n">
         <v>2628.6</v>
@@ -39474,7 +39496,7 @@
         <v>3915</v>
       </c>
       <c r="K762" t="n">
-        <v>16.50485436893204</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="L762" t="n">
         <v>2629.5</v>
@@ -39531,7 +39553,7 @@
         <v>3916</v>
       </c>
       <c r="K763" t="n">
-        <v>14.85148514851485</v>
+        <v>12</v>
       </c>
       <c r="L763" t="n">
         <v>2630.5</v>
@@ -39588,7 +39610,7 @@
         <v>3921</v>
       </c>
       <c r="K764" t="n">
-        <v>8.571428571428571</v>
+        <v>-8</v>
       </c>
       <c r="L764" t="n">
         <v>2630.6</v>
@@ -39645,7 +39667,7 @@
         <v>3923</v>
       </c>
       <c r="K765" t="n">
-        <v>16.83168316831683</v>
+        <v>-10.20408163265306</v>
       </c>
       <c r="L765" t="n">
         <v>2630.4</v>
@@ -39702,7 +39724,7 @@
         <v>3924</v>
       </c>
       <c r="K766" t="n">
-        <v>27.65957446808511</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L766" t="n">
         <v>2630</v>
@@ -39759,7 +39781,7 @@
         <v>3935</v>
       </c>
       <c r="K767" t="n">
-        <v>42</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="L767" t="n">
         <v>2630.3</v>
@@ -39816,7 +39838,7 @@
         <v>3935</v>
       </c>
       <c r="K768" t="n">
-        <v>39.58333333333333</v>
+        <v>0</v>
       </c>
       <c r="L768" t="n">
         <v>2630.4</v>
@@ -39867,7 +39889,7 @@
         <v>3944</v>
       </c>
       <c r="K769" t="n">
-        <v>44.76190476190477</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="L769" t="n">
         <v>2631.3</v>
@@ -39918,7 +39940,7 @@
         <v>3952</v>
       </c>
       <c r="K770" t="n">
-        <v>21.27659574468085</v>
+        <v>-18.64406779661017</v>
       </c>
       <c r="L770" t="n">
         <v>2630.6</v>
@@ -39969,7 +39991,7 @@
         <v>3956</v>
       </c>
       <c r="K771" t="n">
-        <v>14.58333333333333</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L771" t="n">
         <v>2629.1</v>
@@ -40020,7 +40042,7 @@
         <v>3958</v>
       </c>
       <c r="K772" t="n">
-        <v>14.58333333333333</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L772" t="n">
         <v>2629.6</v>
@@ -40071,7 +40093,7 @@
         <v>3961</v>
       </c>
       <c r="K773" t="n">
-        <v>17.17171717171717</v>
+        <v>30</v>
       </c>
       <c r="L773" t="n">
         <v>2630.3</v>
@@ -40122,7 +40144,7 @@
         <v>3961</v>
       </c>
       <c r="K774" t="n">
-        <v>13.68421052631579</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L774" t="n">
         <v>2631.5</v>
@@ -40173,7 +40195,7 @@
         <v>3964</v>
       </c>
       <c r="K775" t="n">
-        <v>11.82795698924731</v>
+        <v>30</v>
       </c>
       <c r="L775" t="n">
         <v>2632.8</v>
@@ -40224,7 +40246,7 @@
         <v>3966</v>
       </c>
       <c r="K776" t="n">
-        <v>10.8695652173913</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L776" t="n">
         <v>2634.2</v>
@@ -40275,7 +40297,7 @@
         <v>3971</v>
       </c>
       <c r="K777" t="n">
-        <v>11.82795698924731</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L777" t="n">
         <v>2635</v>
@@ -40326,7 +40348,7 @@
         <v>3971</v>
       </c>
       <c r="K778" t="n">
-        <v>9.890109890109891</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L778" t="n">
         <v>2635.8</v>
@@ -40377,7 +40399,7 @@
         <v>3971</v>
       </c>
       <c r="K779" t="n">
-        <v>8.888888888888889</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L779" t="n">
         <v>2635.7</v>
@@ -40428,7 +40450,7 @@
         <v>3971</v>
       </c>
       <c r="K780" t="n">
-        <v>0</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L780" t="n">
         <v>2636.4</v>
@@ -40479,7 +40501,7 @@
         <v>3975</v>
       </c>
       <c r="K781" t="n">
-        <v>-9.75609756097561</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L781" t="n">
         <v>2637.1</v>
@@ -40530,7 +40552,7 @@
         <v>3979</v>
       </c>
       <c r="K782" t="n">
-        <v>28.125</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L782" t="n">
         <v>2638.4</v>
@@ -40581,7 +40603,7 @@
         <v>3985</v>
       </c>
       <c r="K783" t="n">
-        <v>15.94202898550724</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L783" t="n">
         <v>2638.8</v>
@@ -40632,7 +40654,7 @@
         <v>3994</v>
       </c>
       <c r="K784" t="n">
-        <v>34.24657534246575</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L784" t="n">
         <v>2640.1</v>
@@ -40683,7 +40705,7 @@
         <v>3996</v>
       </c>
       <c r="K785" t="n">
-        <v>28.76712328767123</v>
+        <v>20</v>
       </c>
       <c r="L785" t="n">
         <v>2640.9</v>
@@ -40734,7 +40756,7 @@
         <v>3997</v>
       </c>
       <c r="K786" t="n">
-        <v>26.02739726027397</v>
+        <v>0</v>
       </c>
       <c r="L786" t="n">
         <v>2641.4</v>
@@ -40785,7 +40807,7 @@
         <v>4010</v>
       </c>
       <c r="K787" t="n">
-        <v>28</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L787" t="n">
         <v>2642.7</v>
@@ -40836,7 +40858,7 @@
         <v>4022</v>
       </c>
       <c r="K788" t="n">
-        <v>37.93103448275862</v>
+        <v>49.01960784313725</v>
       </c>
       <c r="L788" t="n">
         <v>2645.2</v>
@@ -40887,7 +40909,7 @@
         <v>4023</v>
       </c>
       <c r="K789" t="n">
-        <v>29.11392405063291</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L789" t="n">
         <v>2647.6</v>
@@ -40938,7 +40960,7 @@
         <v>4030</v>
       </c>
       <c r="K790" t="n">
-        <v>30.76923076923077</v>
+        <v>38.18181818181819</v>
       </c>
       <c r="L790" t="n">
         <v>2649.3</v>
@@ -40989,7 +41011,7 @@
         <v>4038</v>
       </c>
       <c r="K791" t="n">
-        <v>43.90243902439025</v>
+        <v>42.3728813559322</v>
       </c>
       <c r="L791" t="n">
         <v>2652.2</v>
@@ -41040,7 +41062,7 @@
         <v>4047</v>
       </c>
       <c r="K792" t="n">
-        <v>32.58426966292135</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L792" t="n">
         <v>2653.8</v>
@@ -41091,7 +41113,7 @@
         <v>4049</v>
       </c>
       <c r="K793" t="n">
-        <v>31.81818181818182</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L793" t="n">
         <v>2656.2</v>
@@ -41142,7 +41164,7 @@
         <v>4049</v>
       </c>
       <c r="K794" t="n">
-        <v>31.81818181818182</v>
+        <v>32.0754716981132</v>
       </c>
       <c r="L794" t="n">
         <v>2657.7</v>
@@ -41193,7 +41215,7 @@
         <v>4052</v>
       </c>
       <c r="K795" t="n">
-        <v>25</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L795" t="n">
         <v>2659.1</v>
@@ -41244,7 +41266,7 @@
         <v>4058</v>
       </c>
       <c r="K796" t="n">
-        <v>15.21739130434783</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L796" t="n">
         <v>2660</v>
@@ -41295,7 +41317,7 @@
         <v>4069</v>
       </c>
       <c r="K797" t="n">
-        <v>20.40816326530612</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L797" t="n">
         <v>2660.7</v>
@@ -41346,7 +41368,7 @@
         <v>4081</v>
       </c>
       <c r="K798" t="n">
-        <v>7.272727272727272</v>
+        <v>-27.58620689655172</v>
       </c>
       <c r="L798" t="n">
         <v>2659</v>
@@ -41397,7 +41419,7 @@
         <v>4082</v>
       </c>
       <c r="K799" t="n">
-        <v>6.306306306306306</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="L799" t="n">
         <v>2657.3</v>
@@ -41448,7 +41470,7 @@
         <v>4089</v>
       </c>
       <c r="K800" t="n">
-        <v>0</v>
+        <v>-49.01960784313725</v>
       </c>
       <c r="L800" t="n">
         <v>2655.6</v>
@@ -41499,7 +41521,7 @@
         <v>4098</v>
       </c>
       <c r="K801" t="n">
-        <v>10.56910569105691</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="L801" t="n">
         <v>2654</v>
@@ -41550,7 +41572,7 @@
         <v>4103</v>
       </c>
       <c r="K802" t="n">
-        <v>11.29032258064516</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L802" t="n">
         <v>2653.8</v>
@@ -41601,7 +41623,7 @@
         <v>4110</v>
       </c>
       <c r="K803" t="n">
-        <v>10.4</v>
+        <v>-18.0327868852459</v>
       </c>
       <c r="L803" t="n">
         <v>2652.7</v>
@@ -41652,7 +41674,7 @@
         <v>4111</v>
       </c>
       <c r="K804" t="n">
-        <v>2.564102564102564</v>
+        <v>-15.25423728813559</v>
       </c>
       <c r="L804" t="n">
         <v>2651.5</v>
@@ -41703,7 +41725,7 @@
         <v>4111</v>
       </c>
       <c r="K805" t="n">
-        <v>4.347826086956522</v>
+        <v>-5.660377358490567</v>
       </c>
       <c r="L805" t="n">
         <v>2650.6</v>
@@ -41754,7 +41776,7 @@
         <v>4116</v>
       </c>
       <c r="K806" t="n">
-        <v>0.8403361344537815</v>
+        <v>-40.42553191489361</v>
       </c>
       <c r="L806" t="n">
         <v>2649.8</v>
@@ -41805,7 +41827,7 @@
         <v>4116</v>
       </c>
       <c r="K807" t="n">
-        <v>-11.32075471698113</v>
+        <v>-20</v>
       </c>
       <c r="L807" t="n">
         <v>2647.9</v>
@@ -41856,7 +41878,7 @@
         <v>4123</v>
       </c>
       <c r="K808" t="n">
-        <v>-16.83168316831683</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L808" t="n">
         <v>2647.9</v>
@@ -41907,7 +41929,7 @@
         <v>4126</v>
       </c>
       <c r="K809" t="n">
-        <v>-18.44660194174757</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L809" t="n">
         <v>2647.7</v>
@@ -41958,7 +41980,7 @@
         <v>4130</v>
       </c>
       <c r="K810" t="n">
-        <v>-16</v>
+        <v>-25</v>
       </c>
       <c r="L810" t="n">
         <v>2647.8</v>
@@ -42009,7 +42031,7 @@
         <v>4136</v>
       </c>
       <c r="K811" t="n">
-        <v>-18.36734693877551</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L811" t="n">
         <v>2647.6</v>
@@ -42060,7 +42082,7 @@
         <v>4136</v>
       </c>
       <c r="K812" t="n">
-        <v>-10.1123595505618</v>
+        <v>0</v>
       </c>
       <c r="L812" t="n">
         <v>2646.9</v>
@@ -42111,7 +42133,7 @@
         <v>4136</v>
       </c>
       <c r="K813" t="n">
-        <v>-12.64367816091954</v>
+        <v>4</v>
       </c>
       <c r="L813" t="n">
         <v>2646.9</v>
@@ -42162,7 +42184,7 @@
         <v>4147</v>
       </c>
       <c r="K814" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L814" t="n">
         <v>2648.1</v>
@@ -42213,7 +42235,7 @@
         <v>4160</v>
       </c>
       <c r="K815" t="n">
-        <v>14.81481481481481</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="L815" t="n">
         <v>2650.6</v>
@@ -42264,7 +42286,7 @@
         <v>4162</v>
       </c>
       <c r="K816" t="n">
-        <v>19.23076923076923</v>
+        <v>60.86956521739131</v>
       </c>
       <c r="L816" t="n">
         <v>2653.4</v>
@@ -42315,7 +42337,7 @@
         <v>4170</v>
       </c>
       <c r="K817" t="n">
-        <v>0.9900990099009901</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="L817" t="n">
         <v>2655.4</v>
@@ -42366,7 +42388,7 @@
         <v>4180</v>
       </c>
       <c r="K818" t="n">
-        <v>23.23232323232323</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L818" t="n">
         <v>2657.7</v>
@@ -42417,7 +42439,7 @@
         <v>4188</v>
       </c>
       <c r="K819" t="n">
-        <v>15.09433962264151</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L819" t="n">
         <v>2659.5</v>
@@ -42468,7 +42490,7 @@
         <v>4193</v>
       </c>
       <c r="K820" t="n">
-        <v>26.92307692307692</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L820" t="n">
         <v>2662.2</v>
@@ -42519,7 +42541,7 @@
         <v>4193</v>
       </c>
       <c r="K821" t="n">
-        <v>20</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L821" t="n">
         <v>2664.3</v>
@@ -42570,7 +42592,7 @@
         <v>4193</v>
       </c>
       <c r="K822" t="n">
-        <v>15.55555555555556</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L822" t="n">
         <v>2666.4</v>
@@ -42621,7 +42643,7 @@
         <v>4201</v>
       </c>
       <c r="K823" t="n">
-        <v>31.86813186813187</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L823" t="n">
         <v>2669.3</v>
@@ -42672,7 +42694,7 @@
         <v>4201</v>
       </c>
       <c r="K824" t="n">
-        <v>33.33333333333333</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L824" t="n">
         <v>2671.1</v>
@@ -42723,7 +42745,7 @@
         <v>4202</v>
       </c>
       <c r="K825" t="n">
-        <v>34.06593406593407</v>
+        <v>20</v>
       </c>
       <c r="L825" t="n">
         <v>2671.7</v>
@@ -42774,7 +42796,7 @@
         <v>4208</v>
       </c>
       <c r="K826" t="n">
-        <v>45.65217391304348</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L826" t="n">
         <v>2673.1</v>
@@ -42825,7 +42847,7 @@
         <v>4211</v>
       </c>
       <c r="K827" t="n">
-        <v>41.05263157894737</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L827" t="n">
         <v>2675</v>
@@ -42876,7 +42898,7 @@
         <v>4226</v>
       </c>
       <c r="K828" t="n">
-        <v>16.50485436893204</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L828" t="n">
         <v>2674.4</v>
@@ -42927,7 +42949,7 @@
         <v>4233</v>
       </c>
       <c r="K829" t="n">
-        <v>25.23364485981308</v>
+        <v>10</v>
       </c>
       <c r="L829" t="n">
         <v>2675.3</v>
@@ -42978,7 +43000,7 @@
         <v>4241</v>
       </c>
       <c r="K830" t="n">
-        <v>35.13513513513514</v>
+        <v>25</v>
       </c>
       <c r="L830" t="n">
         <v>2676.5</v>
@@ -43029,7 +43051,7 @@
         <v>4243</v>
       </c>
       <c r="K831" t="n">
-        <v>28.97196261682243</v>
+        <v>20</v>
       </c>
       <c r="L831" t="n">
         <v>2677.5</v>
@@ -43080,7 +43102,7 @@
         <v>4247</v>
       </c>
       <c r="K832" t="n">
-        <v>24.32432432432433</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L832" t="n">
         <v>2678.1</v>
@@ -43131,7 +43153,7 @@
         <v>4248</v>
       </c>
       <c r="K833" t="n">
-        <v>23.21428571428572</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L833" t="n">
         <v>2677.8</v>
@@ -43182,7 +43204,7 @@
         <v>4249</v>
       </c>
       <c r="K834" t="n">
-        <v>15.68627450980392</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L834" t="n">
         <v>2677.6</v>
@@ -43233,7 +43255,7 @@
         <v>4249</v>
       </c>
       <c r="K835" t="n">
-        <v>3.370786516853932</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L835" t="n">
         <v>2677.3</v>
@@ -43284,7 +43306,7 @@
         <v>4261</v>
       </c>
       <c r="K836" t="n">
-        <v>17.17171717171717</v>
+        <v>12</v>
       </c>
       <c r="L836" t="n">
         <v>2677.6</v>
@@ -43335,7 +43357,7 @@
         <v>4263</v>
       </c>
       <c r="K837" t="n">
-        <v>24.73118279569892</v>
+        <v>51.35135135135135</v>
       </c>
       <c r="L837" t="n">
         <v>2678</v>
@@ -43386,7 +43408,7 @@
         <v>4275</v>
       </c>
       <c r="K838" t="n">
-        <v>26.31578947368421</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L838" t="n">
         <v>2681.1</v>
@@ -43437,7 +43459,7 @@
         <v>4277</v>
       </c>
       <c r="K839" t="n">
-        <v>39.32584269662922</v>
+        <v>50</v>
       </c>
       <c r="L839" t="n">
         <v>2683.7</v>
@@ -43488,7 +43510,7 @@
         <v>4280</v>
       </c>
       <c r="K840" t="n">
-        <v>31.03448275862069</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="L840" t="n">
         <v>2685.2</v>
@@ -43539,7 +43561,7 @@
         <v>4281</v>
       </c>
       <c r="K841" t="n">
-        <v>31.81818181818182</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L841" t="n">
         <v>2687</v>
@@ -43590,7 +43612,7 @@
         <v>4281</v>
       </c>
       <c r="K842" t="n">
-        <v>31.81818181818182</v>
+        <v>69.6969696969697</v>
       </c>
       <c r="L842" t="n">
         <v>2689.2</v>
@@ -43641,7 +43663,7 @@
         <v>4282</v>
       </c>
       <c r="K843" t="n">
-        <v>23.45679012345679</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L843" t="n">
         <v>2691.4</v>
@@ -43692,7 +43714,7 @@
         <v>4283</v>
       </c>
       <c r="K844" t="n">
-        <v>24.39024390243902</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L844" t="n">
         <v>2693.6</v>
@@ -43743,7 +43765,7 @@
         <v>4289</v>
       </c>
       <c r="K845" t="n">
-        <v>28.73563218390805</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L845" t="n">
         <v>2696.4</v>
@@ -43794,7 +43816,7 @@
         <v>4289</v>
       </c>
       <c r="K846" t="n">
-        <v>23.45679012345679</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L846" t="n">
         <v>2698</v>
@@ -43845,7 +43867,7 @@
         <v>4290</v>
       </c>
       <c r="K847" t="n">
-        <v>26.58227848101265</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L847" t="n">
         <v>2699.7</v>
@@ -43896,7 +43918,7 @@
         <v>4301</v>
       </c>
       <c r="K848" t="n">
-        <v>62.66666666666667</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L848" t="n">
         <v>2701.3</v>
@@ -43947,7 +43969,7 @@
         <v>4302</v>
       </c>
       <c r="K849" t="n">
-        <v>59.42028985507246</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L849" t="n">
         <v>2702.8</v>
@@ -43998,7 +44020,7 @@
         <v>4306</v>
       </c>
       <c r="K850" t="n">
-        <v>44.61538461538462</v>
+        <v>52</v>
       </c>
       <c r="L850" t="n">
         <v>2704.2</v>
@@ -44049,7 +44071,7 @@
         <v>4306</v>
       </c>
       <c r="K851" t="n">
-        <v>49.2063492063492</v>
+        <v>52</v>
       </c>
       <c r="L851" t="n">
         <v>2705.5</v>
@@ -44100,7 +44122,7 @@
         <v>4310</v>
       </c>
       <c r="K852" t="n">
-        <v>61.90476190476191</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L852" t="n">
         <v>2707.2</v>
@@ -44151,7 +44173,7 @@
         <v>4328</v>
       </c>
       <c r="K853" t="n">
-        <v>27.5</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L853" t="n">
         <v>2707.2</v>
@@ -44202,7 +44224,7 @@
         <v>4329</v>
       </c>
       <c r="K854" t="n">
-        <v>27.5</v>
+        <v>-15</v>
       </c>
       <c r="L854" t="n">
         <v>2707.2</v>
@@ -44253,7 +44275,7 @@
         <v>4338</v>
       </c>
       <c r="K855" t="n">
-        <v>34.83146067415731</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="L855" t="n">
         <v>2707.5</v>
@@ -44304,7 +44326,7 @@
         <v>4347</v>
       </c>
       <c r="K856" t="n">
-        <v>32.55813953488372</v>
+        <v>22.80701754385965</v>
       </c>
       <c r="L856" t="n">
         <v>2708.7</v>
@@ -44355,7 +44377,7 @@
         <v>4355</v>
       </c>
       <c r="K857" t="n">
-        <v>23.91304347826087</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L857" t="n">
         <v>2709.2</v>
@@ -44406,7 +44428,7 @@
         <v>4363</v>
       </c>
       <c r="K858" t="n">
-        <v>20.45454545454546</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="L858" t="n">
         <v>2709.4</v>
@@ -44457,7 +44479,7 @@
         <v>4369</v>
       </c>
       <c r="K859" t="n">
-        <v>10.8695652173913</v>
+        <v>-1.587301587301587</v>
       </c>
       <c r="L859" t="n">
         <v>2708.9</v>
@@ -44508,7 +44530,7 @@
         <v>4375</v>
       </c>
       <c r="K860" t="n">
-        <v>20</v>
+        <v>7.246376811594203</v>
       </c>
       <c r="L860" t="n">
         <v>2709.4</v>
@@ -44559,7 +44581,7 @@
         <v>4381</v>
       </c>
       <c r="K861" t="n">
-        <v>12</v>
+        <v>-7.042253521126761</v>
       </c>
       <c r="L861" t="n">
         <v>2709.3</v>
@@ -44610,7 +44632,7 @@
         <v>4382</v>
       </c>
       <c r="K862" t="n">
-        <v>10.89108910891089</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L862" t="n">
         <v>2708.7</v>
@@ -44661,7 +44683,7 @@
         <v>4386</v>
       </c>
       <c r="K863" t="n">
-        <v>7.692307692307693</v>
+        <v>12.28070175438596</v>
       </c>
       <c r="L863" t="n">
         <v>2709.5</v>
@@ -44712,7 +44734,7 @@
         <v>4387</v>
       </c>
       <c r="K864" t="n">
-        <v>5.769230769230769</v>
+        <v>-6.122448979591836</v>
       </c>
       <c r="L864" t="n">
         <v>2710.1</v>
@@ -44763,7 +44785,7 @@
         <v>4390</v>
       </c>
       <c r="K865" t="n">
-        <v>2.97029702970297</v>
+        <v>-20.93023255813954</v>
       </c>
       <c r="L865" t="n">
         <v>2710.1</v>
@@ -44814,7 +44836,7 @@
         <v>4395</v>
       </c>
       <c r="K866" t="n">
-        <v>7.547169811320755</v>
+        <v>10</v>
       </c>
       <c r="L866" t="n">
         <v>2709.7</v>
@@ -44865,7 +44887,7 @@
         <v>4395</v>
       </c>
       <c r="K867" t="n">
-        <v>8.571428571428571</v>
+        <v>-12.5</v>
       </c>
       <c r="L867" t="n">
         <v>2710.1</v>
@@ -44916,7 +44938,7 @@
         <v>4399</v>
       </c>
       <c r="K868" t="n">
-        <v>2.040816326530612</v>
+        <v>20</v>
       </c>
       <c r="L868" t="n">
         <v>2710.1</v>
@@ -44967,7 +44989,7 @@
         <v>4404</v>
       </c>
       <c r="K869" t="n">
-        <v>-3.92156862745098</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L869" t="n">
         <v>2710.2</v>
@@ -45018,7 +45040,7 @@
         <v>4407</v>
       </c>
       <c r="K870" t="n">
-        <v>-2.97029702970297</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L870" t="n">
         <v>2709.4</v>
@@ -45069,7 +45091,7 @@
         <v>4408</v>
       </c>
       <c r="K871" t="n">
-        <v>-1.96078431372549</v>
+        <v>0</v>
       </c>
       <c r="L871" t="n">
         <v>2709.3</v>
@@ -45120,7 +45142,7 @@
         <v>4411</v>
       </c>
       <c r="K872" t="n">
-        <v>-8.91089108910891</v>
+        <v>4</v>
       </c>
       <c r="L872" t="n">
         <v>2709</v>
@@ -45171,7 +45193,7 @@
         <v>4411</v>
       </c>
       <c r="K873" t="n">
-        <v>10.8433734939759</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L873" t="n">
         <v>2709.1</v>
@@ -45222,7 +45244,7 @@
         <v>4416</v>
       </c>
       <c r="K874" t="n">
-        <v>14.94252873563219</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L874" t="n">
         <v>2709.8</v>
@@ -45273,7 +45295,7 @@
         <v>4419</v>
       </c>
       <c r="K875" t="n">
-        <v>1.234567901234568</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L875" t="n">
         <v>2709.9</v>
@@ -45324,7 +45346,7 @@
         <v>4419</v>
       </c>
       <c r="K876" t="n">
-        <v>-11.11111111111111</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L876" t="n">
         <v>2709.5</v>
@@ -45375,7 +45397,7 @@
         <v>4422</v>
       </c>
       <c r="K877" t="n">
-        <v>-4.477611940298507</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L877" t="n">
         <v>2708.8</v>
@@ -45426,7 +45448,7 @@
         <v>4424</v>
       </c>
       <c r="K878" t="n">
-        <v>-14.75409836065574</v>
+        <v>-20</v>
       </c>
       <c r="L878" t="n">
         <v>2707.9</v>
@@ -45477,7 +45499,7 @@
         <v>4447</v>
       </c>
       <c r="K879" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L879" t="n">
         <v>2705.2</v>
@@ -45528,7 +45550,7 @@
         <v>4456</v>
       </c>
       <c r="K880" t="n">
-        <v>-28.39506172839506</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L880" t="n">
         <v>2703.7</v>
@@ -45579,7 +45601,7 @@
         <v>4464</v>
       </c>
       <c r="K881" t="n">
-        <v>-10.8433734939759</v>
+        <v>-9.433962264150944</v>
       </c>
       <c r="L881" t="n">
         <v>2702.9</v>
@@ -45630,7 +45652,7 @@
         <v>4474</v>
       </c>
       <c r="K882" t="n">
-        <v>-19.56521739130435</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L882" t="n">
         <v>2701.4</v>
@@ -45681,7 +45703,7 @@
         <v>4478</v>
       </c>
       <c r="K883" t="n">
-        <v>-19.56521739130435</v>
+        <v>-38.70967741935484</v>
       </c>
       <c r="L883" t="n">
         <v>2699.5</v>
@@ -45732,7 +45754,7 @@
         <v>4482</v>
       </c>
       <c r="K884" t="n">
-        <v>-13.68421052631579</v>
+        <v>-26.98412698412698</v>
       </c>
       <c r="L884" t="n">
         <v>2697.5</v>
@@ -45783,7 +45805,7 @@
         <v>4485</v>
       </c>
       <c r="K885" t="n">
-        <v>-20</v>
+        <v>-30.3030303030303</v>
       </c>
       <c r="L885" t="n">
         <v>2695.5</v>
@@ -45834,7 +45856,7 @@
         <v>4487</v>
       </c>
       <c r="K886" t="n">
-        <v>-28.26086956521739</v>
+        <v>-29.23076923076923</v>
       </c>
       <c r="L886" t="n">
         <v>2693.3</v>
@@ -45885,7 +45907,7 @@
         <v>4489</v>
       </c>
       <c r="K887" t="n">
-        <v>-25.53191489361702</v>
+        <v>-29.23076923076923</v>
       </c>
       <c r="L887" t="n">
         <v>2691.6</v>
@@ -45936,7 +45958,7 @@
         <v>4491</v>
       </c>
       <c r="K888" t="n">
-        <v>-32.60869565217391</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L888" t="n">
         <v>2689.5</v>
@@ -45987,7 +46009,7 @@
         <v>4508</v>
       </c>
       <c r="K889" t="n">
-        <v>-7.692307692307693</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="L889" t="n">
         <v>2691.4</v>
@@ -46038,7 +46060,7 @@
         <v>4510</v>
       </c>
       <c r="K890" t="n">
-        <v>-2.912621359223301</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L890" t="n">
         <v>2692.6</v>
@@ -46089,7 +46111,7 @@
         <v>4512</v>
       </c>
       <c r="K891" t="n">
-        <v>-1.923076923076923</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L891" t="n">
         <v>2693.2</v>
@@ -46140,7 +46162,7 @@
         <v>4521</v>
       </c>
       <c r="K892" t="n">
-        <v>-7.272727272727272</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="L892" t="n">
         <v>2693.9</v>
@@ -46191,7 +46213,7 @@
         <v>4528</v>
       </c>
       <c r="K893" t="n">
-        <v>-0.8547008547008548</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L893" t="n">
         <v>2695.7</v>
@@ -46242,7 +46264,7 @@
         <v>4532</v>
       </c>
       <c r="K894" t="n">
-        <v>-1.724137931034483</v>
+        <v>44.68085106382978</v>
       </c>
       <c r="L894" t="n">
         <v>2697.5</v>
@@ -46293,7 +46315,7 @@
         <v>4532</v>
       </c>
       <c r="K895" t="n">
-        <v>0.8849557522123894</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="L895" t="n">
         <v>2699.6</v>
@@ -46344,7 +46366,7 @@
         <v>4532</v>
       </c>
       <c r="K896" t="n">
-        <v>0.8849557522123894</v>
+        <v>48.83720930232558</v>
       </c>
       <c r="L896" t="n">
         <v>2701.9</v>
@@ -46395,7 +46417,7 @@
         <v>4533</v>
       </c>
       <c r="K897" t="n">
-        <v>2.702702702702703</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L897" t="n">
         <v>2703.9</v>
@@ -46446,7 +46468,7 @@
         <v>4534</v>
       </c>
       <c r="K898" t="n">
-        <v>1.818181818181818</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L898" t="n">
         <v>2706.2</v>
@@ -46497,7 +46519,7 @@
         <v>4541</v>
       </c>
       <c r="K899" t="n">
-        <v>19.14893617021277</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L899" t="n">
         <v>2706.1</v>
@@ -46548,7 +46570,7 @@
         <v>4543</v>
       </c>
       <c r="K900" t="n">
-        <v>8.045977011494253</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L900" t="n">
         <v>2705.6</v>
@@ -46599,7 +46621,7 @@
         <v>4544</v>
       </c>
       <c r="K901" t="n">
-        <v>-2.5</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L901" t="n">
         <v>2704.8</v>
@@ -46650,7 +46672,7 @@
         <v>4547</v>
       </c>
       <c r="K902" t="n">
-        <v>15.06849315068493</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L902" t="n">
         <v>2705.2</v>
@@ -46701,7 +46723,7 @@
         <v>4549</v>
       </c>
       <c r="K903" t="n">
-        <v>18.30985915492958</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L903" t="n">
         <v>2704.7</v>
@@ -46752,7 +46774,7 @@
         <v>4551</v>
       </c>
       <c r="K904" t="n">
-        <v>10.14492753623188</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L904" t="n">
         <v>2703.6</v>
@@ -46803,7 +46825,7 @@
         <v>4555</v>
       </c>
       <c r="K905" t="n">
-        <v>8.571428571428571</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L905" t="n">
         <v>2702.1</v>
@@ -46854,7 +46876,7 @@
         <v>4556</v>
       </c>
       <c r="K906" t="n">
-        <v>13.04347826086956</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L906" t="n">
         <v>2700.7</v>
@@ -46905,7 +46927,7 @@
         <v>4557</v>
       </c>
       <c r="K907" t="n">
-        <v>11.76470588235294</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L907" t="n">
         <v>2699.5</v>
@@ -46956,7 +46978,7 @@
         <v>4562</v>
       </c>
       <c r="K908" t="n">
-        <v>7.042253521126761</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L908" t="n">
         <v>2697.7</v>
@@ -47007,7 +47029,7 @@
         <v>4566</v>
       </c>
       <c r="K909" t="n">
-        <v>-13.79310344827586</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L909" t="n">
         <v>2697</v>
@@ -47058,7 +47080,7 @@
         <v>4567</v>
       </c>
       <c r="K910" t="n">
-        <v>-15.78947368421053</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L910" t="n">
         <v>2696.6</v>
@@ -47109,7 +47131,7 @@
         <v>4569</v>
       </c>
       <c r="K911" t="n">
-        <v>-22.80701754385965</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L911" t="n">
         <v>2696.1</v>
@@ -47160,7 +47182,7 @@
         <v>4572</v>
       </c>
       <c r="K912" t="n">
-        <v>-13.72549019607843</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L912" t="n">
         <v>2695</v>
@@ -47211,7 +47233,7 @@
         <v>4579</v>
       </c>
       <c r="K913" t="n">
-        <v>-13.72549019607843</v>
+        <v>0</v>
       </c>
       <c r="L913" t="n">
         <v>2694.8</v>
@@ -47262,7 +47284,7 @@
         <v>4580</v>
       </c>
       <c r="K914" t="n">
-        <v>-25</v>
+        <v>12</v>
       </c>
       <c r="L914" t="n">
         <v>2694.7</v>
@@ -47313,7 +47335,7 @@
         <v>4583</v>
       </c>
       <c r="K915" t="n">
-        <v>-29.41176470588236</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L915" t="n">
         <v>2694.7</v>
@@ -47364,7 +47386,7 @@
         <v>4584</v>
       </c>
       <c r="K916" t="n">
-        <v>-26.92307692307692</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L916" t="n">
         <v>2694.7</v>
@@ -47415,7 +47437,7 @@
         <v>4585</v>
       </c>
       <c r="K917" t="n">
-        <v>-26.92307692307692</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L917" t="n">
         <v>2694.5</v>
@@ -47466,7 +47488,7 @@
         <v>4589</v>
       </c>
       <c r="K918" t="n">
-        <v>-34.54545454545455</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L918" t="n">
         <v>2694.4</v>
@@ -47517,7 +47539,7 @@
         <v>4616</v>
       </c>
       <c r="K919" t="n">
-        <v>-52</v>
+        <v>-67.3469387755102</v>
       </c>
       <c r="L919" t="n">
         <v>2691.2</v>
@@ -47568,7 +47590,7 @@
         <v>4623</v>
       </c>
       <c r="K920" t="n">
-        <v>-37.5</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L920" t="n">
         <v>2688.6</v>
@@ -47619,7 +47641,7 @@
         <v>4631</v>
       </c>
       <c r="K921" t="n">
-        <v>-42.5287356321839</v>
+        <v>-49.15254237288136</v>
       </c>
       <c r="L921" t="n">
         <v>2685.4</v>
@@ -47670,7 +47692,7 @@
         <v>4632</v>
       </c>
       <c r="K922" t="n">
-        <v>-45.88235294117647</v>
+        <v>-66.0377358490566</v>
       </c>
       <c r="L922" t="n">
         <v>2682.6</v>
@@ -47721,7 +47743,7 @@
         <v>4654</v>
       </c>
       <c r="K923" t="n">
-        <v>-14.28571428571428</v>
+        <v>-16.21621621621622</v>
       </c>
       <c r="L923" t="n">
         <v>2681.3</v>
@@ -47772,7 +47794,7 @@
         <v>4657</v>
       </c>
       <c r="K924" t="n">
-        <v>-15.09433962264151</v>
+        <v>-16.21621621621622</v>
       </c>
       <c r="L924" t="n">
         <v>2679.8</v>
@@ -47823,7 +47845,7 @@
         <v>4659</v>
       </c>
       <c r="K925" t="n">
-        <v>-9.615384615384617</v>
+        <v>-14.66666666666667</v>
       </c>
       <c r="L925" t="n">
         <v>2678.8</v>
@@ -47874,7 +47896,7 @@
         <v>4661</v>
       </c>
       <c r="K926" t="n">
-        <v>-12.38095238095238</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L926" t="n">
         <v>2677.5</v>
@@ -47925,7 +47947,7 @@
         <v>4661</v>
       </c>
       <c r="K927" t="n">
-        <v>-13.46153846153846</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L927" t="n">
         <v>2676.3</v>
@@ -47976,7 +47998,7 @@
         <v>4661</v>
       </c>
       <c r="K928" t="n">
-        <v>-9.090909090909092</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="L928" t="n">
         <v>2675.5</v>
@@ -48027,7 +48049,7 @@
         <v>4664</v>
       </c>
       <c r="K929" t="n">
-        <v>-10.20408163265306</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="L929" t="n">
         <v>2677.7</v>
@@ -48078,7 +48100,7 @@
         <v>4665</v>
       </c>
       <c r="K930" t="n">
-        <v>-12.24489795918367</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L930" t="n">
         <v>2679.1</v>
@@ -48129,7 +48151,7 @@
         <v>4665</v>
       </c>
       <c r="K931" t="n">
-        <v>-10.41666666666667</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L931" t="n">
         <v>2681.3</v>
@@ -48180,7 +48202,7 @@
         <v>4672</v>
       </c>
       <c r="K932" t="n">
-        <v>-14</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L932" t="n">
         <v>2682.7</v>
@@ -48231,7 +48253,7 @@
         <v>4680</v>
       </c>
       <c r="K933" t="n">
-        <v>-12.87128712871287</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L933" t="n">
         <v>2682.7</v>
@@ -48282,7 +48304,7 @@
         <v>4680</v>
       </c>
       <c r="K934" t="n">
-        <v>-12</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L934" t="n">
         <v>2683</v>
@@ -48333,7 +48355,7 @@
         <v>4684</v>
       </c>
       <c r="K935" t="n">
-        <v>-4.95049504950495</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L935" t="n">
         <v>2683.5</v>
@@ -48384,7 +48406,7 @@
         <v>4684</v>
       </c>
       <c r="K936" t="n">
-        <v>-6</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L936" t="n">
         <v>2684.2</v>
@@ -48435,7 +48457,7 @@
         <v>4684</v>
       </c>
       <c r="K937" t="n">
-        <v>-5.05050505050505</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L937" t="n">
         <v>2684.9</v>
@@ -48486,7 +48508,7 @@
         <v>4688</v>
       </c>
       <c r="K938" t="n">
-        <v>3.03030303030303</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L938" t="n">
         <v>2686</v>
@@ -48537,7 +48559,7 @@
         <v>4691</v>
       </c>
       <c r="K939" t="n">
-        <v>36</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L939" t="n">
         <v>2686.5</v>
@@ -48588,7 +48610,7 @@
         <v>4693</v>
       </c>
       <c r="K940" t="n">
-        <v>31.42857142857143</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L940" t="n">
         <v>2687.3</v>
@@ -48639,7 +48661,7 @@
         <v>4705</v>
       </c>
       <c r="K941" t="n">
-        <v>24.32432432432433</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L941" t="n">
         <v>2686.9</v>
@@ -48690,7 +48712,7 @@
         <v>4710</v>
       </c>
       <c r="K942" t="n">
-        <v>28.2051282051282</v>
+        <v>0</v>
       </c>
       <c r="L942" t="n">
         <v>2687.7</v>
@@ -48741,7 +48763,7 @@
         <v>4711</v>
       </c>
       <c r="K943" t="n">
-        <v>-1.754385964912281</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L943" t="n">
         <v>2687.6</v>
@@ -48792,7 +48814,7 @@
         <v>4711</v>
       </c>
       <c r="K944" t="n">
-        <v>3.703703703703703</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L944" t="n">
         <v>2687.5</v>
@@ -48843,7 +48865,7 @@
         <v>4711</v>
       </c>
       <c r="K945" t="n">
-        <v>0</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L945" t="n">
         <v>2687</v>
@@ -48894,7 +48916,7 @@
         <v>4711</v>
       </c>
       <c r="K946" t="n">
-        <v>4</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L946" t="n">
         <v>2686.5</v>
@@ -48945,7 +48967,7 @@
         <v>4714</v>
       </c>
       <c r="K947" t="n">
-        <v>-1.886792452830189</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L947" t="n">
         <v>2685.7</v>
@@ -48996,7 +49018,7 @@
         <v>4714</v>
       </c>
       <c r="K948" t="n">
-        <v>-1.886792452830189</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L948" t="n">
         <v>2684.5</v>
@@ -49047,7 +49069,7 @@
         <v>4715</v>
       </c>
       <c r="K949" t="n">
-        <v>-9.803921568627452</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L949" t="n">
         <v>2683.5</v>
@@ -49098,7 +49120,7 @@
         <v>4725</v>
       </c>
       <c r="K950" t="n">
-        <v>-23.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L950" t="n">
         <v>2681.3</v>
@@ -49149,7 +49171,7 @@
         <v>4734</v>
       </c>
       <c r="K951" t="n">
-        <v>-7.246376811594203</v>
+        <v>-25</v>
       </c>
       <c r="L951" t="n">
         <v>2681.2</v>
@@ -49200,7 +49222,7 @@
         <v>4736</v>
       </c>
       <c r="K952" t="n">
-        <v>6.25</v>
+        <v>-12</v>
       </c>
       <c r="L952" t="n">
         <v>2680.8</v>
@@ -49251,7 +49273,7 @@
         <v>4736</v>
       </c>
       <c r="K953" t="n">
-        <v>-7.142857142857142</v>
+        <v>-12</v>
       </c>
       <c r="L953" t="n">
         <v>2680.5</v>
@@ -49302,7 +49324,7 @@
         <v>4742</v>
       </c>
       <c r="K954" t="n">
-        <v>-16.12903225806452</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L954" t="n">
         <v>2679.6</v>
@@ -49353,7 +49375,7 @@
         <v>4750</v>
       </c>
       <c r="K955" t="n">
-        <v>-9.090909090909092</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L955" t="n">
         <v>2679.5</v>
@@ -49404,7 +49426,7 @@
         <v>4759</v>
       </c>
       <c r="K956" t="n">
-        <v>-20</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L956" t="n">
         <v>2678.5</v>
@@ -49455,7 +49477,7 @@
         <v>4759</v>
       </c>
       <c r="K957" t="n">
-        <v>-20</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L957" t="n">
         <v>2677.8</v>
@@ -49506,7 +49528,7 @@
         <v>4775</v>
       </c>
       <c r="K958" t="n">
-        <v>-3.448275862068965</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L958" t="n">
         <v>2678.7</v>
@@ -49557,7 +49579,7 @@
         <v>4776</v>
       </c>
       <c r="K959" t="n">
-        <v>1.176470588235294</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L959" t="n">
         <v>2679.8</v>
@@ -49608,7 +49630,7 @@
         <v>4781</v>
       </c>
       <c r="K960" t="n">
-        <v>4.545454545454546</v>
+        <v>36.17021276595745</v>
       </c>
       <c r="L960" t="n">
         <v>2682.4</v>
@@ -49659,7 +49681,7 @@
         <v>4781</v>
       </c>
       <c r="K961" t="n">
-        <v>21.05263157894737</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L961" t="n">
         <v>2684.1</v>
@@ -49710,7 +49732,7 @@
         <v>4781</v>
       </c>
       <c r="K962" t="n">
-        <v>15.49295774647887</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L962" t="n">
         <v>2685.6</v>
@@ -49761,7 +49783,7 @@
         <v>4790</v>
       </c>
       <c r="K963" t="n">
-        <v>26.58227848101265</v>
+        <v>62.5</v>
       </c>
       <c r="L963" t="n">
         <v>2688</v>
@@ -49812,7 +49834,7 @@
         <v>4794</v>
       </c>
       <c r="K964" t="n">
-        <v>30.12048192771084</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="L964" t="n">
         <v>2691.4</v>
@@ -49863,7 +49885,7 @@
         <v>4795</v>
       </c>
       <c r="K965" t="n">
-        <v>30.95238095238095</v>
+        <v>100</v>
       </c>
       <c r="L965" t="n">
         <v>2694.1</v>
@@ -49914,7 +49936,7 @@
         <v>4805</v>
       </c>
       <c r="K966" t="n">
-        <v>17.02127659574468</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L966" t="n">
         <v>2696.7</v>
@@ -49965,7 +49987,7 @@
         <v>4805</v>
       </c>
       <c r="K967" t="n">
-        <v>20.87912087912088</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L967" t="n">
         <v>2699.3</v>
@@ -50016,7 +50038,7 @@
         <v>4805</v>
       </c>
       <c r="K968" t="n">
-        <v>20.87912087912088</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L968" t="n">
         <v>2700.3</v>
@@ -50067,7 +50089,7 @@
         <v>4823</v>
       </c>
       <c r="K969" t="n">
-        <v>35.18518518518518</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L969" t="n">
         <v>2703</v>
@@ -50118,7 +50140,7 @@
         <v>4833</v>
       </c>
       <c r="K970" t="n">
-        <v>53.70370370370371</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L970" t="n">
         <v>2706.2</v>
@@ -50169,7 +50191,7 @@
         <v>4840</v>
       </c>
       <c r="K971" t="n">
-        <v>39.62264150943396</v>
+        <v>42.3728813559322</v>
       </c>
       <c r="L971" t="n">
         <v>2708.7</v>
@@ -50220,7 +50242,7 @@
         <v>4849</v>
       </c>
       <c r="K972" t="n">
-        <v>43.36283185840708</v>
+        <v>42.3728813559322</v>
       </c>
       <c r="L972" t="n">
         <v>2712.1</v>
@@ -50271,7 +50293,7 @@
         <v>4859</v>
       </c>
       <c r="K973" t="n">
-        <v>31.70731707317073</v>
+        <v>16.92307692307692</v>
       </c>
       <c r="L973" t="n">
         <v>2713.6</v>
@@ -50322,7 +50344,7 @@
         <v>4859</v>
       </c>
       <c r="K974" t="n">
-        <v>38.46153846153847</v>
+        <v>15.625</v>
       </c>
       <c r="L974" t="n">
         <v>2714.7</v>
@@ -50373,7 +50395,7 @@
         <v>4873</v>
       </c>
       <c r="K975" t="n">
-        <v>41.46341463414634</v>
+        <v>50</v>
       </c>
       <c r="L975" t="n">
         <v>2717.1</v>
@@ -50424,7 +50446,7 @@
         <v>4873</v>
       </c>
       <c r="K976" t="n">
-        <v>52.63157894736842</v>
+        <v>50</v>
       </c>
       <c r="L976" t="n">
         <v>2720.5</v>
@@ -50475,7 +50497,7 @@
         <v>4881</v>
       </c>
       <c r="K977" t="n">
-        <v>42.62295081967213</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="L977" t="n">
         <v>2723.1</v>
@@ -50526,7 +50548,7 @@
         <v>4893</v>
       </c>
       <c r="K978" t="n">
-        <v>40.67796610169492</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L978" t="n">
         <v>2726.9</v>
@@ -50577,7 +50599,7 @@
         <v>4903</v>
       </c>
       <c r="K979" t="n">
-        <v>44.88188976377953</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L979" t="n">
         <v>2729.9</v>
@@ -50628,7 +50650,7 @@
         <v>4914</v>
       </c>
       <c r="K980" t="n">
-        <v>30.82706766917293</v>
+        <v>21.62162162162162</v>
       </c>
       <c r="L980" t="n">
         <v>2730.8</v>
@@ -50679,7 +50701,7 @@
         <v>4921</v>
       </c>
       <c r="K981" t="n">
-        <v>34.28571428571428</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="L981" t="n">
         <v>2733.1</v>
@@ -50730,7 +50752,7 @@
         <v>4921</v>
       </c>
       <c r="K982" t="n">
-        <v>34.28571428571428</v>
+        <v>38.70967741935484</v>
       </c>
       <c r="L982" t="n">
         <v>2734.5</v>
@@ -50781,7 +50803,7 @@
         <v>4922</v>
       </c>
       <c r="K983" t="n">
-        <v>30.3030303030303</v>
+        <v>39.68253968253968</v>
       </c>
       <c r="L983" t="n">
         <v>2737</v>
@@ -50832,7 +50854,7 @@
         <v>4928</v>
       </c>
       <c r="K984" t="n">
-        <v>31.34328358208955</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="L984" t="n">
         <v>2740.1</v>
@@ -50883,7 +50905,7 @@
         <v>4928</v>
       </c>
       <c r="K985" t="n">
-        <v>30.82706766917293</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="L985" t="n">
         <v>2741.8</v>
@@ -50934,7 +50956,7 @@
         <v>4934</v>
       </c>
       <c r="K986" t="n">
-        <v>34.88372093023256</v>
+        <v>35.84905660377358</v>
       </c>
       <c r="L986" t="n">
         <v>2742.9</v>
@@ -50985,7 +51007,7 @@
         <v>4936</v>
       </c>
       <c r="K987" t="n">
-        <v>32.82442748091603</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L987" t="n">
         <v>2744.6</v>
@@ -51036,7 +51058,7 @@
         <v>4939</v>
       </c>
       <c r="K988" t="n">
-        <v>34.32835820895522</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L988" t="n">
         <v>2745.4</v>
@@ -51087,7 +51109,7 @@
         <v>4945</v>
       </c>
       <c r="K989" t="n">
-        <v>27.86885245901639</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L989" t="n">
         <v>2745.8</v>
@@ -51138,7 +51160,7 @@
         <v>4945</v>
       </c>
       <c r="K990" t="n">
-        <v>21.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L990" t="n">
         <v>2747.3</v>
@@ -51189,7 +51211,7 @@
         <v>4945</v>
       </c>
       <c r="K991" t="n">
-        <v>29.52380952380953</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L991" t="n">
         <v>2748.1</v>
@@ -51240,7 +51262,7 @@
         <v>4951</v>
       </c>
       <c r="K992" t="n">
-        <v>15.68627450980392</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L992" t="n">
         <v>2748.3</v>
@@ -51291,7 +51313,7 @@
         <v>4955</v>
       </c>
       <c r="K993" t="n">
-        <v>31.25</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L993" t="n">
         <v>2748.8</v>
@@ -51342,7 +51364,7 @@
         <v>4960</v>
       </c>
       <c r="K994" t="n">
-        <v>34.65346534653465</v>
+        <v>12.5</v>
       </c>
       <c r="L994" t="n">
         <v>2749.2</v>
@@ -51393,7 +51415,7 @@
         <v>4960</v>
       </c>
       <c r="K995" t="n">
-        <v>24.13793103448276</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L995" t="n">
         <v>2749.6</v>
@@ -51444,7 +51466,7 @@
         <v>4965</v>
       </c>
       <c r="K996" t="n">
-        <v>17.39130434782609</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L996" t="n">
         <v>2750.1</v>
@@ -51495,7 +51517,7 @@
         <v>4978</v>
       </c>
       <c r="K997" t="n">
-        <v>38.14432989690722</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L997" t="n">
         <v>2752.1</v>
@@ -51546,7 +51568,7 @@
         <v>4988</v>
       </c>
       <c r="K998" t="n">
-        <v>36.84210526315789</v>
+        <v>48.83720930232558</v>
       </c>
       <c r="L998" t="n">
         <v>2754.8</v>
@@ -51597,7 +51619,7 @@
         <v>4994</v>
       </c>
       <c r="K999" t="n">
-        <v>34.06593406593407</v>
+        <v>55.10204081632652</v>
       </c>
       <c r="L999" t="n">
         <v>2757.5</v>
@@ -51648,7 +51670,7 @@
         <v>5001</v>
       </c>
       <c r="K1000" t="n">
-        <v>40.22988505747126</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L1000" t="n">
         <v>2759.5</v>
@@ -51699,7 +51721,7 @@
         <v>5002</v>
       </c>
       <c r="K1001" t="n">
-        <v>35.80246913580247</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L1001" t="n">
         <v>2761.6</v>
@@ -51750,7 +51772,7 @@
         <v>5022</v>
       </c>
       <c r="K1002" t="n">
-        <v>48.51485148514851</v>
+        <v>64.17910447761194</v>
       </c>
       <c r="L1002" t="n">
         <v>2766.3</v>
@@ -51801,7 +51823,7 @@
         <v>5029</v>
       </c>
       <c r="K1003" t="n">
-        <v>51.4018691588785</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L1003" t="n">
         <v>2771.3</v>
@@ -51852,7 +51874,7 @@
         <v>5039</v>
       </c>
       <c r="K1004" t="n">
-        <v>35.13513513513514</v>
+        <v>44.30379746835442</v>
       </c>
       <c r="L1004" t="n">
         <v>2774.8</v>
@@ -51903,7 +51925,7 @@
         <v>5049</v>
       </c>
       <c r="K1005" t="n">
-        <v>23.96694214876033</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L1005" t="n">
         <v>2777.3</v>
@@ -51954,7 +51976,7 @@
         <v>5056</v>
       </c>
       <c r="K1006" t="n">
-        <v>22.95081967213115</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L1006" t="n">
         <v>2779.6</v>
@@ -52005,7 +52027,7 @@
         <v>5059</v>
       </c>
       <c r="K1007" t="n">
-        <v>21.95121951219512</v>
+        <v>-4.225352112676056</v>
       </c>
       <c r="L1007" t="n">
         <v>2780.3</v>
@@ -52056,7 +52078,7 @@
         <v>5070</v>
       </c>
       <c r="K1008" t="n">
-        <v>26.7175572519084</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="L1008" t="n">
         <v>2781.1</v>
@@ -52107,7 +52129,7 @@
         <v>5072</v>
       </c>
       <c r="K1009" t="n">
-        <v>21.25984251968504</v>
+        <v>9.859154929577464</v>
       </c>
       <c r="L1009" t="n">
         <v>2781.1</v>
@@ -52158,7 +52180,7 @@
         <v>5073</v>
       </c>
       <c r="K1010" t="n">
-        <v>21.875</v>
+        <v>9.859154929577464</v>
       </c>
       <c r="L1010" t="n">
         <v>2781.9</v>
@@ -52209,7 +52231,7 @@
         <v>5081</v>
       </c>
       <c r="K1011" t="n">
-        <v>14.70588235294118</v>
+        <v>-35.59322033898305</v>
       </c>
       <c r="L1011" t="n">
         <v>2781.8</v>
@@ -52260,7 +52282,7 @@
         <v>5082</v>
       </c>
       <c r="K1012" t="n">
-        <v>19.08396946564886</v>
+        <v>-54.71698113207547</v>
       </c>
       <c r="L1012" t="n">
         <v>2779.6</v>
@@ -52311,7 +52333,7 @@
         <v>5085</v>
       </c>
       <c r="K1013" t="n">
-        <v>18.46153846153846</v>
+        <v>-34.78260869565217</v>
       </c>
       <c r="L1013" t="n">
         <v>2777</v>
@@ -52362,7 +52384,7 @@
         <v>5091</v>
       </c>
       <c r="K1014" t="n">
-        <v>19.08396946564886</v>
+        <v>0</v>
       </c>
       <c r="L1014" t="n">
         <v>2776</v>
@@ -52413,7 +52435,7 @@
         <v>5110</v>
       </c>
       <c r="K1015" t="n">
-        <v>29.33333333333333</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L1015" t="n">
         <v>2777.9</v>
@@ -52464,7 +52486,7 @@
         <v>5116</v>
       </c>
       <c r="K1016" t="n">
-        <v>36.42384105960264</v>
+        <v>61.40350877192983</v>
       </c>
       <c r="L1016" t="n">
         <v>2781.1</v>
@@ -52515,7 +52537,7 @@
         <v>5127</v>
       </c>
       <c r="K1017" t="n">
-        <v>35.57046979865772</v>
+        <v>61.40350877192983</v>
       </c>
       <c r="L1017" t="n">
         <v>2785.7</v>
@@ -52566,7 +52588,7 @@
         <v>5128</v>
       </c>
       <c r="K1018" t="n">
-        <v>30</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L1018" t="n">
         <v>2789.1</v>
@@ -52617,7 +52639,7 @@
         <v>5138</v>
       </c>
       <c r="K1019" t="n">
-        <v>31.94444444444444</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L1019" t="n">
         <v>2793.7</v>
@@ -52668,7 +52690,7 @@
         <v>5138</v>
       </c>
       <c r="K1020" t="n">
-        <v>38.68613138686132</v>
+        <v>92.98245614035088</v>
       </c>
       <c r="L1020" t="n">
         <v>2798.2</v>
@@ -52719,7 +52741,7 @@
         <v>5139</v>
       </c>
       <c r="K1021" t="n">
-        <v>38.68613138686132</v>
+        <v>96.49122807017544</v>
       </c>
       <c r="L1021" t="n">
         <v>2803.6</v>
@@ -52770,7 +52792,7 @@
         <v>5145</v>
       </c>
       <c r="K1022" t="n">
-        <v>31.70731707317073</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="L1022" t="n">
         <v>2809.7</v>
@@ -52821,7 +52843,7 @@
         <v>5155</v>
       </c>
       <c r="K1023" t="n">
-        <v>17.46031746031746</v>
+        <v>65.625</v>
       </c>
       <c r="L1023" t="n">
         <v>2814.5</v>
@@ -52872,7 +52894,7 @@
         <v>5168</v>
       </c>
       <c r="K1024" t="n">
-        <v>14.72868217054264</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L1024" t="n">
         <v>2817.4</v>
@@ -52923,7 +52945,7 @@
         <v>5179</v>
       </c>
       <c r="K1025" t="n">
-        <v>13.84615384615385</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L1025" t="n">
         <v>2817.3</v>
@@ -52974,7 +52996,7 @@
         <v>5189</v>
       </c>
       <c r="K1026" t="n">
-        <v>26.31578947368421</v>
+        <v>-12.90322580645161</v>
       </c>
       <c r="L1026" t="n">
         <v>2817.6</v>
@@ -53025,7 +53047,7 @@
         <v>5195</v>
       </c>
       <c r="K1027" t="n">
-        <v>32.35294117647059</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="L1027" t="n">
         <v>2817.4</v>
@@ -53076,7 +53098,7 @@
         <v>5207</v>
       </c>
       <c r="K1028" t="n">
-        <v>32.84671532846716</v>
+        <v>1.449275362318841</v>
       </c>
       <c r="L1028" t="n">
         <v>2818.5</v>
@@ -53127,7 +53149,7 @@
         <v>5210</v>
       </c>
       <c r="K1029" t="n">
-        <v>36.23188405797102</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L1029" t="n">
         <v>2818.9</v>
@@ -53178,7 +53200,7 @@
         <v>5214</v>
       </c>
       <c r="K1030" t="n">
-        <v>31.91489361702128</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="L1030" t="n">
         <v>2818.9</v>
@@ -53229,7 +53251,7 @@
         <v>5221</v>
       </c>
       <c r="K1031" t="n">
-        <v>32.85714285714285</v>
+        <v>-18.42105263157895</v>
       </c>
       <c r="L1031" t="n">
         <v>2818.1</v>
@@ -53280,7 +53302,7 @@
         <v>5234</v>
       </c>
       <c r="K1032" t="n">
-        <v>39.47368421052632</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="L1032" t="n">
         <v>2818</v>
@@ -53331,7 +53353,7 @@
         <v>5242</v>
       </c>
       <c r="K1033" t="n">
-        <v>31.21019108280255</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L1033" t="n">
         <v>2818.1</v>
@@ -53382,7 +53404,7 @@
         <v>5247</v>
       </c>
       <c r="K1034" t="n">
-        <v>30.76923076923077</v>
+        <v>44.11764705882353</v>
       </c>
       <c r="L1034" t="n">
         <v>2820</v>
@@ -53433,7 +53455,7 @@
         <v>5250</v>
       </c>
       <c r="K1035" t="n">
-        <v>22.85714285714286</v>
+        <v>37.70491803278689</v>
       </c>
       <c r="L1035" t="n">
         <v>2823.3</v>
@@ -53484,7 +53506,7 @@
         <v>5261</v>
       </c>
       <c r="K1036" t="n">
-        <v>25.51724137931035</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="L1036" t="n">
         <v>2826.7</v>
@@ -53535,7 +53557,7 @@
         <v>5280</v>
       </c>
       <c r="K1037" t="n">
-        <v>29.41176470588236</v>
+        <v>47.94520547945205</v>
       </c>
       <c r="L1037" t="n">
         <v>2831.4</v>
@@ -53586,7 +53608,7 @@
         <v>5283</v>
       </c>
       <c r="K1038" t="n">
-        <v>31.61290322580645</v>
+        <v>47.94520547945205</v>
       </c>
       <c r="L1038" t="n">
         <v>2835.2</v>
@@ -53637,7 +53659,7 @@
         <v>5292</v>
       </c>
       <c r="K1039" t="n">
-        <v>19.48051948051948</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L1039" t="n">
         <v>2837.8</v>
@@ -53688,7 +53710,7 @@
         <v>5294</v>
       </c>
       <c r="K1040" t="n">
-        <v>17.94871794871795</v>
+        <v>47.94520547945205</v>
       </c>
       <c r="L1040" t="n">
         <v>2840.6</v>
@@ -53739,7 +53761,7 @@
         <v>5296</v>
       </c>
       <c r="K1041" t="n">
-        <v>15.92356687898089</v>
+        <v>32.25806451612903</v>
       </c>
       <c r="L1041" t="n">
         <v>2843.9</v>
@@ -53790,7 +53812,7 @@
         <v>5311</v>
       </c>
       <c r="K1042" t="n">
-        <v>2.409638554216868</v>
+        <v>18.84057971014493</v>
       </c>
       <c r="L1042" t="n">
         <v>2844.4</v>
@@ -53841,7 +53863,7 @@
         <v>5311</v>
       </c>
       <c r="K1043" t="n">
-        <v>8.974358974358974</v>
+        <v>12.5</v>
       </c>
       <c r="L1043" t="n">
         <v>2845.7</v>
@@ -53892,7 +53914,7 @@
         <v>5325</v>
       </c>
       <c r="K1044" t="n">
-        <v>26.11464968152866</v>
+        <v>25.33333333333334</v>
       </c>
       <c r="L1044" t="n">
         <v>2847.9</v>
